--- a/etf_dfs/EWJ.xlsx
+++ b/etf_dfs/EWJ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Open</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Return</t>
   </si>
   <si>
-    <t>Return_12</t>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
   </si>
   <si>
     <t>EWJ</t>
@@ -404,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J311"/>
+  <dimension ref="A1:K312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +441,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>35125</v>
       </c>
@@ -456,13 +462,13 @@
         <v>62.75</v>
       </c>
       <c r="F2">
-        <v>44.51873397827148</v>
+        <v>44.51873016357422</v>
       </c>
       <c r="G2">
         <v>254525</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>35156</v>
       </c>
@@ -488,7 +494,7 @@
         <v>0.047808764940239</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>35186</v>
       </c>
@@ -505,7 +511,7 @@
         <v>62.75</v>
       </c>
       <c r="F4">
-        <v>44.51873397827148</v>
+        <v>44.51873016357422</v>
       </c>
       <c r="G4">
         <v>1875</v>
@@ -513,8 +519,11 @@
       <c r="H4">
         <v>-0.04562737642585546</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4">
+        <v>0.06606932916787028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>35217</v>
       </c>
@@ -539,8 +548,11 @@
       <c r="H5">
         <v>0.01195219123505975</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5">
+        <v>0.04713705726085309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>35247</v>
       </c>
@@ -557,7 +569,7 @@
         <v>60.5</v>
       </c>
       <c r="F6">
-        <v>42.92243957519531</v>
+        <v>42.92245483398438</v>
       </c>
       <c r="G6">
         <v>26650</v>
@@ -565,8 +577,11 @@
       <c r="H6">
         <v>-0.047244094488189</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6">
+        <v>0.04643388948235951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>35278</v>
       </c>
@@ -583,7 +598,7 @@
         <v>57.25</v>
       </c>
       <c r="F7">
-        <v>40.6166877746582</v>
+        <v>40.61669540405273</v>
       </c>
       <c r="G7">
         <v>35775</v>
@@ -591,8 +606,11 @@
       <c r="H7">
         <v>-0.05371900826446285</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7">
+        <v>0.04505622448638642</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>35309</v>
       </c>
@@ -617,8 +635,11 @@
       <c r="H8">
         <v>0.03493449781659397</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8">
+        <v>0.045606352344181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>35339</v>
       </c>
@@ -635,7 +656,7 @@
         <v>55.25</v>
       </c>
       <c r="F9">
-        <v>39.19777297973633</v>
+        <v>39.19776153564453</v>
       </c>
       <c r="G9">
         <v>2400</v>
@@ -643,8 +664,11 @@
       <c r="H9">
         <v>-0.0675105485232067</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9">
+        <v>0.04720417878351302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>35370</v>
       </c>
@@ -661,7 +685,7 @@
         <v>56.5</v>
       </c>
       <c r="F10">
-        <v>40.08460235595703</v>
+        <v>40.0846061706543</v>
       </c>
       <c r="G10">
         <v>4850</v>
@@ -669,8 +693,11 @@
       <c r="H10">
         <v>0.02262443438914019</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10">
+        <v>0.04589936412237377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>35400</v>
       </c>
@@ -687,7 +714,7 @@
         <v>52.25</v>
       </c>
       <c r="F11">
-        <v>37.06938171386719</v>
+        <v>37.06937789916992</v>
       </c>
       <c r="G11">
         <v>19075</v>
@@ -695,8 +722,11 @@
       <c r="H11">
         <v>-0.0752212389380531</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11">
+        <v>0.04781359348709863</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>35431</v>
       </c>
@@ -713,7 +743,7 @@
         <v>47</v>
       </c>
       <c r="F12">
-        <v>33.34470748901367</v>
+        <v>33.34471130371094</v>
       </c>
       <c r="G12">
         <v>14500</v>
@@ -721,8 +751,11 @@
       <c r="H12">
         <v>-0.1004784688995215</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12">
+        <v>0.05190553523988834</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>35462</v>
       </c>
@@ -739,7 +772,7 @@
         <v>48</v>
       </c>
       <c r="F13">
-        <v>34.05418014526367</v>
+        <v>34.05416870117188</v>
       </c>
       <c r="G13">
         <v>11375</v>
@@ -747,8 +780,11 @@
       <c r="H13">
         <v>0.02127659574468077</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13">
+        <v>0.05136949221998777</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>35490</v>
       </c>
@@ -765,7 +801,7 @@
         <v>46</v>
       </c>
       <c r="F14">
-        <v>32.63524627685547</v>
+        <v>32.63525772094727</v>
       </c>
       <c r="G14">
         <v>13925</v>
@@ -774,13 +810,16 @@
         <v>-0.04166666666666663</v>
       </c>
       <c r="I14">
-        <v>-0.2669322709163346</v>
+        <v>0.04927959740079151</v>
       </c>
       <c r="J14">
         <v>-0.2669322709163346</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>-0.2669322709163346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>35521</v>
       </c>
@@ -797,7 +836,7 @@
         <v>48.75</v>
       </c>
       <c r="F15">
-        <v>34.58626937866211</v>
+        <v>34.58626556396484</v>
       </c>
       <c r="G15">
         <v>33250</v>
@@ -806,13 +845,16 @@
         <v>0.05978260869565211</v>
       </c>
       <c r="I15">
-        <v>-0.2585551330798479</v>
+        <v>0.05264326830102273</v>
       </c>
       <c r="J15">
         <v>-0.2585551330798479</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>-0.2585551330798479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>35551</v>
       </c>
@@ -829,7 +871,7 @@
         <v>53.5</v>
       </c>
       <c r="F16">
-        <v>37.95622253417969</v>
+        <v>37.95620727539062</v>
       </c>
       <c r="G16">
         <v>21425</v>
@@ -838,13 +880,16 @@
         <v>0.09743589743589753</v>
       </c>
       <c r="I16">
-        <v>-0.147410358565737</v>
+        <v>0.05923510082399375</v>
       </c>
       <c r="J16">
         <v>-0.147410358565737</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>-0.147410358565737</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>35582</v>
       </c>
@@ -861,7 +906,7 @@
         <v>56.5</v>
       </c>
       <c r="F17">
-        <v>40.08460235595703</v>
+        <v>40.0846061706543</v>
       </c>
       <c r="G17">
         <v>119200</v>
@@ -870,13 +915,16 @@
         <v>0.05607476635514019</v>
       </c>
       <c r="I17">
-        <v>-0.110236220472441</v>
+        <v>0.0595524783755716</v>
       </c>
       <c r="J17">
         <v>-0.110236220472441</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>-0.110236220472441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>35612</v>
       </c>
@@ -893,7 +941,7 @@
         <v>55.75</v>
       </c>
       <c r="F18">
-        <v>39.5525016784668</v>
+        <v>39.55249786376953</v>
       </c>
       <c r="G18">
         <v>10675</v>
@@ -902,13 +950,16 @@
         <v>-0.01327433628318586</v>
       </c>
       <c r="I18">
-        <v>-0.07851239669421484</v>
+        <v>0.05756764474351998</v>
       </c>
       <c r="J18">
         <v>-0.07851239669421484</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>-0.07851239669421484</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>35643</v>
       </c>
@@ -925,7 +976,7 @@
         <v>50.25</v>
       </c>
       <c r="F19">
-        <v>35.66417694091797</v>
+        <v>35.66418075561523</v>
       </c>
       <c r="G19">
         <v>4150</v>
@@ -934,13 +985,16 @@
         <v>-0.09865470852017932</v>
       </c>
       <c r="I19">
-        <v>-0.1222707423580786</v>
+        <v>0.06011694778813684</v>
       </c>
       <c r="J19">
         <v>-0.1222707423580786</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>-0.1222707423580786</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>35674</v>
       </c>
@@ -957,7 +1011,7 @@
         <v>49.75</v>
       </c>
       <c r="F20">
-        <v>35.30930709838867</v>
+        <v>35.30931854248047</v>
       </c>
       <c r="G20">
         <v>6675</v>
@@ -966,13 +1020,16 @@
         <v>-0.00995024875621886</v>
       </c>
       <c r="I20">
-        <v>-0.1603375527426161</v>
+        <v>0.05832282943584916</v>
       </c>
       <c r="J20">
         <v>-0.1603375527426161</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>-0.1603375527426161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>35704</v>
       </c>
@@ -989,7 +1046,7 @@
         <v>45</v>
       </c>
       <c r="F21">
-        <v>31.93807220458984</v>
+        <v>31.93807411193848</v>
       </c>
       <c r="G21">
         <v>51050</v>
@@ -998,13 +1055,16 @@
         <v>-0.09547738693467334</v>
       </c>
       <c r="I21">
-        <v>-0.1855203619909502</v>
+        <v>0.05988716861143239</v>
       </c>
       <c r="J21">
         <v>-0.1855203619909502</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>-0.1855203619909502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>35735</v>
       </c>
@@ -1030,13 +1090,16 @@
         <v>-0.06666666666666665</v>
       </c>
       <c r="I22">
-        <v>-0.2566371681415929</v>
+        <v>0.05939661504869845</v>
       </c>
       <c r="J22">
         <v>-0.2566371681415929</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>-0.2566371681415929</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>35765</v>
       </c>
@@ -1053,7 +1116,7 @@
         <v>39.5</v>
       </c>
       <c r="F23">
-        <v>28.03740692138672</v>
+        <v>28.03740310668945</v>
       </c>
       <c r="G23">
         <v>24225</v>
@@ -1062,13 +1125,16 @@
         <v>-0.05952380952380953</v>
       </c>
       <c r="I23">
-        <v>-0.2440191387559809</v>
+        <v>0.05859142882726172</v>
       </c>
       <c r="J23">
         <v>-0.2440191387559809</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>-0.2440191387559809</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>35796</v>
       </c>
@@ -1085,7 +1151,7 @@
         <v>44.25</v>
       </c>
       <c r="F24">
-        <v>31.40898895263672</v>
+        <v>31.40900039672852</v>
       </c>
       <c r="G24">
         <v>68200</v>
@@ -1094,13 +1160,16 @@
         <v>0.120253164556962</v>
       </c>
       <c r="I24">
-        <v>-0.05851063829787229</v>
+        <v>0.06454079181606671</v>
       </c>
       <c r="J24">
         <v>-0.05851063829787229</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>-0.05851063829787229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>35827</v>
       </c>
@@ -1117,7 +1186,7 @@
         <v>44.75</v>
       </c>
       <c r="F25">
-        <v>31.76390266418457</v>
+        <v>31.76388549804688</v>
       </c>
       <c r="G25">
         <v>43075</v>
@@ -1126,13 +1195,16 @@
         <v>0.01129943502824848</v>
       </c>
       <c r="I25">
-        <v>-0.06770833333333337</v>
+        <v>0.06327314253594533</v>
       </c>
       <c r="J25">
         <v>-0.06770833333333337</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>-0.06770833333333337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>35855</v>
       </c>
@@ -1158,13 +1230,16 @@
         <v>-0.111731843575419</v>
       </c>
       <c r="I26">
-        <v>-0.1358695652173914</v>
+        <v>0.06510186565931655</v>
       </c>
       <c r="J26">
         <v>-0.1358695652173914</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>-0.1358695652173914</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>35886</v>
       </c>
@@ -1181,7 +1256,7 @@
         <v>41.25</v>
       </c>
       <c r="F27">
-        <v>29.27956008911133</v>
+        <v>29.27956962585449</v>
       </c>
       <c r="G27">
         <v>42050</v>
@@ -1190,13 +1265,16 @@
         <v>0.03773584905660377</v>
       </c>
       <c r="I27">
-        <v>-0.1538461538461539</v>
+        <v>0.06465790214036969</v>
       </c>
       <c r="J27">
         <v>-0.1538461538461539</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>-0.1538461538461539</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>35916</v>
       </c>
@@ -1213,7 +1291,7 @@
         <v>38.75</v>
       </c>
       <c r="F28">
-        <v>27.50505065917969</v>
+        <v>27.50504684448242</v>
       </c>
       <c r="G28">
         <v>17850</v>
@@ -1222,13 +1300,16 @@
         <v>-0.06060606060606055</v>
       </c>
       <c r="I28">
-        <v>-0.2757009345794392</v>
+        <v>0.06399018820379627</v>
       </c>
       <c r="J28">
         <v>-0.2757009345794392</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>-0.2757009345794392</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>35947</v>
       </c>
@@ -1245,7 +1326,7 @@
         <v>39.25</v>
       </c>
       <c r="F29">
-        <v>27.85994911193848</v>
+        <v>27.85996437072754</v>
       </c>
       <c r="G29">
         <v>304600</v>
@@ -1254,13 +1335,16 @@
         <v>0.01290322580645165</v>
       </c>
       <c r="I29">
-        <v>-0.3053097345132744</v>
+        <v>0.06300030245611078</v>
       </c>
       <c r="J29">
         <v>-0.3053097345132744</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>-0.3053097345132744</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>35977</v>
       </c>
@@ -1277,7 +1361,7 @@
         <v>37.75</v>
       </c>
       <c r="F30">
-        <v>26.79523658752441</v>
+        <v>26.79523849487305</v>
       </c>
       <c r="G30">
         <v>44800</v>
@@ -1286,13 +1370,16 @@
         <v>-0.03821656050955413</v>
       </c>
       <c r="I30">
-        <v>-0.3228699551569507</v>
+        <v>0.06197404583534327</v>
       </c>
       <c r="J30">
         <v>-0.3228699551569507</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>-0.3228699551569507</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>36008</v>
       </c>
@@ -1309,7 +1396,7 @@
         <v>31.5</v>
       </c>
       <c r="F31">
-        <v>22.38749313354492</v>
+        <v>22.38749504089355</v>
       </c>
       <c r="G31">
         <v>114875</v>
@@ -1318,13 +1405,16 @@
         <v>-0.1655629139072847</v>
       </c>
       <c r="I31">
-        <v>-0.3731343283582089</v>
+        <v>0.06688553210792476</v>
       </c>
       <c r="J31">
         <v>-0.3731343283582089</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>-0.3731343283582089</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>36039</v>
       </c>
@@ -1350,13 +1440,16 @@
         <v>0.01587301587301582</v>
       </c>
       <c r="I32">
-        <v>-0.3567839195979899</v>
+        <v>0.06607129019808954</v>
       </c>
       <c r="J32">
         <v>-0.3567839195979899</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>-0.3567839195979899</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>36069</v>
       </c>
@@ -1373,7 +1466,7 @@
         <v>38.75</v>
       </c>
       <c r="F33">
-        <v>27.54017448425293</v>
+        <v>27.54016876220703</v>
       </c>
       <c r="G33">
         <v>66650</v>
@@ -1382,13 +1475,16 @@
         <v>0.2109375</v>
       </c>
       <c r="I33">
-        <v>-0.1388888888888888</v>
+        <v>0.07707708891460603</v>
       </c>
       <c r="J33">
         <v>-0.1388888888888888</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>-0.1388888888888888</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>36100</v>
       </c>
@@ -1405,7 +1501,7 @@
         <v>40</v>
       </c>
       <c r="F34">
-        <v>28.4285717010498</v>
+        <v>28.42856216430664</v>
       </c>
       <c r="G34">
         <v>85850</v>
@@ -1414,13 +1510,16 @@
         <v>0.032258064516129</v>
       </c>
       <c r="I34">
-        <v>-0.04761904761904767</v>
+        <v>0.07623704186674624</v>
       </c>
       <c r="J34">
         <v>-0.04761904761904767</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>-0.04761904761904767</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>36130</v>
       </c>
@@ -1437,7 +1536,7 @@
         <v>41</v>
       </c>
       <c r="F35">
-        <v>29.16756248474121</v>
+        <v>29.16756820678711</v>
       </c>
       <c r="G35">
         <v>20600</v>
@@ -1446,13 +1545,16 @@
         <v>0.02499999999999991</v>
       </c>
       <c r="I35">
-        <v>0.03797468354430378</v>
+        <v>0.07530033527562871</v>
       </c>
       <c r="J35">
         <v>0.03797468354430378</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>0.03797468354430378</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>36161</v>
       </c>
@@ -1469,7 +1571,7 @@
         <v>42</v>
       </c>
       <c r="F36">
-        <v>29.87895774841309</v>
+        <v>29.87895202636719</v>
       </c>
       <c r="G36">
         <v>104025</v>
@@ -1478,13 +1580,16 @@
         <v>0.02439024390243905</v>
       </c>
       <c r="I36">
-        <v>-0.05084745762711862</v>
+        <v>0.07438606090941352</v>
       </c>
       <c r="J36">
         <v>-0.05084745762711862</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>-0.05084745762711862</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>36192</v>
       </c>
@@ -1501,7 +1606,7 @@
         <v>40.5</v>
       </c>
       <c r="F37">
-        <v>28.81186676025391</v>
+        <v>28.81185913085938</v>
       </c>
       <c r="G37">
         <v>22575</v>
@@ -1510,13 +1615,16 @@
         <v>-0.0357142857142857</v>
       </c>
       <c r="I37">
-        <v>-0.0949720670391061</v>
+        <v>0.07342217813629605</v>
       </c>
       <c r="J37">
         <v>-0.0949720670391061</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>-0.0949720670391061</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>36220</v>
       </c>
@@ -1542,13 +1650,16 @@
         <v>0.1358024691358024</v>
       </c>
       <c r="I38">
-        <v>0.1572327044025157</v>
+        <v>0.07632814600388167</v>
       </c>
       <c r="J38">
         <v>0.1572327044025157</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>0.1572327044025157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>36251</v>
       </c>
@@ -1565,7 +1676,7 @@
         <v>48</v>
       </c>
       <c r="F39">
-        <v>34.14739227294922</v>
+        <v>34.14739990234375</v>
       </c>
       <c r="G39">
         <v>101050</v>
@@ -1574,13 +1685,16 @@
         <v>0.04347826086956519</v>
       </c>
       <c r="I39">
-        <v>0.1636363636363636</v>
+        <v>0.07569519135737891</v>
       </c>
       <c r="J39">
         <v>0.1636363636363636</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>0.1636363636363636</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>36281</v>
       </c>
@@ -1597,7 +1711,7 @@
         <v>45.25</v>
       </c>
       <c r="F40">
-        <v>32.19102478027344</v>
+        <v>32.19103240966797</v>
       </c>
       <c r="G40">
         <v>25850</v>
@@ -1606,13 +1720,16 @@
         <v>-0.05729166666666663</v>
       </c>
       <c r="I40">
-        <v>0.167741935483871</v>
+        <v>0.07515554141662126</v>
       </c>
       <c r="J40">
         <v>0.167741935483871</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>0.167741935483871</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>36312</v>
       </c>
@@ -1629,7 +1746,7 @@
         <v>50</v>
       </c>
       <c r="F41">
-        <v>35.57019424438477</v>
+        <v>35.5702018737793</v>
       </c>
       <c r="G41">
         <v>87125</v>
@@ -1638,13 +1755,16 @@
         <v>0.1049723756906078</v>
       </c>
       <c r="I41">
-        <v>0.2738853503184713</v>
+        <v>0.07625371988166323</v>
       </c>
       <c r="J41">
         <v>0.2738853503184713</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>0.2738853503184713</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>36342</v>
       </c>
@@ -1661,7 +1781,7 @@
         <v>53.75</v>
       </c>
       <c r="F42">
-        <v>38.23795700073242</v>
+        <v>38.23796081542969</v>
       </c>
       <c r="G42">
         <v>187925</v>
@@ -1670,13 +1790,16 @@
         <v>0.07499999999999996</v>
       </c>
       <c r="I42">
-        <v>0.423841059602649</v>
+        <v>0.07627365979771393</v>
       </c>
       <c r="J42">
         <v>0.423841059602649</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>0.423841059602649</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>36373</v>
       </c>
@@ -1693,7 +1816,7 @@
         <v>53.5</v>
       </c>
       <c r="F43">
-        <v>38.19653701782227</v>
+        <v>38.196533203125</v>
       </c>
       <c r="G43">
         <v>148200</v>
@@ -1702,13 +1825,16 @@
         <v>-0.00465116279069766</v>
       </c>
       <c r="I43">
-        <v>0.6984126984126984</v>
+        <v>0.07531629431942766</v>
       </c>
       <c r="J43">
         <v>0.6984126984126984</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>0.6984126984126984</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>36404</v>
       </c>
@@ -1725,7 +1851,7 @@
         <v>55.75</v>
       </c>
       <c r="F44">
-        <v>39.80292892456055</v>
+        <v>39.80291748046875</v>
       </c>
       <c r="G44">
         <v>184825</v>
@@ -1734,13 +1860,16 @@
         <v>0.0420560747663552</v>
       </c>
       <c r="I44">
-        <v>0.7421875</v>
+        <v>0.07469021685515602</v>
       </c>
       <c r="J44">
         <v>0.7421875</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>0.7421875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>36434</v>
       </c>
@@ -1757,7 +1886,7 @@
         <v>59.25</v>
       </c>
       <c r="F45">
-        <v>42.30176544189453</v>
+        <v>42.30176162719727</v>
       </c>
       <c r="G45">
         <v>111200</v>
@@ -1766,13 +1895,16 @@
         <v>0.06278026905829592</v>
       </c>
       <c r="I45">
-        <v>0.5290322580645161</v>
+        <v>0.07441644533100195</v>
       </c>
       <c r="J45">
         <v>0.5290322580645161</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>0.5290322580645161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>36465</v>
       </c>
@@ -1789,7 +1921,7 @@
         <v>61</v>
       </c>
       <c r="F46">
-        <v>43.55117797851562</v>
+        <v>43.55118560791016</v>
       </c>
       <c r="G46">
         <v>100100</v>
@@ -1798,13 +1930,16 @@
         <v>0.02953586497890304</v>
       </c>
       <c r="I46">
-        <v>0.5249999999999999</v>
+        <v>0.07366873746020625</v>
       </c>
       <c r="J46">
         <v>0.5249999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>0.5249999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>36495</v>
       </c>
@@ -1821,7 +1956,7 @@
         <v>65.25</v>
       </c>
       <c r="F47">
-        <v>46.92118072509766</v>
+        <v>46.92117691040039</v>
       </c>
       <c r="G47">
         <v>67600</v>
@@ -1830,13 +1965,16 @@
         <v>0.06967213114754101</v>
       </c>
       <c r="I47">
-        <v>0.5914634146341464</v>
+        <v>0.07352244392838729</v>
       </c>
       <c r="J47">
         <v>0.5914634146341464</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>0.5914634146341464</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>36526</v>
       </c>
@@ -1853,7 +1991,7 @@
         <v>61.5</v>
       </c>
       <c r="F48">
-        <v>44.22456359863281</v>
+        <v>44.22455978393555</v>
       </c>
       <c r="G48">
         <v>111500</v>
@@ -1862,13 +2000,16 @@
         <v>-0.05747126436781613</v>
       </c>
       <c r="I48">
-        <v>0.4642857142857142</v>
+        <v>0.07325445349531114</v>
       </c>
       <c r="J48">
         <v>0.4642857142857142</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>0.4642857142857142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>36557</v>
       </c>
@@ -1885,7 +2026,7 @@
         <v>60.75</v>
       </c>
       <c r="F49">
-        <v>43.68523788452148</v>
+        <v>43.68524169921875</v>
       </c>
       <c r="G49">
         <v>230650</v>
@@ -1894,13 +2035,16 @@
         <v>-0.01219512195121952</v>
       </c>
       <c r="I49">
-        <v>0.5</v>
+        <v>0.07248410484537078</v>
       </c>
       <c r="J49">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>36586</v>
       </c>
@@ -1917,7 +2061,7 @@
         <v>66</v>
       </c>
       <c r="F50">
-        <v>47.46049499511719</v>
+        <v>47.46050262451172</v>
       </c>
       <c r="G50">
         <v>88875</v>
@@ -1926,13 +2070,16 @@
         <v>0.08641975308641969</v>
       </c>
       <c r="I50">
-        <v>0.4347826086956521</v>
+        <v>0.07274013935998679</v>
       </c>
       <c r="J50">
         <v>0.4347826086956521</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>0.4347826086956521</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>36617</v>
       </c>
@@ -1949,7 +2096,7 @@
         <v>61</v>
       </c>
       <c r="F51">
-        <v>43.86500549316406</v>
+        <v>43.86501693725586</v>
       </c>
       <c r="G51">
         <v>64750</v>
@@ -1958,13 +2105,16 @@
         <v>-0.0757575757575758</v>
       </c>
       <c r="I51">
-        <v>0.2708333333333333</v>
+        <v>0.07286622417089303</v>
       </c>
       <c r="J51">
         <v>0.2708333333333333</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>0.2708333333333333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>36647</v>
       </c>
@@ -1981,7 +2131,7 @@
         <v>57.5</v>
       </c>
       <c r="F52">
-        <v>41.34816360473633</v>
+        <v>41.34816741943359</v>
       </c>
       <c r="G52">
         <v>154750</v>
@@ -1990,13 +2140,16 @@
         <v>-0.05737704918032782</v>
       </c>
       <c r="I52">
-        <v>0.270718232044199</v>
+        <v>0.07260609195138183</v>
       </c>
       <c r="J52">
         <v>0.270718232044199</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>0.270718232044199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>36678</v>
       </c>
@@ -2013,7 +2166,7 @@
         <v>60.75</v>
       </c>
       <c r="F53">
-        <v>43.68523788452148</v>
+        <v>43.68524169921875</v>
       </c>
       <c r="G53">
         <v>68650</v>
@@ -2022,13 +2175,16 @@
         <v>0.05652173913043468</v>
       </c>
       <c r="I53">
-        <v>0.2150000000000001</v>
+        <v>0.07229843127350646</v>
       </c>
       <c r="J53">
         <v>0.2150000000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>0.2150000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>36708</v>
       </c>
@@ -2054,13 +2210,16 @@
         <v>-0.1111111111111112</v>
       </c>
       <c r="I54">
-        <v>0.004651162790697771</v>
+        <v>0.07328166453864493</v>
       </c>
       <c r="J54">
         <v>0.004651162790697771</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>0.004651162790697771</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>36739</v>
       </c>
@@ -2086,13 +2245,16 @@
         <v>0.03240740740740744</v>
       </c>
       <c r="I55">
-        <v>0.0420560747663552</v>
+        <v>0.07271226754126187</v>
       </c>
       <c r="J55">
         <v>0.0420560747663552</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>0.0420560747663552</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>36770</v>
       </c>
@@ -2109,7 +2271,7 @@
         <v>53</v>
       </c>
       <c r="F56">
-        <v>39.3750114440918</v>
+        <v>39.37503051757812</v>
       </c>
       <c r="G56">
         <v>159325</v>
@@ -2118,13 +2280,16 @@
         <v>-0.04932735426008972</v>
       </c>
       <c r="I56">
-        <v>-0.04932735426008972</v>
+        <v>0.07233958965105233</v>
       </c>
       <c r="J56">
         <v>-0.04932735426008972</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>-0.04932735426008972</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>36800</v>
       </c>
@@ -2141,7 +2306,7 @@
         <v>50.75</v>
       </c>
       <c r="F57">
-        <v>37.70344543457031</v>
+        <v>37.70344924926758</v>
       </c>
       <c r="G57">
         <v>94300</v>
@@ -2150,13 +2315,16 @@
         <v>-0.04245283018867929</v>
       </c>
       <c r="I57">
-        <v>-0.1434599156118144</v>
+        <v>0.07188880860693887</v>
       </c>
       <c r="J57">
         <v>-0.1434599156118144</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>-0.1434599156118144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>36831</v>
       </c>
@@ -2173,7 +2341,7 @@
         <v>47</v>
       </c>
       <c r="F58">
-        <v>34.91746520996094</v>
+        <v>34.91747283935547</v>
       </c>
       <c r="G58">
         <v>71575</v>
@@ -2182,13 +2350,16 @@
         <v>-0.07389162561576357</v>
       </c>
       <c r="I58">
-        <v>-0.2295081967213115</v>
+        <v>0.07188916171881173</v>
       </c>
       <c r="J58">
         <v>-0.2295081967213115</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>-0.2295081967213115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>36861</v>
       </c>
@@ -2205,7 +2376,7 @@
         <v>44.25</v>
       </c>
       <c r="F59">
-        <v>34.58657073974609</v>
+        <v>34.58657455444336</v>
       </c>
       <c r="G59">
         <v>301900</v>
@@ -2214,13 +2385,16 @@
         <v>-0.05851063829787229</v>
       </c>
       <c r="I59">
-        <v>-0.3218390804597702</v>
+        <v>0.07162786799666367</v>
       </c>
       <c r="J59">
         <v>-0.3218390804597702</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>-0.3218390804597702</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>36892</v>
       </c>
@@ -2246,13 +2420,16 @@
         <v>-0.005649717514124242</v>
       </c>
       <c r="I60">
-        <v>-0.2845528455284553</v>
+        <v>0.07099727896688703</v>
       </c>
       <c r="J60">
         <v>-0.2845528455284553</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>-0.2845528455284553</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>36923</v>
       </c>
@@ -2269,7 +2446,7 @@
         <v>42.11999893188477</v>
       </c>
       <c r="F61">
-        <v>32.92172622680664</v>
+        <v>32.92171096801758</v>
       </c>
       <c r="G61">
         <v>148750</v>
@@ -2278,13 +2455,16 @@
         <v>-0.04272729700261901</v>
       </c>
       <c r="I61">
-        <v>-0.3066666842488105</v>
+        <v>0.07056625616775361</v>
       </c>
       <c r="J61">
         <v>-0.3066666842488105</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>-0.3066666842488105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>36951</v>
       </c>
@@ -2301,7 +2481,7 @@
         <v>40.95999908447266</v>
       </c>
       <c r="F62">
-        <v>32.01504516601562</v>
+        <v>32.01503753662109</v>
       </c>
       <c r="G62">
         <v>55525</v>
@@ -2310,13 +2490,16 @@
         <v>-0.02754035794939191</v>
       </c>
       <c r="I62">
-        <v>-0.3793939532655658</v>
+        <v>0.07002994760928741</v>
       </c>
       <c r="J62">
         <v>-0.3793939532655658</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>-0.3793939532655658</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>36982</v>
       </c>
@@ -2333,7 +2516,7 @@
         <v>44.88000106811523</v>
       </c>
       <c r="F63">
-        <v>35.0789794921875</v>
+        <v>35.0789909362793</v>
       </c>
       <c r="G63">
         <v>85700</v>
@@ -2342,13 +2525,16 @@
         <v>0.09570317556790653</v>
       </c>
       <c r="I63">
-        <v>-0.2642622775718814</v>
+        <v>0.07062361379393299</v>
       </c>
       <c r="J63">
         <v>-0.2642622775718814</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>-0.2642622775718814</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>37012</v>
       </c>
@@ -2365,7 +2551,7 @@
         <v>43.56000137329102</v>
       </c>
       <c r="F64">
-        <v>34.04724884033203</v>
+        <v>34.04725646972656</v>
       </c>
       <c r="G64">
         <v>104725</v>
@@ -2374,13 +2560,16 @@
         <v>-0.02941175720608447</v>
       </c>
       <c r="I64">
-        <v>-0.2424347587253737</v>
+        <v>0.07012232181695363</v>
       </c>
       <c r="J64">
         <v>-0.2424347587253737</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>-0.2424347587253737</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>37043</v>
       </c>
@@ -2397,7 +2586,7 @@
         <v>40.91999816894531</v>
       </c>
       <c r="F65">
-        <v>31.9837818145752</v>
+        <v>31.98377418518066</v>
       </c>
       <c r="G65">
         <v>172825</v>
@@ -2406,13 +2595,16 @@
         <v>-0.06060613225702127</v>
       </c>
       <c r="I65">
-        <v>-0.3264197832272376</v>
+        <v>0.06992598952738766</v>
       </c>
       <c r="J65">
         <v>-0.3264197832272376</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>-0.3264197832272376</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>37073</v>
       </c>
@@ -2429,7 +2621,7 @@
         <v>37.59999847412109</v>
       </c>
       <c r="F66">
-        <v>29.38881492614746</v>
+        <v>29.38880729675293</v>
       </c>
       <c r="G66">
         <v>81025</v>
@@ -2438,13 +2630,16 @@
         <v>-0.08113391601624775</v>
       </c>
       <c r="I66">
-        <v>-0.3037037319607205</v>
+        <v>0.07002914008212867</v>
       </c>
       <c r="J66">
         <v>-0.3037037319607205</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>-0.3037037319607205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>37104</v>
       </c>
@@ -2461,7 +2656,7 @@
         <v>36.56000137329102</v>
       </c>
       <c r="F67">
-        <v>28.57592582702637</v>
+        <v>28.575927734375</v>
       </c>
       <c r="G67">
         <v>61975</v>
@@ -2470,13 +2665,16 @@
         <v>-0.02765949848497673</v>
       </c>
       <c r="I67">
-        <v>-0.3442152220037485</v>
+        <v>0.06953383977380682</v>
       </c>
       <c r="J67">
         <v>-0.3442152220037485</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>-0.3442152220037485</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>37135</v>
       </c>
@@ -2493,7 +2691,7 @@
         <v>33.59999847412109</v>
       </c>
       <c r="F68">
-        <v>26.2623405456543</v>
+        <v>26.26234436035156</v>
       </c>
       <c r="G68">
         <v>89525</v>
@@ -2502,13 +2700,16 @@
         <v>-0.08096287713305061</v>
       </c>
       <c r="I68">
-        <v>-0.3660377646392247</v>
+        <v>0.0696124874695782</v>
       </c>
       <c r="J68">
         <v>-0.3660377646392247</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <v>-0.3660377646392247</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>37165</v>
       </c>
@@ -2525,7 +2726,7 @@
         <v>33.56000137329102</v>
       </c>
       <c r="F69">
-        <v>26.23107528686523</v>
+        <v>26.2310733795166</v>
       </c>
       <c r="G69">
         <v>112150</v>
@@ -2534,13 +2735,16 @@
         <v>-0.00119038995971632</v>
       </c>
       <c r="I69">
-        <v>-0.3387191847627387</v>
+        <v>0.06908682358834732</v>
       </c>
       <c r="J69">
         <v>-0.3387191847627387</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>-0.3387191847627387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>37196</v>
       </c>
@@ -2557,7 +2761,7 @@
         <v>33.52000045776367</v>
       </c>
       <c r="F70">
-        <v>26.19980430603027</v>
+        <v>26.19981002807617</v>
       </c>
       <c r="G70">
         <v>64200</v>
@@ -2566,13 +2770,16 @@
         <v>-0.001191922344770169</v>
       </c>
       <c r="I70">
-        <v>-0.2868085008986453</v>
+        <v>0.0685728899234823</v>
       </c>
       <c r="J70">
         <v>-0.2868085008986453</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>-0.2868085008986453</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>37226</v>
       </c>
@@ -2589,7 +2796,7 @@
         <v>30.84000015258789</v>
       </c>
       <c r="F71">
-        <v>24.10507965087891</v>
+        <v>24.10507392883301</v>
       </c>
       <c r="G71">
         <v>100675</v>
@@ -2598,13 +2805,16 @@
         <v>-0.07995227531552906</v>
       </c>
       <c r="I71">
-        <v>-0.3030508440093133</v>
+        <v>0.06863285236449543</v>
       </c>
       <c r="J71">
         <v>-0.3030508440093133</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>-0.3030508440093133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>37257</v>
       </c>
@@ -2621,7 +2831,7 @@
         <v>28.55999946594238</v>
       </c>
       <c r="F72">
-        <v>22.32298278808594</v>
+        <v>22.32299041748047</v>
       </c>
       <c r="G72">
         <v>63975</v>
@@ -2630,13 +2840,16 @@
         <v>-0.07392998298847886</v>
       </c>
       <c r="I72">
-        <v>-0.350909103046764</v>
+        <v>0.0685886730984037</v>
       </c>
       <c r="J72">
         <v>-0.350909103046764</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <v>-0.350909103046764</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>37288</v>
       </c>
@@ -2662,13 +2875,16 @@
         <v>0.04621847757379371</v>
       </c>
       <c r="I73">
-        <v>-0.2905982925334907</v>
+        <v>0.06841027976584521</v>
       </c>
       <c r="J73">
         <v>-0.2905982925334907</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>-0.2905982925334907</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>37316</v>
       </c>
@@ -2685,7 +2901,7 @@
         <v>32.56000137329102</v>
       </c>
       <c r="F74">
-        <v>25.44945907592773</v>
+        <v>25.44945335388184</v>
       </c>
       <c r="G74">
         <v>154675</v>
@@ -2694,13 +2910,16 @@
         <v>0.08969217830646214</v>
       </c>
       <c r="I74">
-        <v>-0.2050780737044977</v>
+        <v>0.06889774504372793</v>
       </c>
       <c r="J74">
         <v>-0.2050780737044977</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <v>-0.2050780737044977</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>37347</v>
       </c>
@@ -2717,7 +2936,7 @@
         <v>33.7599983215332</v>
       </c>
       <c r="F75">
-        <v>26.38739776611328</v>
+        <v>26.38740158081055</v>
       </c>
       <c r="G75">
         <v>400700</v>
@@ -2726,13 +2945,16 @@
         <v>0.03685494157339142</v>
       </c>
       <c r="I75">
-        <v>-0.2477718913086697</v>
+        <v>0.0686077052450253</v>
       </c>
       <c r="J75">
         <v>-0.2477718913086697</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>-0.2477718913086697</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>37377</v>
       </c>
@@ -2749,7 +2971,7 @@
         <v>35.84000015258789</v>
       </c>
       <c r="F76">
-        <v>28.01316833496094</v>
+        <v>28.01316261291504</v>
       </c>
       <c r="G76">
         <v>361900</v>
@@ -2758,13 +2980,16 @@
         <v>0.06161143170815842</v>
       </c>
       <c r="I76">
-        <v>-0.1772268360266094</v>
+        <v>0.06859003001043386</v>
       </c>
       <c r="J76">
         <v>-0.1772268360266094</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <v>-0.1772268360266094</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>37408</v>
       </c>
@@ -2781,7 +3006,7 @@
         <v>33.72000122070312</v>
       </c>
       <c r="F77">
-        <v>26.35613250732422</v>
+        <v>26.35613632202148</v>
       </c>
       <c r="G77">
         <v>274075</v>
@@ -2790,13 +3015,16 @@
         <v>-0.0591517556601262</v>
       </c>
       <c r="I77">
-        <v>-0.1759530124736505</v>
+        <v>0.06840886866841805</v>
       </c>
       <c r="J77">
         <v>-0.1759530124736505</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>-0.1759530124736505</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>37438</v>
       </c>
@@ -2813,7 +3041,7 @@
         <v>31.44000053405762</v>
       </c>
       <c r="F78">
-        <v>24.57404327392578</v>
+        <v>24.57405090332031</v>
       </c>
       <c r="G78">
         <v>174400</v>
@@ -2822,13 +3050,16 @@
         <v>-0.06761567627837606</v>
       </c>
       <c r="I78">
-        <v>-0.1638297390970165</v>
+        <v>0.06831837971553489</v>
       </c>
       <c r="J78">
         <v>-0.1638297390970165</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>-0.1638297390970165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>37469</v>
       </c>
@@ -2845,7 +3076,7 @@
         <v>31.23999977111816</v>
       </c>
       <c r="F79">
-        <v>24.41772079467773</v>
+        <v>24.417724609375</v>
       </c>
       <c r="G79">
         <v>482475</v>
@@ -2854,13 +3085,16 @@
         <v>-0.006361347313680876</v>
       </c>
       <c r="I79">
-        <v>-0.1455142615519536</v>
+        <v>0.06786744418047458</v>
       </c>
       <c r="J79">
         <v>-0.1455142615519536</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>-0.1455142615519536</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>37500</v>
       </c>
@@ -2877,7 +3111,7 @@
         <v>29.31999969482422</v>
       </c>
       <c r="F80">
-        <v>22.91701507568359</v>
+        <v>22.91701698303223</v>
       </c>
       <c r="G80">
         <v>277725</v>
@@ -2886,13 +3120,16 @@
         <v>-0.06145966998594588</v>
       </c>
       <c r="I80">
-        <v>-0.1273809218352601</v>
+        <v>0.06770914475357794</v>
       </c>
       <c r="J80">
         <v>-0.1273809218352601</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <v>-0.1273809218352601</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>37530</v>
       </c>
@@ -2909,7 +3146,7 @@
         <v>27.63999938964844</v>
       </c>
       <c r="F81">
-        <v>21.6038932800293</v>
+        <v>21.60390663146973</v>
       </c>
       <c r="G81">
         <v>246075</v>
@@ -2918,13 +3155,16 @@
         <v>-0.05729878317401027</v>
       </c>
       <c r="I81">
-        <v>-0.176400528647</v>
+        <v>0.06750695930528099</v>
       </c>
       <c r="J81">
         <v>-0.176400528647</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>-0.176400528647</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>37561</v>
       </c>
@@ -2941,7 +3181,7 @@
         <v>28.63999938964844</v>
       </c>
       <c r="F82">
-        <v>22.38551902770996</v>
+        <v>22.38551139831543</v>
       </c>
       <c r="G82">
         <v>181200</v>
@@ -2950,13 +3190,16 @@
         <v>0.03617945087128027</v>
       </c>
       <c r="I82">
-        <v>-0.1455847554138372</v>
+        <v>0.06726073015047218</v>
       </c>
       <c r="J82">
         <v>-0.1455847554138372</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <v>-0.1455847554138372</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>37591</v>
       </c>
@@ -2982,13 +3225,16 @@
         <v>-0.02932961489138497</v>
       </c>
       <c r="I83">
-        <v>-0.09857331065130515</v>
+        <v>0.06688285861538974</v>
       </c>
       <c r="J83">
         <v>-0.09857331065130515</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>-0.09857331065130515</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>37622</v>
       </c>
@@ -3005,7 +3251,7 @@
         <v>27.07999992370605</v>
       </c>
       <c r="F84">
-        <v>21.16619491577148</v>
+        <v>21.16619110107422</v>
       </c>
       <c r="G84">
         <v>278350</v>
@@ -3014,13 +3260,16 @@
         <v>-0.02589925658683656</v>
       </c>
       <c r="I84">
-        <v>-0.05182071323219795</v>
+        <v>0.06649873039512694</v>
       </c>
       <c r="J84">
         <v>-0.05182071323219795</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>-0.05182071323219795</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>37653</v>
       </c>
@@ -3037,7 +3286,7 @@
         <v>27.36000061035156</v>
       </c>
       <c r="F85">
-        <v>21.38504791259766</v>
+        <v>21.38505363464355</v>
       </c>
       <c r="G85">
         <v>115925</v>
@@ -3046,13 +3295,16 @@
         <v>0.01033975950643895</v>
       </c>
       <c r="I85">
-        <v>-0.08433730325280187</v>
+        <v>0.06612275880804205</v>
       </c>
       <c r="J85">
         <v>-0.08433730325280187</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>-0.08433730325280187</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>37681</v>
       </c>
@@ -3069,7 +3321,7 @@
         <v>25.84000015258789</v>
       </c>
       <c r="F86">
-        <v>20.19698715209961</v>
+        <v>20.19699287414551</v>
       </c>
       <c r="G86">
         <v>410075</v>
@@ -3078,13 +3330,16 @@
         <v>-0.05555557104734077</v>
       </c>
       <c r="I86">
-        <v>-0.206388235174202</v>
+        <v>0.06592936585773286</v>
       </c>
       <c r="J86">
         <v>-0.206388235174202</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>-0.206388235174202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>37712</v>
       </c>
@@ -3110,13 +3365,16 @@
         <v>-0.007739967560310701</v>
       </c>
       <c r="I87">
-        <v>-0.2405213073338801</v>
+        <v>0.06553579068835787</v>
       </c>
       <c r="J87">
         <v>-0.2405213073338801</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>-0.2405213073338801</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>37742</v>
       </c>
@@ -3133,7 +3391,7 @@
         <v>27.15999984741211</v>
       </c>
       <c r="F88">
-        <v>21.22872543334961</v>
+        <v>21.22872734069824</v>
       </c>
       <c r="G88">
         <v>758475</v>
@@ -3142,13 +3400,16 @@
         <v>0.05928239055954654</v>
       </c>
       <c r="I88">
-        <v>-0.2421875074838421</v>
+        <v>0.06555631609850293</v>
       </c>
       <c r="J88">
         <v>-0.2421875074838421</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>-0.2421875074838421</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>37773</v>
       </c>
@@ -3165,7 +3426,7 @@
         <v>29.07999992370605</v>
       </c>
       <c r="F89">
-        <v>22.72942352294922</v>
+        <v>22.72942543029785</v>
       </c>
       <c r="G89">
         <v>427975</v>
@@ -3174,13 +3435,16 @@
         <v>0.07069219760974654</v>
       </c>
       <c r="I89">
-        <v>-0.1376038294490998</v>
+        <v>0.0657121330942123</v>
       </c>
       <c r="J89">
         <v>-0.1376038294490998</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>-0.1376038294490998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>37803</v>
       </c>
@@ -3206,13 +3470,16 @@
         <v>0.04539201163299023</v>
       </c>
       <c r="I90">
-        <v>-0.03307890896505405</v>
+        <v>0.06556880521631109</v>
       </c>
       <c r="J90">
         <v>-0.03307890896505405</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>-0.03307890896505405</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>37834</v>
       </c>
@@ -3229,7 +3496,7 @@
         <v>33.20000076293945</v>
       </c>
       <c r="F91">
-        <v>25.9496898651123</v>
+        <v>25.94969177246094</v>
       </c>
       <c r="G91">
         <v>1161375</v>
@@ -3238,13 +3505,16 @@
         <v>0.09210530195870281</v>
       </c>
       <c r="I91">
-        <v>0.062740109032694</v>
+        <v>0.06602089081383934</v>
       </c>
       <c r="J91">
         <v>0.062740109032694</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>0.062740109032694</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>37865</v>
       </c>
@@ -3270,13 +3540,16 @@
         <v>0.05542169006941244</v>
       </c>
       <c r="I92">
-        <v>0.1950887203355893</v>
+        <v>0.06595704860140436</v>
       </c>
       <c r="J92">
         <v>0.1950887203355893</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>0.1950887203355893</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>37895</v>
       </c>
@@ -3293,7 +3566,7 @@
         <v>36.95999908447266</v>
       </c>
       <c r="F93">
-        <v>28.88857269287109</v>
+        <v>28.88856506347656</v>
       </c>
       <c r="G93">
         <v>1413850</v>
@@ -3302,13 +3575,16 @@
         <v>0.054794466860145</v>
       </c>
       <c r="I93">
-        <v>0.3371924710792391</v>
+        <v>0.06588166104056195</v>
       </c>
       <c r="J93">
         <v>0.3371924710792391</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <v>0.3371924710792391</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>37926</v>
       </c>
@@ -3325,7 +3601,7 @@
         <v>35.84000015258789</v>
       </c>
       <c r="F94">
-        <v>28.01316833496094</v>
+        <v>28.01316261291504</v>
       </c>
       <c r="G94">
         <v>869100</v>
@@ -3334,13 +3610,16 @@
         <v>-0.03030300215443704</v>
       </c>
       <c r="I94">
-        <v>0.2513966800411944</v>
+        <v>0.06557749479400994</v>
       </c>
       <c r="J94">
         <v>0.2513966800411944</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>0.2513966800411944</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>37956</v>
       </c>
@@ -3357,7 +3636,7 @@
         <v>38.56000137329102</v>
       </c>
       <c r="F95">
-        <v>30.14574241638184</v>
+        <v>30.14573097229004</v>
       </c>
       <c r="G95">
         <v>579850</v>
@@ -3366,13 +3645,16 @@
         <v>0.07589289087954221</v>
       </c>
       <c r="I95">
-        <v>0.3870504471772132</v>
+        <v>0.06574362427171433</v>
       </c>
       <c r="J95">
         <v>0.3870504471772132</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>0.3870504471772132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>37987</v>
       </c>
@@ -3389,7 +3671,7 @@
         <v>38.63999938964844</v>
       </c>
       <c r="F96">
-        <v>30.20828056335449</v>
+        <v>30.20828247070312</v>
       </c>
       <c r="G96">
         <v>964425</v>
@@ -3398,13 +3680,16 @@
         <v>0.002074637279780633</v>
       </c>
       <c r="I96">
-        <v>0.4268832901961224</v>
+        <v>0.06539138575645818</v>
       </c>
       <c r="J96">
         <v>0.4268832901961224</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>0.4268832901961224</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>38018</v>
       </c>
@@ -3421,7 +3706,7 @@
         <v>38.84000015258789</v>
       </c>
       <c r="F97">
-        <v>30.36464500427246</v>
+        <v>30.3646297454834</v>
       </c>
       <c r="G97">
         <v>1797225</v>
@@ -3430,13 +3715,16 @@
         <v>0.005176003263422269</v>
       </c>
       <c r="I97">
-        <v>0.4195906171834261</v>
+        <v>0.06504809619821557</v>
       </c>
       <c r="J97">
         <v>0.4195906171834261</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <v>0.4195906171834261</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>38047</v>
       </c>
@@ -3453,7 +3741,7 @@
         <v>43.47999954223633</v>
       </c>
       <c r="F98">
-        <v>33.99213027954102</v>
+        <v>33.99211120605469</v>
       </c>
       <c r="G98">
         <v>2224875</v>
@@ -3462,13 +3750,16 @@
         <v>0.1194644534351084</v>
       </c>
       <c r="I98">
-        <v>0.6826625110480806</v>
+        <v>0.06590015622553988</v>
       </c>
       <c r="J98">
         <v>0.6826625110480806</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>0.6826625110480806</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>38078</v>
       </c>
@@ -3485,7 +3776,7 @@
         <v>40.56000137329102</v>
       </c>
       <c r="F99">
-        <v>31.70931053161621</v>
+        <v>31.70931625366211</v>
       </c>
       <c r="G99">
         <v>2025775</v>
@@ -3494,13 +3785,16 @@
         <v>-0.06715727230191981</v>
       </c>
       <c r="I99">
-        <v>0.5819033673482141</v>
+        <v>0.06589225113642284</v>
       </c>
       <c r="J99">
         <v>0.5819033673482141</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <v>0.5819033673482141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>38108</v>
       </c>
@@ -3517,7 +3811,7 @@
         <v>39.95999908447266</v>
       </c>
       <c r="F100">
-        <v>31.2402400970459</v>
+        <v>31.2402458190918</v>
       </c>
       <c r="G100">
         <v>1607300</v>
@@ -3526,13 +3820,16 @@
         <v>-0.01479295533785319</v>
       </c>
       <c r="I100">
-        <v>0.4712812705807203</v>
+        <v>0.06556375630684247</v>
       </c>
       <c r="J100">
         <v>0.4712812705807203</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <v>0.4712812705807203</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>38139</v>
       </c>
@@ -3549,7 +3846,7 @@
         <v>42.47999954223633</v>
       </c>
       <c r="F101">
-        <v>33.21034240722656</v>
+        <v>33.2103385925293</v>
       </c>
       <c r="G101">
         <v>1479200</v>
@@ -3558,13 +3855,16 @@
         <v>0.06306307596345451</v>
       </c>
       <c r="I101">
-        <v>0.460797787265693</v>
+        <v>0.06556020789285637</v>
       </c>
       <c r="J101">
         <v>0.460797787265693</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <v>0.460797787265693</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>38169</v>
       </c>
@@ -3581,7 +3881,7 @@
         <v>39.36000061035156</v>
       </c>
       <c r="F102">
-        <v>30.77115631103516</v>
+        <v>30.77116584777832</v>
       </c>
       <c r="G102">
         <v>747475</v>
@@ -3590,13 +3890,16 @@
         <v>-0.07344630333111613</v>
       </c>
       <c r="I102">
-        <v>0.2947368784294238</v>
+        <v>0.0656203167541056</v>
       </c>
       <c r="J102">
         <v>0.2947368784294238</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <v>0.2947368784294238</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>38200</v>
       </c>
@@ -3613,7 +3916,7 @@
         <v>39.91999816894531</v>
       </c>
       <c r="F103">
-        <v>31.2089672088623</v>
+        <v>31.20896911621094</v>
       </c>
       <c r="G103">
         <v>817225</v>
@@ -3622,13 +3925,16 @@
         <v>0.01422758002819924</v>
       </c>
       <c r="I103">
-        <v>0.2024095557704706</v>
+        <v>0.06531269973739175</v>
       </c>
       <c r="J103">
         <v>0.2024095557704706</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103">
+        <v>0.2024095557704706</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>38231</v>
       </c>
@@ -3645,7 +3951,7 @@
         <v>38.79999923706055</v>
       </c>
       <c r="F104">
-        <v>30.33337020874023</v>
+        <v>30.33336067199707</v>
       </c>
       <c r="G104">
         <v>1689725</v>
@@ -3654,13 +3960,16 @@
         <v>-0.02805608675493476</v>
       </c>
       <c r="I104">
-        <v>0.1073058853679147</v>
+        <v>0.06503830375660134</v>
       </c>
       <c r="J104">
         <v>0.1073058853679147</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <v>0.1073058853679147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>38261</v>
       </c>
@@ -3677,7 +3986,7 @@
         <v>39.72000122070312</v>
       </c>
       <c r="F105">
-        <v>31.0526123046875</v>
+        <v>31.05261039733887</v>
       </c>
       <c r="G105">
         <v>1775475</v>
@@ -3686,13 +3995,16 @@
         <v>0.02371139179724069</v>
       </c>
       <c r="I105">
-        <v>0.07467538432353416</v>
+        <v>0.06477070331735169</v>
       </c>
       <c r="J105">
         <v>0.07467538432353416</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <v>0.07467538432353416</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>38292</v>
       </c>
@@ -3709,7 +4021,7 @@
         <v>41.2400016784668</v>
       </c>
       <c r="F106">
-        <v>32.24092483520508</v>
+        <v>32.24093246459961</v>
       </c>
       <c r="G106">
         <v>2613975</v>
@@ -3718,13 +4030,16 @@
         <v>0.03826788547457061</v>
       </c>
       <c r="I106">
-        <v>0.1506696847904168</v>
+        <v>0.06457856667138243</v>
       </c>
       <c r="J106">
         <v>0.1506696847904168</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <v>0.1506696847904168</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>38322</v>
       </c>
@@ -3741,7 +4056,7 @@
         <v>43.68000030517578</v>
       </c>
       <c r="F107">
-        <v>34.28851318359375</v>
+        <v>34.28850936889648</v>
       </c>
       <c r="G107">
         <v>1477725</v>
@@ -3750,13 +4065,16 @@
         <v>0.05916582268188941</v>
       </c>
       <c r="I107">
-        <v>0.132780050558587</v>
+        <v>0.06454375352906154</v>
       </c>
       <c r="J107">
         <v>0.132780050558587</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <v>0.132780050558587</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>38353</v>
       </c>
@@ -3773,7 +4091,7 @@
         <v>42.36000061035156</v>
       </c>
       <c r="F108">
-        <v>33.25231552124023</v>
+        <v>33.25232315063477</v>
       </c>
       <c r="G108">
         <v>2840150</v>
@@ -3782,13 +4100,16 @@
         <v>-0.03021977302202095</v>
       </c>
       <c r="I108">
-        <v>0.09627332503788044</v>
+        <v>0.06429665013026858</v>
       </c>
       <c r="J108">
         <v>0.09627332503788044</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <v>0.09627332503788044</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>38384</v>
       </c>
@@ -3805,7 +4126,7 @@
         <v>43.2400016784668</v>
       </c>
       <c r="F109">
-        <v>33.94310760498047</v>
+        <v>33.94309616088867</v>
       </c>
       <c r="G109">
         <v>3162325</v>
@@ -3814,13 +4135,16 @@
         <v>0.0207743403077334</v>
       </c>
       <c r="I109">
-        <v>0.11328531175574</v>
+        <v>0.06402941009795857</v>
       </c>
       <c r="J109">
         <v>0.11328531175574</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <v>0.11328531175574</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>38412</v>
       </c>
@@ -3837,7 +4161,7 @@
         <v>41.95999908447266</v>
       </c>
       <c r="F110">
-        <v>32.93832397460938</v>
+        <v>32.93831634521484</v>
       </c>
       <c r="G110">
         <v>2149400</v>
@@ -3846,13 +4170,16 @@
         <v>-0.02960227900804113</v>
       </c>
       <c r="I110">
-        <v>-0.0349586125521264</v>
+        <v>0.06378702379325138</v>
       </c>
       <c r="J110">
         <v>-0.0349586125521264</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <v>-0.0349586125521264</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>38443</v>
       </c>
@@ -3869,7 +4196,7 @@
         <v>41</v>
       </c>
       <c r="F111">
-        <v>32.18473052978516</v>
+        <v>32.18472671508789</v>
       </c>
       <c r="G111">
         <v>3671325</v>
@@ -3878,13 +4205,16 @@
         <v>-0.02287891099663786</v>
       </c>
       <c r="I111">
-        <v>0.01084809200718428</v>
+        <v>0.06352337059491739</v>
       </c>
       <c r="J111">
         <v>0.01084809200718428</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111">
+        <v>0.01084809200718428</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>38473</v>
       </c>
@@ -3901,7 +4231,7 @@
         <v>40.47999954223633</v>
       </c>
       <c r="F112">
-        <v>31.77653503417969</v>
+        <v>31.77654266357422</v>
       </c>
       <c r="G112">
         <v>2597725</v>
@@ -3910,13 +4240,16 @@
         <v>-0.01268293799423592</v>
       </c>
       <c r="I112">
-        <v>0.01301302476670307</v>
+        <v>0.06323964664710988</v>
       </c>
       <c r="J112">
         <v>0.01301302476670307</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112">
+        <v>0.01301302476670307</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>38504</v>
       </c>
@@ -3933,7 +4266,7 @@
         <v>40.56000137329102</v>
       </c>
       <c r="F113">
-        <v>31.83932876586914</v>
+        <v>31.83933258056641</v>
       </c>
       <c r="G113">
         <v>1273375</v>
@@ -3942,13 +4275,16 @@
         <v>0.001976329840893687</v>
       </c>
       <c r="I113">
-        <v>-0.04519769749612002</v>
+        <v>0.06295267447226532</v>
       </c>
       <c r="J113">
         <v>-0.04519769749612002</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113">
+        <v>-0.04519769749612002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>38534</v>
       </c>
@@ -3965,7 +4301,7 @@
         <v>41</v>
       </c>
       <c r="F114">
-        <v>32.18473052978516</v>
+        <v>32.18472671508789</v>
       </c>
       <c r="G114">
         <v>2052725</v>
@@ -3974,13 +4310,16 @@
         <v>0.01084809200718428</v>
       </c>
       <c r="I114">
-        <v>0.04166665051364671</v>
+        <v>0.06268017306635471</v>
       </c>
       <c r="J114">
         <v>0.04166665051364671</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114">
+        <v>0.04166665051364671</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>38565</v>
       </c>
@@ -4006,13 +4345,16 @@
         <v>0.08585366970155306</v>
       </c>
       <c r="I115">
-        <v>0.1152305235423785</v>
+        <v>0.06294291531101591</v>
       </c>
       <c r="J115">
         <v>0.1152305235423785</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115">
+        <v>0.1152305235423785</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>38596</v>
       </c>
@@ -4029,7 +4371,7 @@
         <v>48.7599983215332</v>
       </c>
       <c r="F116">
-        <v>38.27627563476562</v>
+        <v>38.27626800537109</v>
       </c>
       <c r="G116">
         <v>6847100</v>
@@ -4038,13 +4380,16 @@
         <v>0.09523804627522492</v>
       </c>
       <c r="I116">
-        <v>0.2567010123793811</v>
+        <v>0.06330983066733868</v>
       </c>
       <c r="J116">
         <v>0.2567010123793811</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <v>0.2567010123793811</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>38626</v>
       </c>
@@ -4061,7 +4406,7 @@
         <v>48.43999862670898</v>
       </c>
       <c r="F117">
-        <v>38.02507019042969</v>
+        <v>38.02507400512695</v>
       </c>
       <c r="G117">
         <v>4588425</v>
@@ -4070,13 +4415,16 @@
         <v>-0.006562750324847766</v>
       </c>
       <c r="I117">
-        <v>0.2195366852471485</v>
+        <v>0.06303430321553663</v>
       </c>
       <c r="J117">
         <v>0.2195366852471485</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117">
+        <v>0.2195366852471485</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>38657</v>
       </c>
@@ -4093,7 +4441,7 @@
         <v>49.84000015258789</v>
       </c>
       <c r="F118">
-        <v>39.12407302856445</v>
+        <v>39.12406921386719</v>
       </c>
       <c r="G118">
         <v>4936750</v>
@@ -4102,13 +4450,16 @@
         <v>0.02890176642381181</v>
       </c>
       <c r="I118">
-        <v>0.208535357034467</v>
+        <v>0.0628181556117117</v>
       </c>
       <c r="J118">
         <v>0.208535357034467</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118">
+        <v>0.208535357034467</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>38687</v>
       </c>
@@ -4125,7 +4476,7 @@
         <v>54.08000183105469</v>
       </c>
       <c r="F119">
-        <v>42.63319778442383</v>
+        <v>42.6331901550293</v>
       </c>
       <c r="G119">
         <v>2907925</v>
@@ -4134,13 +4485,16 @@
         <v>0.08507226455629624</v>
       </c>
       <c r="I119">
-        <v>0.238095271364881</v>
+        <v>0.06303983114157712</v>
       </c>
       <c r="J119">
         <v>0.238095271364881</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119">
+        <v>0.238095271364881</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>38718</v>
       </c>
@@ -4157,7 +4511,7 @@
         <v>56.08000183105469</v>
       </c>
       <c r="F120">
-        <v>44.20986175537109</v>
+        <v>44.20986557006836</v>
       </c>
       <c r="G120">
         <v>9190200</v>
@@ -4166,13 +4520,16 @@
         <v>0.03698224726855548</v>
       </c>
       <c r="I120">
-        <v>0.3238904868511818</v>
+        <v>0.06285872298837951</v>
       </c>
       <c r="J120">
         <v>0.3238904868511818</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <v>0.3238904868511818</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>38749</v>
       </c>
@@ -4189,7 +4546,7 @@
         <v>55.20000076293945</v>
       </c>
       <c r="F121">
-        <v>43.51612854003906</v>
+        <v>43.51613235473633</v>
       </c>
       <c r="G121">
         <v>5826100</v>
@@ -4198,13 +4555,16 @@
         <v>-0.0156918872928411</v>
       </c>
       <c r="I121">
-        <v>0.2765957127709513</v>
+        <v>0.06261049121225767</v>
       </c>
       <c r="J121">
         <v>0.2765957127709513</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121">
+        <v>0.2765957127709513</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="2">
         <v>38777</v>
       </c>
@@ -4230,13 +4590,16 @@
         <v>0.04347821880453617</v>
       </c>
       <c r="I122">
-        <v>0.3727359325762245</v>
+        <v>0.06246817312579456</v>
       </c>
       <c r="J122">
         <v>0.3727359325762245</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122">
+        <v>0.3727359325762245</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="2">
         <v>38808</v>
       </c>
@@ -4262,13 +4625,16 @@
         <v>0.02777781825006853</v>
       </c>
       <c r="I123">
-        <v>0.4439024576326696</v>
+        <v>0.06236928775227042</v>
       </c>
       <c r="J123">
         <v>0.4439024576326696</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123">
+        <v>0.4439024576326696</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="2">
         <v>38838</v>
       </c>
@@ -4285,7 +4651,7 @@
         <v>56</v>
       </c>
       <c r="F124">
-        <v>44.14678573608398</v>
+        <v>44.14679718017578</v>
       </c>
       <c r="G124">
         <v>6174025</v>
@@ -4294,13 +4660,16 @@
         <v>-0.05405406624492348</v>
       </c>
       <c r="I124">
-        <v>0.3833992251301854</v>
+        <v>0.06242699145805906</v>
       </c>
       <c r="J124">
         <v>0.3833992251301854</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124">
+        <v>0.3833992251301854</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="2">
         <v>38869</v>
       </c>
@@ -4317,7 +4686,7 @@
         <v>54.56000137329102</v>
       </c>
       <c r="F125">
-        <v>43.01160049438477</v>
+        <v>43.01159286499023</v>
       </c>
       <c r="G125">
         <v>6214875</v>
@@ -4326,13 +4695,16 @@
         <v>-0.02571426119123188</v>
       </c>
       <c r="I125">
-        <v>0.345167641173185</v>
+        <v>0.06246599667530119</v>
       </c>
       <c r="J125">
         <v>0.345167641173185</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125">
+        <v>0.345167641173185</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="2">
         <v>38899</v>
       </c>
@@ -4349,7 +4721,7 @@
         <v>54.27999877929688</v>
       </c>
       <c r="F126">
-        <v>42.79085922241211</v>
+        <v>42.79085159301758</v>
       </c>
       <c r="G126">
         <v>3789075</v>
@@ -4358,13 +4730,16 @@
         <v>-0.005132012224090765</v>
       </c>
       <c r="I126">
-        <v>0.3239024092511433</v>
+        <v>0.06231273013673576</v>
       </c>
       <c r="J126">
         <v>0.3239024092511433</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126">
+        <v>0.3239024092511433</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="2">
         <v>38930</v>
       </c>
@@ -4390,13 +4765,16 @@
         <v>0.01031690099272087</v>
       </c>
       <c r="I127">
-        <v>0.23180592068086</v>
+        <v>0.06211399764693745</v>
       </c>
       <c r="J127">
         <v>0.23180592068086</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127">
+        <v>0.23180592068086</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="2">
         <v>38961</v>
       </c>
@@ -4413,7 +4791,7 @@
         <v>54.15999984741211</v>
       </c>
       <c r="F128">
-        <v>42.69625473022461</v>
+        <v>42.69625854492188</v>
       </c>
       <c r="G128">
         <v>4634300</v>
@@ -4422,13 +4800,16 @@
         <v>-0.01239971377249705</v>
       </c>
       <c r="I128">
-        <v>0.1107465486415773</v>
+        <v>0.06205042150551178</v>
       </c>
       <c r="J128">
         <v>0.1107465486415773</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128">
+        <v>0.1107465486415773</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="2">
         <v>38991</v>
       </c>
@@ -4445,7 +4826,7 @@
         <v>55.2400016784668</v>
       </c>
       <c r="F129">
-        <v>43.54765701293945</v>
+        <v>43.54766082763672</v>
       </c>
       <c r="G129">
         <v>3128275</v>
@@ -4454,13 +4835,16 @@
         <v>0.01994094966945048</v>
       </c>
       <c r="I129">
-        <v>0.1403799183431109</v>
+        <v>0.06175009788516374</v>
       </c>
       <c r="J129">
         <v>0.1403799183431109</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129">
+        <v>0.1403799183431109</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="2">
         <v>39022</v>
       </c>
@@ -4477,7 +4861,7 @@
         <v>55.2400016784668</v>
       </c>
       <c r="F130">
-        <v>43.54765701293945</v>
+        <v>43.54766082763672</v>
       </c>
       <c r="G130">
         <v>4462175</v>
@@ -4486,13 +4870,16 @@
         <v>0</v>
       </c>
       <c r="I130">
-        <v>0.1083467397541433</v>
+        <v>0.06172074813730288</v>
       </c>
       <c r="J130">
         <v>0.1083467397541433</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130">
+        <v>0.1083467397541433</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="2">
         <v>39052</v>
       </c>
@@ -4509,7 +4896,7 @@
         <v>56.84000015258789</v>
       </c>
       <c r="F131">
-        <v>45.12812042236328</v>
+        <v>45.12813186645508</v>
       </c>
       <c r="G131">
         <v>1878600</v>
@@ -4518,13 +4905,16 @@
         <v>0.02896448996207757</v>
       </c>
       <c r="I131">
-        <v>0.05103547019386956</v>
+        <v>0.06136152953554778</v>
       </c>
       <c r="J131">
         <v>0.05103547019386956</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131">
+        <v>0.05103547019386956</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="2">
         <v>39083</v>
       </c>
@@ -4550,13 +4940,16 @@
         <v>0.007037324503960107</v>
       </c>
       <c r="I132">
-        <v>0.02068473269502902</v>
+        <v>0.06062496129860954</v>
       </c>
       <c r="J132">
         <v>0.02068473269502902</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132">
+        <v>0.02068473269502902</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="2">
         <v>39114</v>
       </c>
@@ -4573,7 +4966,7 @@
         <v>59.04000091552734</v>
       </c>
       <c r="F133">
-        <v>46.87480926513672</v>
+        <v>46.87481307983398</v>
       </c>
       <c r="G133">
         <v>10620000</v>
@@ -4582,13 +4975,16 @@
         <v>0.03144652662960512</v>
       </c>
       <c r="I133">
-        <v>0.06956521919409142</v>
+        <v>0.06065718836379946</v>
       </c>
       <c r="J133">
         <v>0.06956521919409142</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133">
+        <v>0.06956521919409142</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="2">
         <v>39142</v>
       </c>
@@ -4605,7 +5001,7 @@
         <v>58.27999877929688</v>
       </c>
       <c r="F134">
-        <v>46.27140045166016</v>
+        <v>46.27140808105469</v>
       </c>
       <c r="G134">
         <v>4413775</v>
@@ -4614,13 +5010,16 @@
         <v>-0.01287266470943749</v>
       </c>
       <c r="I134">
-        <v>0.01180556116648668</v>
+        <v>0.06053369560978066</v>
       </c>
       <c r="J134">
         <v>0.01180556116648668</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134">
+        <v>0.01180556116648668</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="2">
         <v>39173</v>
       </c>
@@ -4646,13 +5045,16 @@
         <v>-0.01990390994696078</v>
       </c>
       <c r="I135">
-        <v>-0.03513516561230889</v>
+        <v>0.06035095042841495</v>
       </c>
       <c r="J135">
         <v>-0.03513516561230889</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135">
+        <v>-0.03513516561230889</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="2">
         <v>39203</v>
       </c>
@@ -4669,7 +5071,7 @@
         <v>58.40000152587891</v>
       </c>
       <c r="F136">
-        <v>46.36668014526367</v>
+        <v>46.36669158935547</v>
       </c>
       <c r="G136">
         <v>4575250</v>
@@ -4678,13 +5080,16 @@
         <v>0.02240900941753399</v>
       </c>
       <c r="I136">
-        <v>0.04285717010498047</v>
+        <v>0.05975121836351432</v>
       </c>
       <c r="J136">
         <v>0.04285717010498047</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136">
+        <v>0.04285717010498047</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="2">
         <v>39234</v>
       </c>
@@ -4701,7 +5106,7 @@
         <v>58.04000091552734</v>
       </c>
       <c r="F137">
-        <v>46.08086395263672</v>
+        <v>46.08085250854492</v>
       </c>
       <c r="G137">
         <v>4118175</v>
@@ -4710,13 +5115,16 @@
         <v>-0.006164393851805561</v>
       </c>
       <c r="I137">
-        <v>0.06378298120681336</v>
+        <v>0.05955194804528103</v>
       </c>
       <c r="J137">
         <v>0.06378298120681336</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137">
+        <v>0.06378298120681336</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="2">
         <v>39264</v>
       </c>
@@ -4733,7 +5141,7 @@
         <v>57.72000122070312</v>
       </c>
       <c r="F138">
-        <v>45.82680130004883</v>
+        <v>45.8267936706543</v>
       </c>
       <c r="G138">
         <v>6745825</v>
@@ -4742,13 +5150,16 @@
         <v>-0.005513433662586498</v>
       </c>
       <c r="I138">
-        <v>0.06337513851821086</v>
+        <v>0.05953946786861755</v>
       </c>
       <c r="J138">
         <v>0.06337513851821086</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="K138">
+        <v>0.06337513851821086</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="2">
         <v>39295</v>
       </c>
@@ -4765,7 +5176,7 @@
         <v>56.27999877929688</v>
       </c>
       <c r="F139">
-        <v>44.68351745605469</v>
+        <v>44.68350601196289</v>
       </c>
       <c r="G139">
         <v>3700850</v>
@@ -4774,13 +5185,16 @@
         <v>-0.02494806671781125</v>
       </c>
       <c r="I139">
-        <v>0.02625818057444018</v>
+        <v>0.05886842591475314</v>
       </c>
       <c r="J139">
         <v>0.02625818057444018</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139">
+        <v>0.02625818057444018</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="2">
         <v>39326</v>
       </c>
@@ -4797,7 +5211,7 @@
         <v>57.36000061035156</v>
       </c>
       <c r="F140">
-        <v>45.54097747802734</v>
+        <v>45.54097366333008</v>
       </c>
       <c r="G140">
         <v>5023575</v>
@@ -4806,13 +5220,16 @@
         <v>0.01918979840937696</v>
       </c>
       <c r="I140">
-        <v>0.05908420923107438</v>
+        <v>0.05887612459802696</v>
       </c>
       <c r="J140">
         <v>0.05908420923107438</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="K140">
+        <v>0.05908420923107438</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="2">
         <v>39356</v>
       </c>
@@ -4838,13 +5255,16 @@
         <v>0.001394665542297613</v>
       </c>
       <c r="I141">
-        <v>0.03982615643365861</v>
+        <v>0.05817600097200313</v>
       </c>
       <c r="J141">
         <v>0.03982615643365861</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="K141">
+        <v>0.03982615643365861</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="2">
         <v>39387</v>
       </c>
@@ -4861,7 +5281,7 @@
         <v>56.27999877929688</v>
       </c>
       <c r="F142">
-        <v>44.68351745605469</v>
+        <v>44.68350601196289</v>
       </c>
       <c r="G142">
         <v>3557425</v>
@@ -4870,13 +5290,16 @@
         <v>-0.02019498389877605</v>
       </c>
       <c r="I142">
-        <v>0.01882688394695475</v>
+        <v>0.05785747023452281</v>
       </c>
       <c r="J142">
         <v>0.01882688394695475</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="K142">
+        <v>0.01882688394695475</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="2">
         <v>39417</v>
       </c>
@@ -4893,7 +5316,7 @@
         <v>53.15999984741211</v>
       </c>
       <c r="F143">
-        <v>42.64490509033203</v>
+        <v>42.64491271972656</v>
       </c>
       <c r="G143">
         <v>3080650</v>
@@ -4902,13 +5325,16 @@
         <v>-0.0554370824370467</v>
       </c>
       <c r="I143">
-        <v>-0.06474314382999224</v>
+        <v>0.05782090550709119</v>
       </c>
       <c r="J143">
         <v>-0.06474314382999224</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="K143">
+        <v>-0.06474314382999224</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="2">
         <v>39448</v>
       </c>
@@ -4925,7 +5351,7 @@
         <v>50.88000106811523</v>
       </c>
       <c r="F144">
-        <v>40.81589508056641</v>
+        <v>40.81589126586914</v>
       </c>
       <c r="G144">
         <v>7884600</v>
@@ -4934,13 +5360,16 @@
         <v>-0.04288936767948215</v>
       </c>
       <c r="I144">
-        <v>-0.1111111185159895</v>
+        <v>0.05697916487208561</v>
       </c>
       <c r="J144">
         <v>-0.1111111185159895</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="K144">
+        <v>-0.1111111185159895</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="2">
         <v>39479</v>
       </c>
@@ -4957,7 +5386,7 @@
         <v>50.11999893188477</v>
       </c>
       <c r="F145">
-        <v>40.20622634887695</v>
+        <v>40.20622253417969</v>
       </c>
       <c r="G145">
         <v>7324950</v>
@@ -4966,13 +5395,16 @@
         <v>-0.01493714859032769</v>
       </c>
       <c r="I145">
-        <v>-0.1510840420955455</v>
+        <v>0.05699645420059669</v>
       </c>
       <c r="J145">
         <v>-0.1510840420955455</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="K145">
+        <v>-0.1510840420955455</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="2">
         <v>39508</v>
       </c>
@@ -4989,7 +5421,7 @@
         <v>49.47999954223633</v>
       </c>
       <c r="F146">
-        <v>39.69281768798828</v>
+        <v>39.69281387329102</v>
       </c>
       <c r="G146">
         <v>3459825</v>
@@ -4998,13 +5430,16 @@
         <v>-0.01276934164580135</v>
       </c>
       <c r="I146">
-        <v>-0.1509951856791496</v>
+        <v>0.05603701254301502</v>
       </c>
       <c r="J146">
         <v>-0.1509951856791496</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146">
+        <v>-0.1509951856791496</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="2">
         <v>39539</v>
       </c>
@@ -5021,7 +5456,7 @@
         <v>53.11999893188477</v>
       </c>
       <c r="F147">
-        <v>42.61281585693359</v>
+        <v>42.61281967163086</v>
       </c>
       <c r="G147">
         <v>4737600</v>
@@ -5030,13 +5465,16 @@
         <v>0.07356506514397432</v>
       </c>
       <c r="I147">
-        <v>-0.07002801251397039</v>
+        <v>0.05631644038404406</v>
       </c>
       <c r="J147">
         <v>-0.07002801251397039</v>
       </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="K147">
+        <v>-0.07002801251397039</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="2">
         <v>39569</v>
       </c>
@@ -5062,13 +5500,16 @@
         <v>0.0195783308817632</v>
       </c>
       <c r="I148">
-        <v>-0.07260276656992748</v>
+        <v>0.05602239066909315</v>
       </c>
       <c r="J148">
         <v>-0.07260276656992748</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="K148">
+        <v>-0.07260276656992748</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="2">
         <v>39600</v>
       </c>
@@ -5094,13 +5535,16 @@
         <v>-0.07902508846667555</v>
       </c>
       <c r="I149">
-        <v>-0.1405926898465827</v>
+        <v>0.05653042840396404</v>
       </c>
       <c r="J149">
         <v>-0.1405926898465827</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149">
+        <v>-0.1405926898465827</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="2">
         <v>39630</v>
       </c>
@@ -5117,7 +5561,7 @@
         <v>48</v>
       </c>
       <c r="F150">
-        <v>38.69024658203125</v>
+        <v>38.69024276733398</v>
       </c>
       <c r="G150">
         <v>4916775</v>
@@ -5126,13 +5570,16 @@
         <v>-0.03769047770363798</v>
       </c>
       <c r="I150">
-        <v>-0.1683991859864469</v>
+        <v>0.05652718116856292</v>
       </c>
       <c r="J150">
         <v>-0.1683991859864469</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="K150">
+        <v>-0.1683991859864469</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="2">
         <v>39661</v>
       </c>
@@ -5149,7 +5596,7 @@
         <v>45.63999938964844</v>
       </c>
       <c r="F151">
-        <v>36.7879753112793</v>
+        <v>36.78797149658203</v>
       </c>
       <c r="G151">
         <v>3171275</v>
@@ -5158,13 +5605,16 @@
         <v>-0.04916667938232422</v>
       </c>
       <c r="I151">
-        <v>-0.1890547196238117</v>
+        <v>0.05456516737332164</v>
       </c>
       <c r="J151">
         <v>-0.1890547196238117</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151">
+        <v>-0.1890547196238117</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="2">
         <v>39692</v>
       </c>
@@ -5190,13 +5640,16 @@
         <v>-0.06573181507711467</v>
       </c>
       <c r="I152">
-        <v>-0.2566248442132453</v>
+        <v>0.05493004058020051</v>
       </c>
       <c r="J152">
         <v>-0.2566248442132453</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152">
+        <v>-0.2566248442132453</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="2">
         <v>39722</v>
       </c>
@@ -5213,7 +5666,7 @@
         <v>36</v>
       </c>
       <c r="F153">
-        <v>29.01768112182617</v>
+        <v>29.01767921447754</v>
       </c>
       <c r="G153">
         <v>9309950</v>
@@ -5222,13 +5675,16 @@
         <v>-0.1557223143689914</v>
       </c>
       <c r="I153">
-        <v>-0.3732590379404991</v>
+        <v>0.0534935181400063</v>
       </c>
       <c r="J153">
         <v>-0.3732590379404991</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="K153">
+        <v>-0.3732590379404991</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" s="2">
         <v>39753</v>
       </c>
@@ -5245,7 +5701,7 @@
         <v>34.63999938964844</v>
       </c>
       <c r="F154">
-        <v>27.92145538330078</v>
+        <v>27.92145347595215</v>
       </c>
       <c r="G154">
         <v>2462700</v>
@@ -5254,13 +5710,16 @@
         <v>-0.03777779473198783</v>
       </c>
       <c r="I154">
-        <v>-0.3845060387174158</v>
+        <v>0.05352951537297829</v>
       </c>
       <c r="J154">
         <v>-0.3845060387174158</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="K154">
+        <v>-0.3845060387174158</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="2">
         <v>39783</v>
       </c>
@@ -5277,7 +5736,7 @@
         <v>38.31999969482422</v>
       </c>
       <c r="F155">
-        <v>31.14382553100586</v>
+        <v>31.14381980895996</v>
       </c>
       <c r="G155">
         <v>3940250</v>
@@ -5286,13 +5745,16 @@
         <v>0.1062355765016407</v>
       </c>
       <c r="I155">
-        <v>-0.2791572647702014</v>
+        <v>0.05435285610455712</v>
       </c>
       <c r="J155">
         <v>-0.2791572647702014</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155">
+        <v>-0.2791572647702014</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="2">
         <v>39814</v>
       </c>
@@ -5309,7 +5771,7 @@
         <v>33.72000122070312</v>
       </c>
       <c r="F156">
-        <v>27.40526962280273</v>
+        <v>27.40526580810547</v>
       </c>
       <c r="G156">
         <v>5159275</v>
@@ -5318,13 +5780,16 @@
         <v>-0.1200417147900553</v>
       </c>
       <c r="I156">
-        <v>-0.3372641408642914</v>
+        <v>0.05541702014704085</v>
       </c>
       <c r="J156">
         <v>-0.3372641408642914</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156">
+        <v>-0.3372641408642914</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="2">
         <v>39845</v>
       </c>
@@ -5341,7 +5806,7 @@
         <v>29.47999954223633</v>
       </c>
       <c r="F157">
-        <v>23.95929145812988</v>
+        <v>23.95928955078125</v>
       </c>
       <c r="G157">
         <v>9981725</v>
@@ -5350,13 +5815,16 @@
         <v>-0.1257414449873613</v>
       </c>
       <c r="I157">
-        <v>-0.4118116486334943</v>
+        <v>0.05649922811558495</v>
       </c>
       <c r="J157">
         <v>-0.4118116486334943</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="K157">
+        <v>-0.4118116486334943</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" s="2">
         <v>39873</v>
       </c>
@@ -5373,7 +5841,7 @@
         <v>31.60000038146973</v>
       </c>
       <c r="F158">
-        <v>25.68227386474609</v>
+        <v>25.68227767944336</v>
       </c>
       <c r="G158">
         <v>9234550</v>
@@ -5382,13 +5850,16 @@
         <v>0.07191319104995397</v>
       </c>
       <c r="I158">
-        <v>-0.3613581108767829</v>
+        <v>0.05549075725372225</v>
       </c>
       <c r="J158">
         <v>-0.3613581108767829</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="K158">
+        <v>-0.3613581108767829</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="2">
         <v>39904</v>
       </c>
@@ -5405,7 +5876,7 @@
         <v>34.04000091552734</v>
       </c>
       <c r="F159">
-        <v>27.66534996032715</v>
+        <v>27.66534233093262</v>
       </c>
       <c r="G159">
         <v>10063850</v>
@@ -5414,13 +5885,16 @@
         <v>0.07721520584184671</v>
       </c>
       <c r="I159">
-        <v>-0.3591867168676623</v>
+        <v>0.05580557212915065</v>
       </c>
       <c r="J159">
         <v>-0.3591867168676623</v>
       </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="K159">
+        <v>-0.3591867168676623</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" s="2">
         <v>39934</v>
       </c>
@@ -5437,7 +5911,7 @@
         <v>37.47999954223633</v>
       </c>
       <c r="F160">
-        <v>30.46113586425781</v>
+        <v>30.46113395690918</v>
       </c>
       <c r="G160">
         <v>11545600</v>
@@ -5446,13 +5920,16 @@
         <v>0.1010575362569932</v>
       </c>
       <c r="I160">
-        <v>-0.3079763728243953</v>
+        <v>0.05634023098386765</v>
       </c>
       <c r="J160">
         <v>-0.3079763728243953</v>
       </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="K160">
+        <v>-0.3079763728243953</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="2">
         <v>39965</v>
       </c>
@@ -5469,7 +5946,7 @@
         <v>37.72000122070312</v>
       </c>
       <c r="F161">
-        <v>30.82243728637695</v>
+        <v>30.82242965698242</v>
       </c>
       <c r="G161">
         <v>6348325</v>
@@ -5478,13 +5955,16 @@
         <v>0.006403460015957041</v>
       </c>
       <c r="I161">
-        <v>-0.2437850759226454</v>
+        <v>0.05550953620111268</v>
       </c>
       <c r="J161">
         <v>-0.2437850759226454</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="K161">
+        <v>-0.2437850759226454</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="2">
         <v>39995</v>
       </c>
@@ -5501,7 +5981,7 @@
         <v>39.47999954223633</v>
       </c>
       <c r="F162">
-        <v>32.26058197021484</v>
+        <v>32.26058959960938</v>
       </c>
       <c r="G162">
         <v>5923600</v>
@@ -5510,13 +5990,16 @@
         <v>0.04665955102268682</v>
       </c>
       <c r="I162">
-        <v>-0.1775000095367432</v>
+        <v>0.0552439440387496</v>
       </c>
       <c r="J162">
         <v>-0.1775000095367432</v>
       </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="K162">
+        <v>-0.1775000095367432</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="2">
         <v>40026</v>
       </c>
@@ -5533,7 +6016,7 @@
         <v>40.88000106811523</v>
       </c>
       <c r="F163">
-        <v>33.40458679199219</v>
+        <v>33.40459442138672</v>
       </c>
       <c r="G163">
         <v>3547650</v>
@@ -5542,13 +6025,16 @@
         <v>0.03546103196838102</v>
       </c>
       <c r="I163">
-        <v>-0.1042944431461323</v>
+        <v>0.05534320525358015</v>
       </c>
       <c r="J163">
         <v>-0.1042944431461323</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="K163">
+        <v>-0.1042944431461323</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" s="2">
         <v>40057</v>
       </c>
@@ -5565,7 +6051,7 @@
         <v>39.7599983215332</v>
       </c>
       <c r="F164">
-        <v>32.48940277099609</v>
+        <v>32.48939895629883</v>
       </c>
       <c r="G164">
         <v>7149925</v>
@@ -5574,13 +6060,16 @@
         <v>-0.0273973267445824</v>
       </c>
       <c r="I164">
-        <v>-0.0675422399000879</v>
+        <v>0.05525529540043507</v>
       </c>
       <c r="J164">
         <v>-0.0675422399000879</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="K164">
+        <v>-0.0675422399000879</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="2">
         <v>40087</v>
       </c>
@@ -5597,7 +6086,7 @@
         <v>38.20000076293945</v>
       </c>
       <c r="F165">
-        <v>31.21466064453125</v>
+        <v>31.21466255187988</v>
       </c>
       <c r="G165">
         <v>9545750</v>
@@ -5606,13 +6095,16 @@
         <v>-0.03923535272759027</v>
       </c>
       <c r="I165">
-        <v>0.06111113230387377</v>
+        <v>0.05504565175677789</v>
       </c>
       <c r="J165">
         <v>0.06111113230387377</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="K165">
+        <v>0.06111113230387377</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="2">
         <v>40118</v>
       </c>
@@ -5629,7 +6121,7 @@
         <v>38.2400016784668</v>
       </c>
       <c r="F166">
-        <v>31.24734878540039</v>
+        <v>31.24734687805176</v>
       </c>
       <c r="G166">
         <v>9514325</v>
@@ -5638,13 +6130,16 @@
         <v>0.001047144364618724</v>
       </c>
       <c r="I166">
-        <v>0.1039261649032868</v>
+        <v>0.05496927279814907</v>
       </c>
       <c r="J166">
         <v>0.1039261649032868</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="K166">
+        <v>0.1039261649032868</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="2">
         <v>40148</v>
       </c>
@@ -5661,7 +6156,7 @@
         <v>38.95999908447266</v>
       </c>
       <c r="F167">
-        <v>32.12296295166016</v>
+        <v>32.12296676635742</v>
       </c>
       <c r="G167">
         <v>3569300</v>
@@ -5670,13 +6165,16 @@
         <v>0.018828383221837</v>
       </c>
       <c r="I167">
-        <v>0.01670144558312403</v>
+        <v>0.05460399480605846</v>
       </c>
       <c r="J167">
         <v>0.01670144558312403</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="K167">
+        <v>0.01670144558312403</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" s="2">
         <v>40179</v>
       </c>
@@ -5702,13 +6200,16 @@
         <v>0.0102669798582804</v>
       </c>
       <c r="I168">
-        <v>0.1672597623212908</v>
+        <v>0.05438375885911296</v>
       </c>
       <c r="J168">
         <v>0.1672597623212908</v>
       </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="K168">
+        <v>0.1672597623212908</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" s="2">
         <v>40210</v>
       </c>
@@ -5725,7 +6226,7 @@
         <v>39.7599983215332</v>
       </c>
       <c r="F169">
-        <v>32.78256607055664</v>
+        <v>32.7825813293457</v>
       </c>
       <c r="G169">
         <v>4803650</v>
@@ -5734,13 +6235,16 @@
         <v>0.01016254331755384</v>
       </c>
       <c r="I169">
-        <v>0.3487109545089579</v>
+        <v>0.0543876509600343</v>
       </c>
       <c r="J169">
         <v>0.3487109545089579</v>
       </c>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="K169">
+        <v>0.3487109545089579</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" s="2">
         <v>40238</v>
       </c>
@@ -5757,7 +6261,7 @@
         <v>41.7599983215332</v>
       </c>
       <c r="F170">
-        <v>34.43158340454102</v>
+        <v>34.43159866333008</v>
       </c>
       <c r="G170">
         <v>9415275</v>
@@ -5766,13 +6270,16 @@
         <v>0.05030181298868008</v>
       </c>
       <c r="I170">
-        <v>0.3215189182725868</v>
+        <v>0.05399244675968064</v>
       </c>
       <c r="J170">
         <v>0.3215189182725868</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="K170">
+        <v>0.3215189182725868</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" s="2">
         <v>40269</v>
       </c>
@@ -5789,7 +6296,7 @@
         <v>41.56000137329102</v>
       </c>
       <c r="F171">
-        <v>34.26669311523438</v>
+        <v>34.26670074462891</v>
       </c>
       <c r="G171">
         <v>9148925</v>
@@ -5798,13 +6305,16 @@
         <v>-0.004789199144652811</v>
       </c>
       <c r="I171">
-        <v>0.220916576248781</v>
+        <v>0.05356864345854764</v>
       </c>
       <c r="J171">
         <v>0.220916576248781</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="K171">
+        <v>0.220916576248781</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" s="2">
         <v>40299</v>
       </c>
@@ -5821,7 +6331,7 @@
         <v>38.04000091552734</v>
       </c>
       <c r="F172">
-        <v>31.36442375183105</v>
+        <v>31.36440658569336</v>
       </c>
       <c r="G172">
         <v>7155925</v>
@@ -5830,13 +6340,16 @@
         <v>-0.08469683208494405</v>
       </c>
       <c r="I172">
-        <v>0.01494133885087034</v>
+        <v>0.05386424149328684</v>
       </c>
       <c r="J172">
         <v>0.01494133885087034</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="K172">
+        <v>0.01494133885087034</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" s="2">
         <v>40330</v>
       </c>
@@ -5853,7 +6366,7 @@
         <v>36.79999923706055</v>
       </c>
       <c r="F173">
-        <v>30.56076240539551</v>
+        <v>30.56076812744141</v>
       </c>
       <c r="G173">
         <v>4881525</v>
@@ -5862,13 +6375,16 @@
         <v>-0.0325973093749492</v>
       </c>
       <c r="I173">
-        <v>-0.02439029570173035</v>
+        <v>0.05366476657163779</v>
       </c>
       <c r="J173">
         <v>-0.02439029570173035</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="K173">
+        <v>-0.02439029570173035</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" s="2">
         <v>40360</v>
       </c>
@@ -5885,7 +6401,7 @@
         <v>38.52000045776367</v>
       </c>
       <c r="F174">
-        <v>31.9891471862793</v>
+        <v>31.98915672302246</v>
       </c>
       <c r="G174">
         <v>4583700</v>
@@ -5894,13 +6410,16 @@
         <v>0.04673916457506189</v>
       </c>
       <c r="I174">
-        <v>-0.02431608651478412</v>
+        <v>0.05291518091428653</v>
       </c>
       <c r="J174">
         <v>-0.02431608651478412</v>
       </c>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="K174">
+        <v>-0.02431608651478412</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" s="2">
         <v>40391</v>
       </c>
@@ -5926,13 +6445,16 @@
         <v>-0.02596053967072187</v>
       </c>
       <c r="I175">
-        <v>-0.08219179360472739</v>
+        <v>0.05286991899422312</v>
       </c>
       <c r="J175">
         <v>-0.08219179360472739</v>
       </c>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="K175">
+        <v>-0.08219179360472739</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" s="2">
         <v>40422</v>
       </c>
@@ -5949,7 +6471,7 @@
         <v>39.56000137329102</v>
       </c>
       <c r="F176">
-        <v>32.85281753540039</v>
+        <v>32.85282135009766</v>
       </c>
       <c r="G176">
         <v>4580925</v>
@@ -5958,13 +6480,16 @@
         <v>0.05437102586988973</v>
       </c>
       <c r="I176">
-        <v>-0.005030104544392677</v>
+        <v>0.05293564932008331</v>
       </c>
       <c r="J176">
         <v>-0.005030104544392677</v>
       </c>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="K176">
+        <v>-0.005030104544392677</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" s="2">
         <v>40452</v>
       </c>
@@ -5981,7 +6506,7 @@
         <v>40.08000183105469</v>
       </c>
       <c r="F177">
-        <v>33.28466415405273</v>
+        <v>33.28466033935547</v>
       </c>
       <c r="G177">
         <v>5126825</v>
@@ -5990,13 +6515,16 @@
         <v>0.01314460161052344</v>
       </c>
       <c r="I177">
-        <v>0.04921468666406836</v>
+        <v>0.05281327557375221</v>
       </c>
       <c r="J177">
         <v>0.04921468666406836</v>
       </c>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="K177">
+        <v>0.04921468666406836</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" s="2">
         <v>40483</v>
       </c>
@@ -6013,7 +6541,7 @@
         <v>41.08000183105469</v>
       </c>
       <c r="F178">
-        <v>34.11510848999023</v>
+        <v>34.11510467529297</v>
       </c>
       <c r="G178">
         <v>5802100</v>
@@ -6022,13 +6550,16 @@
         <v>0.02495009866055398</v>
       </c>
       <c r="I178">
-        <v>0.0742677831572145</v>
+        <v>0.05242956385330949</v>
       </c>
       <c r="J178">
         <v>0.0742677831572145</v>
       </c>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="K178">
+        <v>0.0742677831572145</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" s="2">
         <v>40513</v>
       </c>
@@ -6045,7 +6576,7 @@
         <v>43.63999938964844</v>
       </c>
       <c r="F179">
-        <v>36.48933792114258</v>
+        <v>36.48932266235352</v>
       </c>
       <c r="G179">
         <v>1887850</v>
@@ -6054,13 +6585,16 @@
         <v>0.06231736719783942</v>
       </c>
       <c r="I179">
-        <v>0.1201232139412698</v>
+        <v>0.05245181932599303</v>
       </c>
       <c r="J179">
         <v>0.1201232139412698</v>
       </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="K179">
+        <v>0.1201232139412698</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" s="2">
         <v>40544</v>
       </c>
@@ -6077,7 +6611,7 @@
         <v>43.72000122070312</v>
       </c>
       <c r="F180">
-        <v>36.55622482299805</v>
+        <v>36.55622100830078</v>
       </c>
       <c r="G180">
         <v>5318575</v>
@@ -6086,13 +6620,16 @@
         <v>0.001833222552098945</v>
       </c>
       <c r="I180">
-        <v>0.1107723715127407</v>
+        <v>0.0524479866966643</v>
       </c>
       <c r="J180">
         <v>0.1107723715127407</v>
       </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="K180">
+        <v>0.1107723715127407</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" s="2">
         <v>40575</v>
       </c>
@@ -6109,7 +6646,7 @@
         <v>46.11999893188477</v>
       </c>
       <c r="F181">
-        <v>38.56296539306641</v>
+        <v>38.56296920776367</v>
       </c>
       <c r="G181">
         <v>3880525</v>
@@ -6118,13 +6655,16 @@
         <v>0.05489473111096688</v>
       </c>
       <c r="I181">
-        <v>0.159959780654898</v>
+        <v>0.05251609496094119</v>
       </c>
       <c r="J181">
         <v>0.159959780654898</v>
       </c>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="K181">
+        <v>0.159959780654898</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" s="2">
         <v>40603</v>
       </c>
@@ -6141,7 +6681,7 @@
         <v>41.27999877929688</v>
       </c>
       <c r="F182">
-        <v>34.51603317260742</v>
+        <v>34.51602172851562</v>
       </c>
       <c r="G182">
         <v>7209525</v>
@@ -6150,13 +6690,16 @@
         <v>-0.1049436310641757</v>
       </c>
       <c r="I182">
-        <v>-0.0114942423737795</v>
+        <v>0.05335231687315801</v>
       </c>
       <c r="J182">
         <v>-0.0114942423737795</v>
       </c>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="K182">
+        <v>-0.0114942423737795</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" s="2">
         <v>40634</v>
       </c>
@@ -6173,7 +6716,7 @@
         <v>42.11999893188477</v>
       </c>
       <c r="F183">
-        <v>35.2183837890625</v>
+        <v>35.21838760375977</v>
       </c>
       <c r="G183">
         <v>3828300</v>
@@ -6182,13 +6725,16 @@
         <v>0.02034884150745597</v>
       </c>
       <c r="I183">
-        <v>0.01347443551706995</v>
+        <v>0.05267323107677466</v>
       </c>
       <c r="J183">
         <v>0.01347443551706995</v>
       </c>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="K183">
+        <v>0.01347443551706995</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" s="2">
         <v>40664</v>
       </c>
@@ -6205,7 +6751,7 @@
         <v>41.08000183105469</v>
       </c>
       <c r="F184">
-        <v>34.34879302978516</v>
+        <v>34.34880065917969</v>
       </c>
       <c r="G184">
         <v>5609700</v>
@@ -6214,13 +6760,16 @@
         <v>-0.02469128981963964</v>
       </c>
       <c r="I184">
-        <v>0.07991590016724892</v>
+        <v>0.0526521919092575</v>
       </c>
       <c r="J184">
         <v>0.07991590016724892</v>
       </c>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="K184">
+        <v>0.07991590016724892</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" s="2">
         <v>40695</v>
       </c>
@@ -6237,7 +6786,7 @@
         <v>41.72000122070312</v>
       </c>
       <c r="F185">
-        <v>35.18811798095703</v>
+        <v>35.1881103515625</v>
       </c>
       <c r="G185">
         <v>7109425</v>
@@ -6246,13 +6795,16 @@
         <v>0.01557934179945986</v>
       </c>
       <c r="I185">
-        <v>0.13369570884903</v>
+        <v>0.05236285116952146</v>
       </c>
       <c r="J185">
         <v>0.13369570884903</v>
       </c>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="K185">
+        <v>0.13369570884903</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" s="2">
         <v>40725</v>
       </c>
@@ -6278,13 +6830,16 @@
         <v>0.02684561119641038</v>
       </c>
       <c r="I186">
-        <v>0.1121495234549907</v>
+        <v>0.05185562845613848</v>
       </c>
       <c r="J186">
         <v>0.1121495234549907</v>
       </c>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="K186">
+        <v>0.1121495234549907</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" s="2">
         <v>40756</v>
       </c>
@@ -6301,7 +6856,7 @@
         <v>39.40000152587891</v>
       </c>
       <c r="F187">
-        <v>33.23134231567383</v>
+        <v>33.23134994506836</v>
       </c>
       <c r="G187">
         <v>7397975</v>
@@ -6310,13 +6865,16 @@
         <v>-0.08029875383885077</v>
       </c>
       <c r="I187">
-        <v>0.05010663766466505</v>
+        <v>0.05233278860885096</v>
       </c>
       <c r="J187">
         <v>0.05010663766466505</v>
       </c>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="K187">
+        <v>0.05010663766466505</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" s="2">
         <v>40787</v>
       </c>
@@ -6342,13 +6900,16 @@
         <v>-0.03959394195115362</v>
       </c>
       <c r="I188">
-        <v>-0.04347829021725935</v>
+        <v>0.05191630995634235</v>
       </c>
       <c r="J188">
         <v>-0.04347829021725935</v>
       </c>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="K188">
+        <v>-0.04347829021725935</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" s="2">
         <v>40817</v>
       </c>
@@ -6365,7 +6926,7 @@
         <v>37.59999847412109</v>
       </c>
       <c r="F189">
-        <v>31.71316528320312</v>
+        <v>31.71315956115723</v>
       </c>
       <c r="G189">
         <v>8764125</v>
@@ -6374,13 +6935,16 @@
         <v>-0.006342539045956719</v>
       </c>
       <c r="I189">
-        <v>-0.06187632843399826</v>
+        <v>0.05192138459759156</v>
       </c>
       <c r="J189">
         <v>-0.06187632843399826</v>
       </c>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="K189">
+        <v>-0.06187632843399826</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" s="2">
         <v>40848</v>
       </c>
@@ -6406,13 +6970,16 @@
         <v>0.003191562538616299</v>
       </c>
       <c r="I190">
-        <v>-0.08179163730736616</v>
+        <v>0.0519204510073449</v>
       </c>
       <c r="J190">
         <v>-0.08179163730736616</v>
       </c>
-    </row>
-    <row r="191" spans="1:10">
+      <c r="K190">
+        <v>-0.08179163730736616</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" s="2">
         <v>40878</v>
       </c>
@@ -6438,13 +7005,16 @@
         <v>-0.03393432005754005</v>
       </c>
       <c r="I191">
-        <v>-0.1649862709358176</v>
+        <v>0.05147561779454435</v>
       </c>
       <c r="J191">
         <v>-0.1649862709358176</v>
       </c>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="K191">
+        <v>-0.1649862709358176</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" s="2">
         <v>40909</v>
       </c>
@@ -6461,7 +7031,7 @@
         <v>38.20000076293945</v>
       </c>
       <c r="F192">
-        <v>32.6067008972168</v>
+        <v>32.60670471191406</v>
       </c>
       <c r="G192">
         <v>5328425</v>
@@ -6470,13 +7040,16 @@
         <v>0.04829863344013585</v>
       </c>
       <c r="I192">
-        <v>-0.1262580124345865</v>
+        <v>0.05115450956751354</v>
       </c>
       <c r="J192">
         <v>-0.1262580124345865</v>
       </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="K192">
+        <v>-0.1262580124345865</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="2">
         <v>40940</v>
       </c>
@@ -6493,7 +7066,7 @@
         <v>39.95999908447266</v>
       </c>
       <c r="F193">
-        <v>34.10899353027344</v>
+        <v>34.10900115966797</v>
       </c>
       <c r="G193">
         <v>5205800</v>
@@ -6502,13 +7075,16 @@
         <v>0.04607325357021197</v>
       </c>
       <c r="I193">
-        <v>-0.1335646138350934</v>
+        <v>0.05115349779144598</v>
       </c>
       <c r="J193">
         <v>-0.1335646138350934</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="K193">
+        <v>-0.1335646138350934</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" s="2">
         <v>40969</v>
       </c>
@@ -6534,13 +7110,16 @@
         <v>0.01901907291398763</v>
       </c>
       <c r="I194">
-        <v>-0.01356583273143419</v>
+        <v>0.05055891656321047</v>
       </c>
       <c r="J194">
         <v>-0.01356583273143419</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="K194">
+        <v>-0.01356583273143419</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" s="2">
         <v>41000</v>
       </c>
@@ -6557,7 +7136,7 @@
         <v>38.95999908447266</v>
       </c>
       <c r="F195">
-        <v>33.25541305541992</v>
+        <v>33.25542068481445</v>
       </c>
       <c r="G195">
         <v>2808975</v>
@@ -6566,13 +7145,16 @@
         <v>-0.04322205509501897</v>
       </c>
       <c r="I195">
-        <v>-0.07502373997023049</v>
+        <v>0.05063865501275357</v>
       </c>
       <c r="J195">
         <v>-0.07502373997023049</v>
       </c>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="K195">
+        <v>-0.07502373997023049</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" s="2">
         <v>41030</v>
       </c>
@@ -6589,7 +7171,7 @@
         <v>35.56000137329102</v>
       </c>
       <c r="F196">
-        <v>30.35325622558594</v>
+        <v>30.3532600402832</v>
       </c>
       <c r="G196">
         <v>2660225</v>
@@ -6598,13 +7180,16 @@
         <v>-0.08726893714267814</v>
       </c>
       <c r="I196">
-        <v>-0.1343719623106441</v>
+        <v>0.05100022624167</v>
       </c>
       <c r="J196">
         <v>-0.1343719623106441</v>
       </c>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="K196">
+        <v>-0.1343719623106441</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" s="2">
         <v>41061</v>
       </c>
@@ -6621,7 +7206,7 @@
         <v>37.63999938964844</v>
       </c>
       <c r="F197">
-        <v>32.43830108642578</v>
+        <v>32.43830490112305</v>
       </c>
       <c r="G197">
         <v>2993025</v>
@@ -6630,13 +7215,16 @@
         <v>0.05849263037204766</v>
       </c>
       <c r="I197">
-        <v>-0.09779486365475054</v>
+        <v>0.05096032403224655</v>
       </c>
       <c r="J197">
         <v>-0.09779486365475054</v>
       </c>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="K197">
+        <v>-0.09779486365475054</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" s="2">
         <v>41091</v>
       </c>
@@ -6653,7 +7241,7 @@
         <v>35.95999908447266</v>
       </c>
       <c r="F198">
-        <v>30.99047088623047</v>
+        <v>30.99046897888184</v>
       </c>
       <c r="G198">
         <v>3229650</v>
@@ -6662,13 +7250,16 @@
         <v>-0.04463337758814645</v>
       </c>
       <c r="I198">
-        <v>-0.1605975967229222</v>
+        <v>0.05073837117839133</v>
       </c>
       <c r="J198">
         <v>-0.1605975967229222</v>
       </c>
-    </row>
-    <row r="199" spans="1:10">
+      <c r="K198">
+        <v>-0.1605975967229222</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" s="2">
         <v>41122</v>
       </c>
@@ -6685,7 +7276,7 @@
         <v>36.2400016784668</v>
       </c>
       <c r="F199">
-        <v>31.23177719116211</v>
+        <v>31.23178100585938</v>
       </c>
       <c r="G199">
         <v>4005100</v>
@@ -6694,13 +7285,16 @@
         <v>0.007786501699746928</v>
       </c>
       <c r="I199">
-        <v>-0.08020303870639556</v>
+        <v>0.05073425595447046</v>
       </c>
       <c r="J199">
         <v>-0.08020303870639556</v>
       </c>
-    </row>
-    <row r="200" spans="1:10">
+      <c r="K199">
+        <v>-0.08020303870639556</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" s="2">
         <v>41153</v>
       </c>
@@ -6726,13 +7320,16 @@
         <v>0.01214124189653187</v>
       </c>
       <c r="I200">
-        <v>-0.03065538696444159</v>
+        <v>0.05039797046864999</v>
       </c>
       <c r="J200">
         <v>-0.03065538696444159</v>
       </c>
-    </row>
-    <row r="201" spans="1:10">
+      <c r="K200">
+        <v>-0.03065538696444159</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201" s="2">
         <v>41183</v>
       </c>
@@ -6749,7 +7346,7 @@
         <v>36.2400016784668</v>
       </c>
       <c r="F201">
-        <v>31.23177719116211</v>
+        <v>31.23178100585938</v>
       </c>
       <c r="G201">
         <v>2931325</v>
@@ -6758,13 +7355,16 @@
         <v>-0.01199560041025671</v>
       </c>
       <c r="I201">
-        <v>-0.03617012901184935</v>
+        <v>0.05011027651848467</v>
       </c>
       <c r="J201">
         <v>-0.03617012901184935</v>
       </c>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="K201">
+        <v>-0.03617012901184935</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202" s="2">
         <v>41214</v>
       </c>
@@ -6790,13 +7390,16 @@
         <v>0.0298012683867821</v>
       </c>
       <c r="I202">
-        <v>-0.01060449398022179</v>
+        <v>0.05007871500162359</v>
       </c>
       <c r="J202">
         <v>-0.01060449398022179</v>
       </c>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="K202">
+        <v>-0.01060449398022179</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
       <c r="A203" s="2">
         <v>41244</v>
       </c>
@@ -6813,7 +7416,7 @@
         <v>39</v>
       </c>
       <c r="F203">
-        <v>33.9722900390625</v>
+        <v>33.97229766845703</v>
       </c>
       <c r="G203">
         <v>7618900</v>
@@ -6822,13 +7425,16 @@
         <v>0.0450160857157984</v>
       </c>
       <c r="I203">
-        <v>0.07025251014731504</v>
+        <v>0.05012943987786025</v>
       </c>
       <c r="J203">
         <v>0.07025251014731504</v>
       </c>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="K203">
+        <v>0.07025251014731504</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
       <c r="A204" s="2">
         <v>41275</v>
       </c>
@@ -6845,7 +7451,7 @@
         <v>39.88000106811523</v>
       </c>
       <c r="F204">
-        <v>34.73885345458984</v>
+        <v>34.73884963989258</v>
       </c>
       <c r="G204">
         <v>7934400</v>
@@ -6854,13 +7460,16 @@
         <v>0.02256412995167278</v>
       </c>
       <c r="I204">
-        <v>0.04397906470215762</v>
+        <v>0.05008104200287142</v>
       </c>
       <c r="J204">
         <v>0.04397906470215762</v>
       </c>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="K204">
+        <v>0.04397906470215762</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
       <c r="A205" s="2">
         <v>41306</v>
       </c>
@@ -6877,7 +7486,7 @@
         <v>40.84000015258789</v>
       </c>
       <c r="F205">
-        <v>35.57508850097656</v>
+        <v>35.57509994506836</v>
       </c>
       <c r="G205">
         <v>6937625</v>
@@ -6886,13 +7495,16 @@
         <v>0.02407219304816399</v>
       </c>
       <c r="I205">
-        <v>0.02202204925618179</v>
+        <v>0.05011020498609343</v>
       </c>
       <c r="J205">
         <v>0.02202204925618179</v>
       </c>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="K205">
+        <v>0.02202204925618179</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206" s="2">
         <v>41334</v>
       </c>
@@ -6909,7 +7521,7 @@
         <v>43.20000076293945</v>
       </c>
       <c r="F206">
-        <v>37.63085556030273</v>
+        <v>37.63085174560547</v>
       </c>
       <c r="G206">
         <v>8444450</v>
@@ -6918,13 +7530,16 @@
         <v>0.05778649856841445</v>
       </c>
       <c r="I206">
-        <v>0.06090371974191955</v>
+        <v>0.05003487868717856</v>
       </c>
       <c r="J206">
         <v>0.06090371974191955</v>
       </c>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="K206">
+        <v>0.06090371974191955</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
       <c r="A207" s="2">
         <v>41365</v>
       </c>
@@ -6941,7 +7556,7 @@
         <v>46.79999923706055</v>
       </c>
       <c r="F207">
-        <v>40.76675796508789</v>
+        <v>40.76675415039062</v>
       </c>
       <c r="G207">
         <v>5345925</v>
@@ -6950,13 +7565,16 @@
         <v>0.08333329654034327</v>
       </c>
       <c r="I207">
-        <v>0.2012320414995208</v>
+        <v>0.05051999379761277</v>
       </c>
       <c r="J207">
         <v>0.2012320414995208</v>
       </c>
-    </row>
-    <row r="208" spans="1:10">
+      <c r="K207">
+        <v>0.2012320414995208</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
       <c r="A208" s="2">
         <v>41395</v>
       </c>
@@ -6982,13 +7600,16 @@
         <v>-0.0735042453587238</v>
       </c>
       <c r="I208">
-        <v>0.2193475516263366</v>
+        <v>0.05080333958401447</v>
       </c>
       <c r="J208">
         <v>0.2193475516263366</v>
       </c>
-    </row>
-    <row r="209" spans="1:10">
+      <c r="K208">
+        <v>0.2193475516263366</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209" s="2">
         <v>41426</v>
       </c>
@@ -7014,13 +7635,16 @@
         <v>0.03505536061733339</v>
       </c>
       <c r="I209">
-        <v>0.1923486130676693</v>
+        <v>0.05052065739718299</v>
       </c>
       <c r="J209">
         <v>0.1923486130676693</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
+      <c r="K209">
+        <v>0.1923486130676693</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" s="2">
         <v>41456</v>
       </c>
@@ -7046,13 +7670,16 @@
         <v>0</v>
       </c>
       <c r="I210">
-        <v>0.2480534541363264</v>
+        <v>0.050384705668845</v>
       </c>
       <c r="J210">
         <v>0.2480534541363264</v>
       </c>
-    </row>
-    <row r="211" spans="1:10">
+      <c r="K210">
+        <v>0.2480534541363264</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" s="2">
         <v>41487</v>
       </c>
@@ -7069,7 +7696,7 @@
         <v>43.47999954223633</v>
       </c>
       <c r="F211">
-        <v>38.03863143920898</v>
+        <v>38.03862762451172</v>
       </c>
       <c r="G211">
         <v>5773450</v>
@@ -7078,13 +7705,16 @@
         <v>-0.0311943291568576</v>
       </c>
       <c r="I211">
-        <v>0.1997791812485323</v>
+        <v>0.04983792758322309</v>
       </c>
       <c r="J211">
         <v>0.1997791812485323</v>
       </c>
-    </row>
-    <row r="212" spans="1:10">
+      <c r="K211">
+        <v>0.1997791812485323</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212" s="2">
         <v>41518</v>
       </c>
@@ -7101,7 +7731,7 @@
         <v>47.68000030517578</v>
       </c>
       <c r="F212">
-        <v>41.71301651000977</v>
+        <v>41.71302032470703</v>
       </c>
       <c r="G212">
         <v>8944950</v>
@@ -7110,13 +7740,16 @@
         <v>0.09659615471843752</v>
       </c>
       <c r="I212">
-        <v>0.2998909462508328</v>
+        <v>0.05033764812929469</v>
       </c>
       <c r="J212">
         <v>0.2998909462508328</v>
       </c>
-    </row>
-    <row r="213" spans="1:10">
+      <c r="K212">
+        <v>0.2998909462508328</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
       <c r="A213" s="2">
         <v>41548</v>
       </c>
@@ -7142,13 +7775,16 @@
         <v>-0.0008389453706232342</v>
       </c>
       <c r="I213">
-        <v>0.3145694586972199</v>
+        <v>0.05012014003381122</v>
       </c>
       <c r="J213">
         <v>0.3145694586972199</v>
       </c>
-    </row>
-    <row r="214" spans="1:10">
+      <c r="K213">
+        <v>0.3145694586972199</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
       <c r="A214" s="2">
         <v>41579</v>
       </c>
@@ -7165,7 +7801,7 @@
         <v>48.2400016784668</v>
       </c>
       <c r="F214">
-        <v>42.20293045043945</v>
+        <v>42.20292663574219</v>
       </c>
       <c r="G214">
         <v>4449275</v>
@@ -7174,13 +7810,16 @@
         <v>0.01259450664369099</v>
       </c>
       <c r="I214">
-        <v>0.2926045571526903</v>
+        <v>0.05003080341971091</v>
       </c>
       <c r="J214">
         <v>0.2926045571526903</v>
       </c>
-    </row>
-    <row r="215" spans="1:10">
+      <c r="K214">
+        <v>0.2926045571526903</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
       <c r="A215" s="2">
         <v>41609</v>
       </c>
@@ -7197,7 +7836,7 @@
         <v>48.56000137329102</v>
       </c>
       <c r="F215">
-        <v>42.80400848388672</v>
+        <v>42.80400085449219</v>
       </c>
       <c r="G215">
         <v>2011575</v>
@@ -7206,13 +7845,16 @@
         <v>0.006633492613808523</v>
       </c>
       <c r="I215">
-        <v>0.2451282403407953</v>
+        <v>0.0495889202246665</v>
       </c>
       <c r="J215">
         <v>0.2451282403407953</v>
       </c>
-    </row>
-    <row r="216" spans="1:10">
+      <c r="K215">
+        <v>0.2451282403407953</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
       <c r="A216" s="2">
         <v>41640</v>
       </c>
@@ -7229,7 +7871,7 @@
         <v>45.31999969482422</v>
       </c>
       <c r="F216">
-        <v>39.94804763793945</v>
+        <v>39.94805526733398</v>
       </c>
       <c r="G216">
         <v>12026025</v>
@@ -7238,13 +7880,16 @@
         <v>-0.06672161422649514</v>
       </c>
       <c r="I216">
-        <v>0.1364091895939883</v>
+        <v>0.04999753812733743</v>
       </c>
       <c r="J216">
         <v>0.1364091895939883</v>
       </c>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="K216">
+        <v>0.1364091895939883</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
       <c r="A217" s="2">
         <v>41671</v>
       </c>
@@ -7261,7 +7906,7 @@
         <v>46.43999862670898</v>
       </c>
       <c r="F217">
-        <v>40.9352912902832</v>
+        <v>40.93529891967773</v>
       </c>
       <c r="G217">
         <v>9249275</v>
@@ -7270,13 +7915,16 @@
         <v>0.0247131275248591</v>
       </c>
       <c r="I217">
-        <v>0.1371204322526487</v>
+        <v>0.05003784323721135</v>
       </c>
       <c r="J217">
         <v>0.1371204322526487</v>
       </c>
-    </row>
-    <row r="218" spans="1:10">
+      <c r="K217">
+        <v>0.1371204322526487</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
       <c r="A218" s="2">
         <v>41699</v>
       </c>
@@ -7293,7 +7941,7 @@
         <v>45.31999969482422</v>
       </c>
       <c r="F218">
-        <v>39.94804763793945</v>
+        <v>39.94805526733398</v>
       </c>
       <c r="G218">
         <v>17558425</v>
@@ -7302,13 +7950,16 @@
         <v>-0.02411711810948725</v>
       </c>
       <c r="I218">
-        <v>0.04907404848250541</v>
+        <v>0.04892777721756388</v>
       </c>
       <c r="J218">
         <v>0.04907404848250541</v>
       </c>
-    </row>
-    <row r="219" spans="1:10">
+      <c r="K218">
+        <v>0.04907404848250541</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
       <c r="A219" s="2">
         <v>41730</v>
       </c>
@@ -7325,7 +7976,7 @@
         <v>44.31999969482422</v>
       </c>
       <c r="F219">
-        <v>39.06658554077148</v>
+        <v>39.06658172607422</v>
       </c>
       <c r="G219">
         <v>16735625</v>
@@ -7334,13 +7985,16 @@
         <v>-0.02206531347603269</v>
       </c>
       <c r="I219">
-        <v>-0.0529914440740511</v>
+        <v>0.04856749485023147</v>
       </c>
       <c r="J219">
         <v>-0.0529914440740511</v>
       </c>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="K219">
+        <v>-0.0529914440740511</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
       <c r="A220" s="2">
         <v>41760</v>
       </c>
@@ -7357,7 +8011,7 @@
         <v>46.31999969482422</v>
       </c>
       <c r="F220">
-        <v>40.82952499389648</v>
+        <v>40.82951736450195</v>
       </c>
       <c r="G220">
         <v>3598350</v>
@@ -7366,13 +8020,16 @@
         <v>0.0451263541013418</v>
       </c>
       <c r="I220">
-        <v>0.06826566058133321</v>
+        <v>0.0487019929640729</v>
       </c>
       <c r="J220">
         <v>0.06826566058133321</v>
       </c>
-    </row>
-    <row r="221" spans="1:10">
+      <c r="K220">
+        <v>0.06826566058133321</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
       <c r="A221" s="2">
         <v>41791</v>
       </c>
@@ -7389,7 +8046,7 @@
         <v>48.15999984741211</v>
       </c>
       <c r="F221">
-        <v>42.74131011962891</v>
+        <v>42.74130630493164</v>
       </c>
       <c r="G221">
         <v>3541150</v>
@@ -7398,13 +8055,16 @@
         <v>0.03972366504124758</v>
       </c>
       <c r="I221">
-        <v>0.0730837500275181</v>
+        <v>0.04850399803874741</v>
       </c>
       <c r="J221">
         <v>0.0730837500275181</v>
       </c>
-    </row>
-    <row r="222" spans="1:10">
+      <c r="K221">
+        <v>0.0730837500275181</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
       <c r="A222" s="2">
         <v>41821</v>
       </c>
@@ -7421,7 +8081,7 @@
         <v>48</v>
       </c>
       <c r="F222">
-        <v>42.59931182861328</v>
+        <v>42.59930419921875</v>
       </c>
       <c r="G222">
         <v>9879750</v>
@@ -7430,13 +8090,16 @@
         <v>-0.003322255978385535</v>
       </c>
       <c r="I222">
-        <v>0.0695186911236807</v>
+        <v>0.04800444024447051</v>
       </c>
       <c r="J222">
         <v>0.0695186911236807</v>
       </c>
-    </row>
-    <row r="223" spans="1:10">
+      <c r="K222">
+        <v>0.0695186911236807</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
       <c r="A223" s="2">
         <v>41852</v>
       </c>
@@ -7453,7 +8116,7 @@
         <v>47.20000076293945</v>
       </c>
       <c r="F223">
-        <v>41.88932800292969</v>
+        <v>41.88932418823242</v>
       </c>
       <c r="G223">
         <v>7910025</v>
@@ -7462,13 +8125,16 @@
         <v>-0.01666665077209473</v>
       </c>
       <c r="I223">
-        <v>0.08555660671269161</v>
+        <v>0.04802556002163404</v>
       </c>
       <c r="J223">
         <v>0.08555660671269161</v>
       </c>
-    </row>
-    <row r="224" spans="1:10">
+      <c r="K223">
+        <v>0.08555660671269161</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
       <c r="A224" s="2">
         <v>41883</v>
       </c>
@@ -7494,13 +8160,16 @@
         <v>-0.002542350210701372</v>
       </c>
       <c r="I224">
-        <v>-0.01258386053441285</v>
+        <v>0.0479452991700911</v>
       </c>
       <c r="J224">
         <v>-0.01258386053441285</v>
       </c>
-    </row>
-    <row r="225" spans="1:10">
+      <c r="K224">
+        <v>-0.01258386053441285</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
       <c r="A225" s="2">
         <v>41913</v>
       </c>
@@ -7517,7 +8186,7 @@
         <v>48.2400016784668</v>
       </c>
       <c r="F225">
-        <v>42.81231307983398</v>
+        <v>42.81230926513672</v>
       </c>
       <c r="G225">
         <v>33579575</v>
@@ -7526,13 +8195,16 @@
         <v>0.02463890829007909</v>
       </c>
       <c r="I225">
-        <v>0.01259450664369099</v>
+        <v>0.04794877809396385</v>
       </c>
       <c r="J225">
         <v>0.01259450664369099</v>
       </c>
-    </row>
-    <row r="226" spans="1:10">
+      <c r="K225">
+        <v>0.01259450664369099</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
       <c r="A226" s="2">
         <v>41944</v>
       </c>
@@ -7558,13 +8230,16 @@
         <v>-0.03648428845341634</v>
       </c>
       <c r="I226">
-        <v>-0.03648428845341634</v>
+        <v>0.04796940550944467</v>
       </c>
       <c r="J226">
         <v>-0.03648428845341634</v>
       </c>
-    </row>
-    <row r="227" spans="1:10">
+      <c r="K226">
+        <v>-0.03648428845341634</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
       <c r="A227" s="2">
         <v>41974</v>
       </c>
@@ -7581,7 +8256,7 @@
         <v>44.95999908447266</v>
       </c>
       <c r="F227">
-        <v>40.13894653320312</v>
+        <v>40.13895416259766</v>
       </c>
       <c r="G227">
         <v>3983275</v>
@@ -7590,13 +8265,16 @@
         <v>-0.03270224769220254</v>
       </c>
       <c r="I227">
-        <v>-0.07413513564681307</v>
+        <v>0.04778462672833422</v>
       </c>
       <c r="J227">
         <v>-0.07413513564681307</v>
       </c>
-    </row>
-    <row r="228" spans="1:10">
+      <c r="K227">
+        <v>-0.07413513564681307</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
       <c r="A228" s="2">
         <v>42005</v>
       </c>
@@ -7613,7 +8291,7 @@
         <v>45.95999908447266</v>
       </c>
       <c r="F228">
-        <v>41.03172302246094</v>
+        <v>41.03171157836914</v>
       </c>
       <c r="G228">
         <v>8032800</v>
@@ -7622,13 +8300,16 @@
         <v>0.02224199333547938</v>
       </c>
       <c r="I228">
-        <v>0.01412178715706225</v>
+        <v>0.0477329606916605</v>
       </c>
       <c r="J228">
         <v>0.01412178715706225</v>
       </c>
-    </row>
-    <row r="229" spans="1:10">
+      <c r="K228">
+        <v>0.01412178715706225</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
       <c r="A229" s="2">
         <v>42036</v>
       </c>
@@ -7645,7 +8326,7 @@
         <v>49.40000152587891</v>
       </c>
       <c r="F229">
-        <v>44.10284423828125</v>
+        <v>44.10285186767578</v>
       </c>
       <c r="G229">
         <v>9573975</v>
@@ -7654,13 +8335,16 @@
         <v>0.07484774825786356</v>
       </c>
       <c r="I229">
-        <v>0.0637382210745272</v>
+        <v>0.04816659752578026</v>
       </c>
       <c r="J229">
         <v>0.0637382210745272</v>
       </c>
-    </row>
-    <row r="230" spans="1:10">
+      <c r="K229">
+        <v>0.0637382210745272</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
       <c r="A230" s="2">
         <v>42064</v>
       </c>
@@ -7677,7 +8361,7 @@
         <v>50.11999893188477</v>
       </c>
       <c r="F230">
-        <v>44.74563980102539</v>
+        <v>44.74564361572266</v>
       </c>
       <c r="G230">
         <v>7267350</v>
@@ -7686,13 +8370,16 @@
         <v>0.01457484582523105</v>
       </c>
       <c r="I230">
-        <v>0.1059134878504584</v>
+        <v>0.04808965385845702</v>
       </c>
       <c r="J230">
         <v>0.1059134878504584</v>
       </c>
-    </row>
-    <row r="231" spans="1:10">
+      <c r="K230">
+        <v>0.1059134878504584</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
       <c r="A231" s="2">
         <v>42095</v>
       </c>
@@ -7718,13 +8405,16 @@
         <v>0.02633678617228541</v>
       </c>
       <c r="I231">
-        <v>0.1606497965007039</v>
+        <v>0.04808000632721936</v>
       </c>
       <c r="J231">
         <v>0.1606497965007039</v>
       </c>
-    </row>
-    <row r="232" spans="1:10">
+      <c r="K231">
+        <v>0.1606497965007039</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
       <c r="A232" s="2">
         <v>42125</v>
       </c>
@@ -7741,7 +8431,7 @@
         <v>52.20000076293945</v>
       </c>
       <c r="F232">
-        <v>46.60260391235352</v>
+        <v>46.60260009765625</v>
       </c>
       <c r="G232">
         <v>10201050</v>
@@ -7750,13 +8440,16 @@
         <v>0.01477453647978622</v>
       </c>
       <c r="I232">
-        <v>0.1269430290771842</v>
+        <v>0.04806981083457092</v>
       </c>
       <c r="J232">
         <v>0.1269430290771842</v>
       </c>
-    </row>
-    <row r="233" spans="1:10">
+      <c r="K232">
+        <v>0.1269430290771842</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
       <c r="A233" s="2">
         <v>42156</v>
       </c>
@@ -7773,7 +8466,7 @@
         <v>51.2400016784668</v>
       </c>
       <c r="F233">
-        <v>45.9779052734375</v>
+        <v>45.97789764404297</v>
       </c>
       <c r="G233">
         <v>7547875</v>
@@ -7782,13 +8475,16 @@
         <v>-0.018390786790069</v>
       </c>
       <c r="I233">
-        <v>0.0639535265949589</v>
+        <v>0.04811040773067011</v>
       </c>
       <c r="J233">
         <v>0.0639535265949589</v>
       </c>
-    </row>
-    <row r="234" spans="1:10">
+      <c r="K233">
+        <v>0.0639535265949589</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
       <c r="A234" s="2">
         <v>42186</v>
       </c>
@@ -7805,7 +8501,7 @@
         <v>51.72000122070312</v>
       </c>
       <c r="F234">
-        <v>46.40860366821289</v>
+        <v>46.40859985351562</v>
       </c>
       <c r="G234">
         <v>6181050</v>
@@ -7814,13 +8510,16 @@
         <v>0.009367672258255189</v>
       </c>
       <c r="I234">
-        <v>0.07750002543131518</v>
+        <v>0.0481085978051429</v>
       </c>
       <c r="J234">
         <v>0.07750002543131518</v>
       </c>
-    </row>
-    <row r="235" spans="1:10">
+      <c r="K234">
+        <v>0.07750002543131518</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
       <c r="A235" s="2">
         <v>42217</v>
       </c>
@@ -7846,13 +8545,16 @@
         <v>-0.06264504257532477</v>
       </c>
       <c r="I235">
-        <v>0.02711861776709767</v>
+        <v>0.04787143332872833</v>
       </c>
       <c r="J235">
         <v>0.02711861776709767</v>
       </c>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="K235">
+        <v>0.02711861776709767</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
       <c r="A236" s="2">
         <v>42248</v>
       </c>
@@ -7878,13 +8580,16 @@
         <v>-0.05693065898502458</v>
       </c>
       <c r="I236">
-        <v>-0.02888701269026894</v>
+        <v>0.04739026650459403</v>
       </c>
       <c r="J236">
         <v>-0.02888701269026894</v>
       </c>
-    </row>
-    <row r="237" spans="1:10">
+      <c r="K236">
+        <v>-0.02888701269026894</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
       <c r="A237" s="2">
         <v>42278</v>
       </c>
@@ -7910,13 +8615,16 @@
         <v>0.07786521136359248</v>
       </c>
       <c r="I237">
-        <v>0.02155881145614291</v>
+        <v>0.0479069811227828</v>
       </c>
       <c r="J237">
         <v>0.02155881145614291</v>
       </c>
-    </row>
-    <row r="238" spans="1:10">
+      <c r="K237">
+        <v>0.02155881145614291</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
       <c r="A238" s="2">
         <v>42309</v>
       </c>
@@ -7933,7 +8641,7 @@
         <v>49.52000045776367</v>
       </c>
       <c r="F238">
-        <v>44.43453216552734</v>
+        <v>44.43453598022461</v>
       </c>
       <c r="G238">
         <v>11277375</v>
@@ -7942,13 +8650,16 @@
         <v>0.004870164050564618</v>
       </c>
       <c r="I238">
-        <v>0.06540449538440507</v>
+        <v>0.04784081436214169</v>
       </c>
       <c r="J238">
         <v>0.06540449538440507</v>
       </c>
-    </row>
-    <row r="239" spans="1:10">
+      <c r="K238">
+        <v>0.06540449538440507</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
       <c r="A239" s="2">
         <v>42339</v>
       </c>
@@ -7965,7 +8676,7 @@
         <v>48.47999954223633</v>
       </c>
       <c r="F239">
-        <v>43.82003021240234</v>
+        <v>43.82002639770508</v>
       </c>
       <c r="G239">
         <v>6550950</v>
@@ -7974,13 +8685,16 @@
         <v>-0.02100163380277786</v>
       </c>
       <c r="I239">
-        <v>0.07829182672246393</v>
+        <v>0.04725257468394743</v>
       </c>
       <c r="J239">
         <v>0.07829182672246393</v>
       </c>
-    </row>
-    <row r="240" spans="1:10">
+      <c r="K239">
+        <v>0.07829182672246393</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
       <c r="A240" s="2">
         <v>42370</v>
       </c>
@@ -8006,13 +8720,16 @@
         <v>-0.05115510655225408</v>
       </c>
       <c r="I240">
-        <v>0.0008703419565745385</v>
+        <v>0.04736115750205188</v>
       </c>
       <c r="J240">
         <v>0.0008703419565745385</v>
       </c>
-    </row>
-    <row r="241" spans="1:10">
+      <c r="K240">
+        <v>0.0008703419565745385</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
       <c r="A241" s="2">
         <v>42401</v>
       </c>
@@ -8038,13 +8755,16 @@
         <v>-0.05304344840671704</v>
       </c>
       <c r="I241">
-        <v>-0.1182186229190403</v>
+        <v>0.04758393381049374</v>
       </c>
       <c r="J241">
         <v>-0.1182186229190403</v>
       </c>
-    </row>
-    <row r="242" spans="1:10">
+      <c r="K241">
+        <v>-0.1182186229190403</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
       <c r="A242" s="2">
         <v>42430</v>
       </c>
@@ -8061,7 +8781,7 @@
         <v>45.63999938964844</v>
       </c>
       <c r="F242">
-        <v>41.25300979614258</v>
+        <v>41.25301361083984</v>
       </c>
       <c r="G242">
         <v>9037175</v>
@@ -8070,13 +8790,16 @@
         <v>0.04775018252485141</v>
       </c>
       <c r="I242">
-        <v>-0.08938546763188959</v>
+        <v>0.04761894614186755</v>
       </c>
       <c r="J242">
         <v>-0.08938546763188959</v>
       </c>
-    </row>
-    <row r="243" spans="1:10">
+      <c r="K242">
+        <v>-0.08938546763188959</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
       <c r="A243" s="2">
         <v>42461</v>
       </c>
@@ -8093,7 +8816,7 @@
         <v>45.68000030517578</v>
       </c>
       <c r="F243">
-        <v>41.2891731262207</v>
+        <v>41.28916549682617</v>
       </c>
       <c r="G243">
         <v>17211950</v>
@@ -8102,13 +8825,16 @@
         <v>0.0008764442607862577</v>
       </c>
       <c r="I243">
-        <v>-0.1119750870005363</v>
+        <v>0.04754657468437415</v>
       </c>
       <c r="J243">
         <v>-0.1119750870005363</v>
       </c>
-    </row>
-    <row r="244" spans="1:10">
+      <c r="K243">
+        <v>-0.1119750870005363</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
       <c r="A244" s="2">
         <v>42491</v>
       </c>
@@ -8125,7 +8851,7 @@
         <v>47.15999984741211</v>
       </c>
       <c r="F244">
-        <v>42.62690734863281</v>
+        <v>42.62690353393555</v>
       </c>
       <c r="G244">
         <v>11470925</v>
@@ -8134,13 +8860,16 @@
         <v>0.03239928923705881</v>
       </c>
       <c r="I244">
-        <v>-0.09655174026559787</v>
+        <v>0.04739093254425741</v>
       </c>
       <c r="J244">
         <v>-0.09655174026559787</v>
       </c>
-    </row>
-    <row r="245" spans="1:10">
+      <c r="K244">
+        <v>-0.09655174026559787</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
       <c r="A245" s="2">
         <v>42522</v>
       </c>
@@ -8166,13 +8895,16 @@
         <v>-0.02459711304421819</v>
       </c>
       <c r="I245">
-        <v>-0.1022638857693259</v>
+        <v>0.04738600717036372</v>
       </c>
       <c r="J245">
         <v>-0.1022638857693259</v>
       </c>
-    </row>
-    <row r="246" spans="1:10">
+      <c r="K245">
+        <v>-0.1022638857693259</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
       <c r="A246" s="2">
         <v>42552</v>
       </c>
@@ -8189,7 +8921,7 @@
         <v>48.2400016784668</v>
       </c>
       <c r="F246">
-        <v>43.94660568237305</v>
+        <v>43.94660186767578</v>
       </c>
       <c r="G246">
         <v>11570600</v>
@@ -8198,13 +8930,16 @@
         <v>0.04869568866232177</v>
       </c>
       <c r="I246">
-        <v>-0.06728537239174137</v>
+        <v>0.04759408519948644</v>
       </c>
       <c r="J246">
         <v>-0.06728537239174137</v>
       </c>
-    </row>
-    <row r="247" spans="1:10">
+      <c r="K246">
+        <v>-0.06728537239174137</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
       <c r="A247" s="2">
         <v>42583</v>
       </c>
@@ -8221,7 +8956,7 @@
         <v>49.11999893188477</v>
       </c>
       <c r="F247">
-        <v>44.74827194213867</v>
+        <v>44.74828720092773</v>
       </c>
       <c r="G247">
         <v>7046425</v>
@@ -8230,13 +8965,16 @@
         <v>0.01824206514923854</v>
       </c>
       <c r="I247">
-        <v>0.01320130766690419</v>
+        <v>0.04761379188348827</v>
       </c>
       <c r="J247">
         <v>0.01320130766690419</v>
       </c>
-    </row>
-    <row r="248" spans="1:10">
+      <c r="K247">
+        <v>0.01320130766690419</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
       <c r="A248" s="2">
         <v>42614</v>
       </c>
@@ -8253,7 +8991,7 @@
         <v>50.15999984741211</v>
       </c>
       <c r="F248">
-        <v>45.69572067260742</v>
+        <v>45.69572448730469</v>
       </c>
       <c r="G248">
         <v>12557200</v>
@@ -8262,13 +9000,16 @@
         <v>0.02117265753546782</v>
       </c>
       <c r="I248">
-        <v>0.09711282826253398</v>
+        <v>0.04763760711161744</v>
       </c>
       <c r="J248">
         <v>0.09711282826253398</v>
       </c>
-    </row>
-    <row r="249" spans="1:10">
+      <c r="K248">
+        <v>0.09711282826253398</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
       <c r="A249" s="2">
         <v>42644</v>
       </c>
@@ -8285,7 +9026,7 @@
         <v>50.52000045776367</v>
       </c>
       <c r="F249">
-        <v>46.023681640625</v>
+        <v>46.02368545532227</v>
       </c>
       <c r="G249">
         <v>6951725</v>
@@ -8294,13 +9035,16 @@
         <v>0.007177045682749128</v>
       </c>
       <c r="I249">
-        <v>0.02516237234542573</v>
+        <v>0.0476080884767725</v>
       </c>
       <c r="J249">
         <v>0.02516237234542573</v>
       </c>
-    </row>
-    <row r="250" spans="1:10">
+      <c r="K249">
+        <v>0.02516237234542573</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
       <c r="A250" s="2">
         <v>42675</v>
       </c>
@@ -8317,7 +9061,7 @@
         <v>49.88999938964844</v>
       </c>
       <c r="F250">
-        <v>45.44975662231445</v>
+        <v>45.44975280761719</v>
       </c>
       <c r="G250">
         <v>9579000</v>
@@ -8326,13 +9070,16 @@
         <v>-0.01247032981802787</v>
       </c>
       <c r="I250">
-        <v>0.007471706956068136</v>
+        <v>0.04762257618110161</v>
       </c>
       <c r="J250">
         <v>0.007471706956068136</v>
       </c>
-    </row>
-    <row r="251" spans="1:10">
+      <c r="K250">
+        <v>0.007471706956068136</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
       <c r="A251" s="2">
         <v>42705</v>
       </c>
@@ -8349,7 +9096,7 @@
         <v>48.86000061035156</v>
       </c>
       <c r="F251">
-        <v>45.03025436401367</v>
+        <v>45.03025054931641</v>
       </c>
       <c r="G251">
         <v>3395200</v>
@@ -8358,13 +9105,16 @@
         <v>-0.0206453957085152</v>
       </c>
       <c r="I251">
-        <v>0.007838305934474654</v>
+        <v>0.04758692946622192</v>
       </c>
       <c r="J251">
         <v>0.007838305934474654</v>
       </c>
-    </row>
-    <row r="252" spans="1:10">
+      <c r="K251">
+        <v>0.007838305934474654</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
       <c r="A252" s="2">
         <v>42736</v>
       </c>
@@ -8390,13 +9140,16 @@
         <v>0.03499793416110553</v>
       </c>
       <c r="I252">
-        <v>0.09934781945270044</v>
+        <v>0.04769059801236446</v>
       </c>
       <c r="J252">
         <v>0.09934781945270044</v>
       </c>
-    </row>
-    <row r="253" spans="1:10">
+      <c r="K252">
+        <v>0.09934781945270044</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11">
       <c r="A253" s="2">
         <v>42767</v>
       </c>
@@ -8422,13 +9175,16 @@
         <v>0.01305121319744962</v>
       </c>
       <c r="I253">
-        <v>0.1760789239471467</v>
+        <v>0.04761855237115727</v>
       </c>
       <c r="J253">
         <v>0.1760789239471467</v>
       </c>
-    </row>
-    <row r="254" spans="1:10">
+      <c r="K253">
+        <v>0.1760789239471467</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11">
       <c r="A254" s="2">
         <v>42795</v>
       </c>
@@ -8445,7 +9201,7 @@
         <v>51.5</v>
       </c>
       <c r="F254">
-        <v>47.46332168579102</v>
+        <v>47.46332550048828</v>
       </c>
       <c r="G254">
         <v>6983600</v>
@@ -8454,13 +9210,16 @@
         <v>0.005270358387199803</v>
       </c>
       <c r="I254">
-        <v>0.1283961588238027</v>
+        <v>0.04760625995932229</v>
       </c>
       <c r="J254">
         <v>0.1283961588238027</v>
       </c>
-    </row>
-    <row r="255" spans="1:10">
+      <c r="K254">
+        <v>0.1283961588238027</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
       <c r="A255" s="2">
         <v>42826</v>
       </c>
@@ -8477,7 +9236,7 @@
         <v>51.86000061035156</v>
       </c>
       <c r="F255">
-        <v>47.79510498046875</v>
+        <v>47.79510879516602</v>
       </c>
       <c r="G255">
         <v>6285100</v>
@@ -8486,13 +9245,16 @@
         <v>0.006990303113622476</v>
       </c>
       <c r="I255">
-        <v>0.1352889725019453</v>
+        <v>0.04757452738098716</v>
       </c>
       <c r="J255">
         <v>0.1352889725019453</v>
       </c>
-    </row>
-    <row r="256" spans="1:10">
+      <c r="K255">
+        <v>0.1352889725019453</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
       <c r="A256" s="2">
         <v>42856</v>
       </c>
@@ -8509,7 +9271,7 @@
         <v>53.29000091552734</v>
       </c>
       <c r="F256">
-        <v>49.11301422119141</v>
+        <v>49.11302185058594</v>
       </c>
       <c r="G256">
         <v>2829100</v>
@@ -8518,13 +9280,16 @@
         <v>0.02757424389405694</v>
       </c>
       <c r="I256">
-        <v>0.1299830595409048</v>
+        <v>0.04759699613492966</v>
       </c>
       <c r="J256">
         <v>0.1299830595409048</v>
       </c>
-    </row>
-    <row r="257" spans="1:10">
+      <c r="K256">
+        <v>0.1299830595409048</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11">
       <c r="A257" s="2">
         <v>42887</v>
       </c>
@@ -8541,7 +9306,7 @@
         <v>53.65000152587891</v>
       </c>
       <c r="F257">
-        <v>49.76320266723633</v>
+        <v>49.76319885253906</v>
       </c>
       <c r="G257">
         <v>5430500</v>
@@ -8550,13 +9315,16 @@
         <v>0.006755500172015649</v>
       </c>
       <c r="I257">
-        <v>0.1663043809973674</v>
+        <v>0.04759667980825599</v>
       </c>
       <c r="J257">
         <v>0.1663043809973674</v>
       </c>
-    </row>
-    <row r="258" spans="1:10">
+      <c r="K257">
+        <v>0.1663043809973674</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11">
       <c r="A258" s="2">
         <v>42917</v>
       </c>
@@ -8582,13 +9350,16 @@
         <v>0.02068959485711996</v>
       </c>
       <c r="I258">
-        <v>0.1351574713144501</v>
+        <v>0.04762901010569998</v>
       </c>
       <c r="J258">
         <v>0.1351574713144501</v>
       </c>
-    </row>
-    <row r="259" spans="1:10">
+      <c r="K258">
+        <v>0.1351574713144501</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11">
       <c r="A259" s="2">
         <v>42948</v>
       </c>
@@ -8614,13 +9385,16 @@
         <v>-0.0009130613329636494</v>
       </c>
       <c r="I259">
-        <v>0.1138029371771689</v>
+        <v>0.04757072097656744</v>
       </c>
       <c r="J259">
         <v>0.1138029371771689</v>
       </c>
-    </row>
-    <row r="260" spans="1:10">
+      <c r="K259">
+        <v>0.1138029371771689</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11">
       <c r="A260" s="2">
         <v>42979</v>
       </c>
@@ -8637,7 +9411,7 @@
         <v>55.70999908447266</v>
       </c>
       <c r="F260">
-        <v>51.67395782470703</v>
+        <v>51.67395401000977</v>
       </c>
       <c r="G260">
         <v>6216000</v>
@@ -8646,13 +9420,16 @@
         <v>0.0182781944202921</v>
       </c>
       <c r="I260">
-        <v>0.1106459181408248</v>
+        <v>0.0475678494665699</v>
       </c>
       <c r="J260">
         <v>0.1106459181408248</v>
       </c>
-    </row>
-    <row r="261" spans="1:10">
+      <c r="K260">
+        <v>0.1106459181408248</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11">
       <c r="A261" s="2">
         <v>43009</v>
       </c>
@@ -8669,7 +9446,7 @@
         <v>58.65000152587891</v>
       </c>
       <c r="F261">
-        <v>54.40097045898438</v>
+        <v>54.40096664428711</v>
       </c>
       <c r="G261">
         <v>7964000</v>
@@ -8678,13 +9455,16 @@
         <v>0.0527733349438464</v>
       </c>
       <c r="I261">
-        <v>0.1609263854799878</v>
+        <v>0.04780299444024305</v>
       </c>
       <c r="J261">
         <v>0.1609263854799878</v>
       </c>
-    </row>
-    <row r="262" spans="1:10">
+      <c r="K261">
+        <v>0.1609263854799878</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11">
       <c r="A262" s="2">
         <v>43040</v>
       </c>
@@ -8710,13 +9490,16 @@
         <v>0.02148334678179409</v>
       </c>
       <c r="I262">
-        <v>0.2008418637071121</v>
+        <v>0.04779671688243527</v>
       </c>
       <c r="J262">
         <v>0.2008418637071121</v>
       </c>
-    </row>
-    <row r="263" spans="1:10">
+      <c r="K262">
+        <v>0.2008418637071121</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11">
       <c r="A263" s="2">
         <v>43070</v>
       </c>
@@ -8733,7 +9516,7 @@
         <v>59.93000030517578</v>
       </c>
       <c r="F263">
-        <v>55.95653533935547</v>
+        <v>55.9565315246582</v>
       </c>
       <c r="G263">
         <v>3730800</v>
@@ -8742,13 +9525,16 @@
         <v>0.0003338417261660176</v>
       </c>
       <c r="I263">
-        <v>0.2265656888362566</v>
+        <v>0.04750698715898394</v>
       </c>
       <c r="J263">
         <v>0.2265656888362566</v>
       </c>
-    </row>
-    <row r="264" spans="1:10">
+      <c r="K263">
+        <v>0.2265656888362566</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11">
       <c r="A264" s="2">
         <v>43101</v>
       </c>
@@ -8765,7 +9551,7 @@
         <v>62.93999862670898</v>
       </c>
       <c r="F264">
-        <v>58.7669677734375</v>
+        <v>58.76696395874023</v>
       </c>
       <c r="G264">
         <v>10079700</v>
@@ -8774,13 +9560,16 @@
         <v>0.05022523454372907</v>
       </c>
       <c r="I264">
-        <v>0.2446114100560459</v>
+        <v>0.04752577010356042</v>
       </c>
       <c r="J264">
         <v>0.2446114100560459</v>
       </c>
-    </row>
-    <row r="265" spans="1:10">
+      <c r="K264">
+        <v>0.2446114100560459</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11">
       <c r="A265" s="2">
         <v>43132</v>
       </c>
@@ -8806,13 +9595,16 @@
         <v>-0.02971081939444498</v>
       </c>
       <c r="I265">
-        <v>0.192074960775187</v>
+        <v>0.04759149481380875</v>
       </c>
       <c r="J265">
         <v>0.192074960775187</v>
       </c>
-    </row>
-    <row r="266" spans="1:10">
+      <c r="K265">
+        <v>0.192074960775187</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
       <c r="A266" s="2">
         <v>43160</v>
       </c>
@@ -8838,13 +9630,16 @@
         <v>-0.006386104332689047</v>
       </c>
       <c r="I266">
-        <v>0.1782524331102093</v>
+        <v>0.04757752058453826</v>
       </c>
       <c r="J266">
         <v>0.1782524331102093</v>
       </c>
-    </row>
-    <row r="267" spans="1:10">
+      <c r="K266">
+        <v>0.1782524331102093</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11">
       <c r="A267" s="2">
         <v>43191</v>
       </c>
@@ -8861,7 +9656,7 @@
         <v>60.63999938964844</v>
       </c>
       <c r="F267">
-        <v>56.61945724487305</v>
+        <v>56.61946105957031</v>
       </c>
       <c r="G267">
         <v>5715100</v>
@@ -8870,13 +9665,16 @@
         <v>-0.0006592108656257034</v>
       </c>
       <c r="I267">
-        <v>0.1693019413027992</v>
+        <v>0.04713077940829852</v>
       </c>
       <c r="J267">
         <v>0.1693019413027992</v>
       </c>
-    </row>
-    <row r="268" spans="1:10">
+      <c r="K267">
+        <v>0.1693019413027992</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11">
       <c r="A268" s="2">
         <v>43221</v>
       </c>
@@ -8893,7 +9691,7 @@
         <v>59.7400016784668</v>
       </c>
       <c r="F268">
-        <v>55.77913665771484</v>
+        <v>55.77912902832031</v>
       </c>
       <c r="G268">
         <v>6761200</v>
@@ -8902,13 +9700,16 @@
         <v>-0.01484165105937119</v>
       </c>
       <c r="I268">
-        <v>0.1210358538586567</v>
+        <v>0.04712903087837468</v>
       </c>
       <c r="J268">
         <v>0.1210358538586567</v>
       </c>
-    </row>
-    <row r="269" spans="1:10">
+      <c r="K268">
+        <v>0.1210358538586567</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
       <c r="A269" s="2">
         <v>43252</v>
       </c>
@@ -8925,7 +9726,7 @@
         <v>57.90999984741211</v>
       </c>
       <c r="F269">
-        <v>54.48904800415039</v>
+        <v>54.48905181884766</v>
       </c>
       <c r="G269">
         <v>5585400</v>
@@ -8934,13 +9735,16 @@
         <v>-0.03063277167121858</v>
       </c>
       <c r="I269">
-        <v>0.07940350792866857</v>
+        <v>0.0466348630725117</v>
       </c>
       <c r="J269">
         <v>0.07940350792866857</v>
       </c>
-    </row>
-    <row r="270" spans="1:10">
+      <c r="K269">
+        <v>0.07940350792866857</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11">
       <c r="A270" s="2">
         <v>43282</v>
       </c>
@@ -8957,7 +9761,7 @@
         <v>58.52999877929688</v>
       </c>
       <c r="F270">
-        <v>55.07242202758789</v>
+        <v>55.07242584228516</v>
       </c>
       <c r="G270">
         <v>8639300</v>
@@ -8966,13 +9770,16 @@
         <v>0.01070624993124514</v>
       </c>
       <c r="I270">
-        <v>0.06884588336959818</v>
+        <v>0.0464947961715777</v>
       </c>
       <c r="J270">
         <v>0.06884588336959818</v>
       </c>
-    </row>
-    <row r="271" spans="1:10">
+      <c r="K270">
+        <v>0.06884588336959818</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11">
       <c r="A271" s="2">
         <v>43313</v>
       </c>
@@ -8998,13 +9805,16 @@
         <v>-0.005296387580028483</v>
       </c>
       <c r="I271">
-        <v>0.06415650146166141</v>
+        <v>0.04625503161952244</v>
       </c>
       <c r="J271">
         <v>0.06415650146166141</v>
       </c>
-    </row>
-    <row r="272" spans="1:10">
+      <c r="K271">
+        <v>0.06415650146166141</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11">
       <c r="A272" s="2">
         <v>43344</v>
       </c>
@@ -9030,13 +9840,16 @@
         <v>0.03452418892802167</v>
       </c>
       <c r="I272">
-        <v>0.08113445578970535</v>
+        <v>0.04590520787011117</v>
       </c>
       <c r="J272">
         <v>0.08113445578970535</v>
       </c>
-    </row>
-    <row r="273" spans="1:10">
+      <c r="K272">
+        <v>0.08113445578970535</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
       <c r="A273" s="2">
         <v>43374</v>
       </c>
@@ -9053,7 +9866,7 @@
         <v>54.84000015258789</v>
       </c>
       <c r="F273">
-        <v>51.60040283203125</v>
+        <v>51.60040664672852</v>
       </c>
       <c r="G273">
         <v>9942700</v>
@@ -9062,13 +9875,16 @@
         <v>-0.08949027777874541</v>
       </c>
       <c r="I273">
-        <v>-0.06496165855357872</v>
+        <v>0.04434081898851809</v>
       </c>
       <c r="J273">
         <v>-0.06496165855357872</v>
       </c>
-    </row>
-    <row r="274" spans="1:10">
+      <c r="K273">
+        <v>-0.06496165855357872</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
       <c r="A274" s="2">
         <v>43405</v>
       </c>
@@ -9094,13 +9910,16 @@
         <v>0.009117432505630685</v>
       </c>
       <c r="I274">
-        <v>-0.07628108339949569</v>
+        <v>0.04417140994970589</v>
       </c>
       <c r="J274">
         <v>-0.07628108339949569</v>
       </c>
-    </row>
-    <row r="275" spans="1:10">
+      <c r="K274">
+        <v>-0.07628108339949569</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11">
       <c r="A275" s="2">
         <v>43435</v>
       </c>
@@ -9117,7 +9936,7 @@
         <v>50.68999862670898</v>
       </c>
       <c r="F275">
-        <v>48.06607055664062</v>
+        <v>48.06607437133789</v>
       </c>
       <c r="G275">
         <v>10691200</v>
@@ -9126,13 +9945,16 @@
         <v>-0.08402604830244942</v>
       </c>
       <c r="I275">
-        <v>-0.1541799037446158</v>
+        <v>0.04391704530819249</v>
       </c>
       <c r="J275">
         <v>-0.1541799037446158</v>
       </c>
-    </row>
-    <row r="276" spans="1:10">
+      <c r="K275">
+        <v>-0.1541799037446158</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11">
       <c r="A276" s="2">
         <v>43466</v>
       </c>
@@ -9149,7 +9971,7 @@
         <v>54.27999877929688</v>
       </c>
       <c r="F276">
-        <v>51.47024154663086</v>
+        <v>51.47024536132812</v>
       </c>
       <c r="G276">
         <v>9164300</v>
@@ -9158,13 +9980,16 @@
         <v>0.07082265239392393</v>
       </c>
       <c r="I276">
-        <v>-0.1375913574255654</v>
+        <v>0.04285571032268227</v>
       </c>
       <c r="J276">
         <v>-0.1375913574255654</v>
       </c>
-    </row>
-    <row r="277" spans="1:10">
+      <c r="K276">
+        <v>-0.1375913574255654</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11">
       <c r="A277" s="2">
         <v>43497</v>
       </c>
@@ -9181,7 +10006,7 @@
         <v>54.36000061035156</v>
       </c>
       <c r="F277">
-        <v>51.54610061645508</v>
+        <v>51.54609680175781</v>
       </c>
       <c r="G277">
         <v>11033600</v>
@@ -9190,13 +10015,16 @@
         <v>0.001473873118162272</v>
       </c>
       <c r="I277">
-        <v>-0.1098739007369168</v>
+        <v>0.04113593738631613</v>
       </c>
       <c r="J277">
         <v>-0.1098739007369168</v>
       </c>
-    </row>
-    <row r="278" spans="1:10">
+      <c r="K277">
+        <v>-0.1098739007369168</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
       <c r="A278" s="2">
         <v>43525</v>
       </c>
@@ -9213,7 +10041,7 @@
         <v>54.72000122070312</v>
       </c>
       <c r="F278">
-        <v>51.88746643066406</v>
+        <v>51.8874626159668</v>
       </c>
       <c r="G278">
         <v>8365900</v>
@@ -9222,13 +10050,16 @@
         <v>0.006622527709887693</v>
       </c>
       <c r="I278">
-        <v>-0.0982201558091339</v>
+        <v>0.04068553132238509</v>
       </c>
       <c r="J278">
         <v>-0.0982201558091339</v>
       </c>
-    </row>
-    <row r="279" spans="1:10">
+      <c r="K278">
+        <v>-0.0982201558091339</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11">
       <c r="A279" s="2">
         <v>43556</v>
       </c>
@@ -9245,7 +10076,7 @@
         <v>55.41999816894531</v>
       </c>
       <c r="F279">
-        <v>52.55123138427734</v>
+        <v>52.55122756958008</v>
       </c>
       <c r="G279">
         <v>10960200</v>
@@ -9254,13 +10085,16 @@
         <v>0.01279234160501708</v>
       </c>
       <c r="I279">
-        <v>-0.08608181519200686</v>
+        <v>0.04015163407180574</v>
       </c>
       <c r="J279">
         <v>-0.08608181519200686</v>
       </c>
-    </row>
-    <row r="280" spans="1:10">
+      <c r="K279">
+        <v>-0.08608181519200686</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11">
       <c r="A280" s="2">
         <v>43586</v>
       </c>
@@ -9277,7 +10111,7 @@
         <v>52.72000122070312</v>
       </c>
       <c r="F280">
-        <v>49.99099731445312</v>
+        <v>49.99099349975586</v>
       </c>
       <c r="G280">
         <v>11481500</v>
@@ -9286,13 +10120,16 @@
         <v>-0.04871882059633725</v>
       </c>
       <c r="I280">
-        <v>-0.1175092109228049</v>
+        <v>0.03945856681374728</v>
       </c>
       <c r="J280">
         <v>-0.1175092109228049</v>
       </c>
-    </row>
-    <row r="281" spans="1:10">
+      <c r="K280">
+        <v>-0.1175092109228049</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
       <c r="A281" s="2">
         <v>43617</v>
       </c>
@@ -9309,7 +10146,7 @@
         <v>54.58000183105469</v>
       </c>
       <c r="F281">
-        <v>52.22571563720703</v>
+        <v>52.22571182250977</v>
       </c>
       <c r="G281">
         <v>7620200</v>
@@ -9318,13 +10155,16 @@
         <v>0.0352807391366512</v>
       </c>
       <c r="I281">
-        <v>-0.05750298782821073</v>
+        <v>0.03956356174238304</v>
       </c>
       <c r="J281">
         <v>-0.05750298782821073</v>
       </c>
-    </row>
-    <row r="282" spans="1:10">
+      <c r="K281">
+        <v>-0.05750298782821073</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11">
       <c r="A282" s="2">
         <v>43647</v>
       </c>
@@ -9341,7 +10181,7 @@
         <v>54.34999847412109</v>
       </c>
       <c r="F282">
-        <v>52.00563430786133</v>
+        <v>52.00563049316406</v>
       </c>
       <c r="G282">
         <v>8867500</v>
@@ -9350,13 +10190,16 @@
         <v>-0.004214059164848294</v>
       </c>
       <c r="I282">
-        <v>-0.07141637437816462</v>
+        <v>0.03937327468897607</v>
       </c>
       <c r="J282">
         <v>-0.07141637437816462</v>
       </c>
-    </row>
-    <row r="283" spans="1:10">
+      <c r="K282">
+        <v>-0.07141637437816462</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
       <c r="A283" s="2">
         <v>43678</v>
       </c>
@@ -9382,13 +10225,16 @@
         <v>-0.007911689369789587</v>
       </c>
       <c r="I283">
-        <v>-0.07385783170043503</v>
+        <v>0.03927584265114484</v>
       </c>
       <c r="J283">
         <v>-0.07385783170043503</v>
       </c>
-    </row>
-    <row r="284" spans="1:10">
+      <c r="K283">
+        <v>-0.07385783170043503</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
       <c r="A284" s="2">
         <v>43709</v>
       </c>
@@ -9414,13 +10260,16 @@
         <v>0.05229977012769327</v>
       </c>
       <c r="I284">
-        <v>-0.05794451087986752</v>
+        <v>0.03942964630720158</v>
       </c>
       <c r="J284">
         <v>-0.05794451087986752</v>
       </c>
-    </row>
-    <row r="285" spans="1:10">
+      <c r="K284">
+        <v>-0.05794451087986752</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
       <c r="A285" s="2">
         <v>43739</v>
       </c>
@@ -9446,13 +10295,16 @@
         <v>0.03419102166585275</v>
       </c>
       <c r="I285">
-        <v>0.07002188442566371</v>
+        <v>0.03932663708979253</v>
       </c>
       <c r="J285">
         <v>0.07002188442566371</v>
       </c>
-    </row>
-    <row r="286" spans="1:10">
+      <c r="K285">
+        <v>0.07002188442566371</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
       <c r="A286" s="2">
         <v>43770</v>
       </c>
@@ -9478,13 +10330,16 @@
         <v>0.01278118602759859</v>
       </c>
       <c r="I286">
-        <v>0.07390676077539959</v>
+        <v>0.03933292387400988</v>
       </c>
       <c r="J286">
         <v>0.07390676077539959</v>
       </c>
-    </row>
-    <row r="287" spans="1:10">
+      <c r="K286">
+        <v>0.07390676077539959</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
       <c r="A287" s="2">
         <v>43800</v>
       </c>
@@ -9510,13 +10365,16 @@
         <v>-0.003197015408603954</v>
       </c>
       <c r="I287">
-        <v>0.1686723867309941</v>
+        <v>0.03931667682208227</v>
       </c>
       <c r="J287">
         <v>0.1686723867309941</v>
       </c>
-    </row>
-    <row r="288" spans="1:10">
+      <c r="K287">
+        <v>0.1686723867309941</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
       <c r="A288" s="2">
         <v>43831</v>
       </c>
@@ -9533,7 +10391,7 @@
         <v>57.75</v>
       </c>
       <c r="F288">
-        <v>55.91824722290039</v>
+        <v>55.91824340820312</v>
       </c>
       <c r="G288">
         <v>14330700</v>
@@ -9542,13 +10400,16 @@
         <v>-0.02515195199611886</v>
       </c>
       <c r="I288">
-        <v>0.06392780579845248</v>
+        <v>0.0394041439260999</v>
       </c>
       <c r="J288">
         <v>0.06392780579845248</v>
       </c>
-    </row>
-    <row r="289" spans="1:10">
+      <c r="K288">
+        <v>0.06392780579845248</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
       <c r="A289" s="2">
         <v>43862</v>
       </c>
@@ -9574,13 +10435,16 @@
         <v>-0.08294373879701034</v>
       </c>
       <c r="I289">
-        <v>-0.0257542588329609</v>
+        <v>0.04019013406687639</v>
       </c>
       <c r="J289">
         <v>-0.0257542588329609</v>
       </c>
-    </row>
-    <row r="290" spans="1:10">
+      <c r="K289">
+        <v>-0.0257542588329609</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11">
       <c r="A290" s="2">
         <v>43891</v>
       </c>
@@ -9606,13 +10470,16 @@
         <v>-0.06740936096184535</v>
       </c>
       <c r="I290">
-        <v>-0.09740500204956315</v>
+        <v>0.04046642241880847</v>
       </c>
       <c r="J290">
         <v>-0.09740500204956315</v>
       </c>
-    </row>
-    <row r="291" spans="1:10">
+      <c r="K290">
+        <v>-0.09740500204956315</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11">
       <c r="A291" s="2">
         <v>43922</v>
       </c>
@@ -9638,13 +10505,16 @@
         <v>0.04798540111708305</v>
       </c>
       <c r="I291">
-        <v>-0.06604113981120618</v>
+        <v>0.04067584132048453</v>
       </c>
       <c r="J291">
         <v>-0.06604113981120618</v>
       </c>
-    </row>
-    <row r="292" spans="1:10">
+      <c r="K291">
+        <v>-0.06604113981120618</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11">
       <c r="A292" s="2">
         <v>43952</v>
       </c>
@@ -9661,7 +10531,7 @@
         <v>55.40999984741211</v>
       </c>
       <c r="F292">
-        <v>53.6524658203125</v>
+        <v>53.65246963500977</v>
       </c>
       <c r="G292">
         <v>5839900</v>
@@ -9670,13 +10540,16 @@
         <v>0.07051780610975089</v>
       </c>
       <c r="I292">
-        <v>0.05102425198071936</v>
+        <v>0.04034110174728648</v>
       </c>
       <c r="J292">
         <v>0.05102425198071936</v>
       </c>
-    </row>
-    <row r="293" spans="1:10">
+      <c r="K292">
+        <v>0.05102425198071936</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11">
       <c r="A293" s="2">
         <v>43983</v>
       </c>
@@ -9702,13 +10575,16 @@
         <v>-0.008843199419169112</v>
       </c>
       <c r="I293">
-        <v>0.006229320749072897</v>
+        <v>0.04021833673249257</v>
       </c>
       <c r="J293">
         <v>0.006229320749072897</v>
       </c>
-    </row>
-    <row r="294" spans="1:10">
+      <c r="K293">
+        <v>0.006229320749072897</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
       <c r="A294" s="2">
         <v>44013</v>
       </c>
@@ -9734,13 +10610,16 @@
         <v>-0.01074283243920859</v>
       </c>
       <c r="I294">
-        <v>-0.0003679235258107205</v>
+        <v>0.04004879374542328</v>
       </c>
       <c r="J294">
         <v>-0.0003679235258107205</v>
       </c>
-    </row>
-    <row r="295" spans="1:10">
+      <c r="K294">
+        <v>-0.0003679235258107205</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
       <c r="A295" s="2">
         <v>44044</v>
       </c>
@@ -9766,13 +10645,16 @@
         <v>0.06791824962906223</v>
       </c>
       <c r="I295">
-        <v>0.07603862069824241</v>
+        <v>0.04038062781878875</v>
       </c>
       <c r="J295">
         <v>0.07603862069824241</v>
       </c>
-    </row>
-    <row r="296" spans="1:10">
+      <c r="K295">
+        <v>0.07603862069824241</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11">
       <c r="A296" s="2">
         <v>44075</v>
       </c>
@@ -9789,7 +10671,7 @@
         <v>59.06999969482422</v>
       </c>
       <c r="F296">
-        <v>57.65027236938477</v>
+        <v>57.6502685546875</v>
       </c>
       <c r="G296">
         <v>6770800</v>
@@ -9798,13 +10680,16 @@
         <v>0.01809719456698233</v>
       </c>
       <c r="I296">
-        <v>0.04106446858357549</v>
+        <v>0.04013886771723332</v>
       </c>
       <c r="J296">
         <v>0.04106446858357549</v>
       </c>
-    </row>
-    <row r="297" spans="1:10">
+      <c r="K296">
+        <v>0.04106446858357549</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11">
       <c r="A297" s="2">
         <v>44105</v>
       </c>
@@ -9821,7 +10706,7 @@
         <v>58.2400016784668</v>
       </c>
       <c r="F297">
-        <v>56.84021759033203</v>
+        <v>56.8402214050293</v>
       </c>
       <c r="G297">
         <v>6006600</v>
@@ -9830,13 +10715,16 @@
         <v>-0.01405109227434354</v>
       </c>
       <c r="I297">
-        <v>-0.007498272399807271</v>
+        <v>0.04016443610137813</v>
       </c>
       <c r="J297">
         <v>-0.007498272399807271</v>
       </c>
-    </row>
-    <row r="298" spans="1:10">
+      <c r="K297">
+        <v>-0.007498272399807271</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11">
       <c r="A298" s="2">
         <v>44136</v>
       </c>
@@ -9853,7 +10741,7 @@
         <v>64.38999938964844</v>
       </c>
       <c r="F298">
-        <v>62.84240341186523</v>
+        <v>62.8424072265625</v>
       </c>
       <c r="G298">
         <v>13251100</v>
@@ -9862,13 +10750,16 @@
         <v>0.1055974851294603</v>
       </c>
       <c r="I298">
-        <v>0.08345951638907678</v>
+        <v>0.0411810508535189</v>
       </c>
       <c r="J298">
         <v>0.08345951638907678</v>
       </c>
-    </row>
-    <row r="299" spans="1:10">
+      <c r="K298">
+        <v>0.08345951638907678</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11">
       <c r="A299" s="2">
         <v>44166</v>
       </c>
@@ -9885,7 +10776,7 @@
         <v>67.55999755859375</v>
       </c>
       <c r="F299">
-        <v>66.19517517089844</v>
+        <v>66.19516754150391</v>
       </c>
       <c r="G299">
         <v>8523700</v>
@@ -9894,13 +10785,16 @@
         <v>0.04923121911777706</v>
       </c>
       <c r="I299">
-        <v>0.1404455713098198</v>
+        <v>0.04104401792463835</v>
       </c>
       <c r="J299">
         <v>0.1404455713098198</v>
       </c>
-    </row>
-    <row r="300" spans="1:10">
+      <c r="K299">
+        <v>0.1404455713098198</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
       <c r="A300" s="2">
         <v>44197</v>
       </c>
@@ -9926,13 +10820,16 @@
         <v>-0.008436940725610076</v>
       </c>
       <c r="I300">
-        <v>0.1599999630089961</v>
+        <v>0.04106030581504957</v>
       </c>
       <c r="J300">
         <v>0.1599999630089961</v>
       </c>
-    </row>
-    <row r="301" spans="1:10">
+      <c r="K300">
+        <v>0.1599999630089961</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
       <c r="A301" s="2">
         <v>44228</v>
       </c>
@@ -9958,13 +10855,16 @@
         <v>0.01836100009190811</v>
       </c>
       <c r="I301">
-        <v>0.2881420392755361</v>
+        <v>0.04081750589390753</v>
       </c>
       <c r="J301">
         <v>0.2881420392755361</v>
       </c>
-    </row>
-    <row r="302" spans="1:10">
+      <c r="K301">
+        <v>0.2881420392755361</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
       <c r="A302" s="2">
         <v>44256</v>
       </c>
@@ -9990,13 +10890,16 @@
         <v>0.004397470199285713</v>
       </c>
       <c r="I302">
-        <v>0.3873253186844012</v>
+        <v>0.03956405791220254</v>
       </c>
       <c r="J302">
         <v>0.3873253186844012</v>
       </c>
-    </row>
-    <row r="303" spans="1:10">
+      <c r="K302">
+        <v>0.3873253186844012</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11">
       <c r="A303" s="2">
         <v>44287</v>
       </c>
@@ -10022,13 +10925,16 @@
         <v>-0.01605368546427688</v>
       </c>
       <c r="I303">
-        <v>0.3025502387023307</v>
+        <v>0.03958500940654099</v>
       </c>
       <c r="J303">
         <v>0.3025502387023307</v>
       </c>
-    </row>
-    <row r="304" spans="1:10">
+      <c r="K303">
+        <v>0.3025502387023307</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
       <c r="A304" s="2">
         <v>44317</v>
       </c>
@@ -10054,13 +10960,16 @@
         <v>0.01720563176526002</v>
       </c>
       <c r="I304">
-        <v>0.2376827652032141</v>
+        <v>0.03950823376374724</v>
       </c>
       <c r="J304">
         <v>0.2376827652032141</v>
       </c>
-    </row>
-    <row r="305" spans="1:10">
+      <c r="K304">
+        <v>0.2376827652032141</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11">
       <c r="A305" s="2">
         <v>44348</v>
       </c>
@@ -10086,13 +10995,16 @@
         <v>-0.01516478401516175</v>
       </c>
       <c r="I305">
-        <v>0.2297888413572098</v>
+        <v>0.03953908788236897</v>
       </c>
       <c r="J305">
         <v>0.2297888413572098</v>
       </c>
-    </row>
-    <row r="306" spans="1:10">
+      <c r="K305">
+        <v>0.2297888413572098</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11">
       <c r="A306" s="2">
         <v>44378</v>
       </c>
@@ -10118,13 +11030,16 @@
         <v>-0.006366602003953004</v>
       </c>
       <c r="I306">
-        <v>0.2352291247667859</v>
+        <v>0.03949969086461617</v>
       </c>
       <c r="J306">
         <v>0.2352291247667859</v>
       </c>
-    </row>
-    <row r="307" spans="1:10">
+      <c r="K306">
+        <v>0.2352291247667859</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11">
       <c r="A307" s="2">
         <v>44409</v>
       </c>
@@ -10150,13 +11065,16 @@
         <v>0.01922218601989356</v>
       </c>
       <c r="I307">
-        <v>0.1789038432647285</v>
+        <v>0.03874130232828044</v>
       </c>
       <c r="J307">
         <v>0.1789038432647285</v>
       </c>
-    </row>
-    <row r="308" spans="1:10">
+      <c r="K307">
+        <v>0.1789038432647285</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11">
       <c r="A308" s="2">
         <v>44440</v>
       </c>
@@ -10182,13 +11100,16 @@
         <v>0.02704676071419598</v>
       </c>
       <c r="I308">
-        <v>0.1892669775340354</v>
+        <v>0.03856885833319203</v>
       </c>
       <c r="J308">
         <v>0.1892669775340354</v>
       </c>
-    </row>
-    <row r="309" spans="1:10">
+      <c r="K308">
+        <v>0.1892669775340354</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11">
       <c r="A309" s="2">
         <v>44470</v>
       </c>
@@ -10214,13 +11135,16 @@
         <v>-0.02633449785225761</v>
       </c>
       <c r="I309">
-        <v>0.1744505418029305</v>
+        <v>0.03866527384479643</v>
       </c>
       <c r="J309">
         <v>0.1744505418029305</v>
       </c>
-    </row>
-    <row r="310" spans="1:10">
+      <c r="K309">
+        <v>0.1744505418029305</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11">
       <c r="A310" s="2">
         <v>44501</v>
       </c>
@@ -10246,42 +11170,83 @@
         <v>-0.03026315275798708</v>
       </c>
       <c r="I310">
-        <v>0.03012894020493073</v>
+        <v>0.03880416819053849</v>
       </c>
       <c r="J310">
         <v>0.03012894020493073</v>
       </c>
-    </row>
-    <row r="311" spans="1:10">
+      <c r="K310">
+        <v>0.03012894020493073</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11">
       <c r="A311" s="2">
         <v>44531</v>
       </c>
       <c r="B311">
-        <v>67.09999847412109</v>
+        <v>66.81999969482422</v>
       </c>
       <c r="C311">
-        <v>67.17749786376953</v>
+        <v>67.23999786376953</v>
       </c>
       <c r="D311">
-        <v>67.00499725341797</v>
+        <v>66.81999969482422</v>
       </c>
       <c r="E311">
-        <v>67.01000213623047</v>
+        <v>66.95999908447266</v>
       </c>
       <c r="F311">
-        <v>67.01000213623047</v>
+        <v>66.95999908447266</v>
       </c>
       <c r="G311">
-        <v>2100688</v>
+        <v>5025600</v>
       </c>
       <c r="H311">
-        <v>0.01025177576366976</v>
+        <v>0.009497923051812851</v>
       </c>
       <c r="I311">
-        <v>-0.008140844319691976</v>
+        <v>0.03863580928543821</v>
       </c>
       <c r="J311">
-        <v>-0.008140844319691976</v>
+        <v>-0.008880972406796306</v>
+      </c>
+      <c r="K311">
+        <v>-0.008880972406796306</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11">
+      <c r="A312" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B312">
+        <v>67.16999816894531</v>
+      </c>
+      <c r="C312">
+        <v>67.18000030517578</v>
+      </c>
+      <c r="D312">
+        <v>66.84999847412109</v>
+      </c>
+      <c r="E312">
+        <v>66.95999908447266</v>
+      </c>
+      <c r="F312">
+        <v>66.95999908447266</v>
+      </c>
+      <c r="G312">
+        <v>4491023</v>
+      </c>
+      <c r="H312">
+        <v>0</v>
+      </c>
+      <c r="I312">
+        <v>0.038440691944094</v>
+      </c>
+      <c r="J312">
+        <v>-0.0004478098261456731</v>
+      </c>
+      <c r="K312">
+        <v>-0.0004478098261456731</v>
       </c>
     </row>
   </sheetData>

--- a/etf_dfs/EWJ.xlsx
+++ b/etf_dfs/EWJ.xlsx
@@ -508,7 +508,7 @@
         <v>62.75</v>
       </c>
       <c r="F2" t="n">
-        <v>44.51872634887695</v>
+        <v>44.51874542236328</v>
       </c>
       <c r="G2" t="n">
         <v>254525</v>
@@ -564,7 +564,7 @@
         <v>62.75</v>
       </c>
       <c r="F4" t="n">
-        <v>44.51872634887695</v>
+        <v>44.51874542236328</v>
       </c>
       <c r="G4" t="n">
         <v>1875</v>
@@ -595,7 +595,7 @@
         <v>63.5</v>
       </c>
       <c r="F5" t="n">
-        <v>45.05083465576172</v>
+        <v>45.05083084106445</v>
       </c>
       <c r="G5" t="n">
         <v>725</v>
@@ -657,7 +657,7 @@
         <v>57.25</v>
       </c>
       <c r="F7" t="n">
-        <v>40.6166877746582</v>
+        <v>40.61669921875</v>
       </c>
       <c r="G7" t="n">
         <v>35775</v>
@@ -750,7 +750,7 @@
         <v>56.5</v>
       </c>
       <c r="F10" t="n">
-        <v>40.08459091186523</v>
+        <v>40.08459854125977</v>
       </c>
       <c r="G10" t="n">
         <v>4850</v>
@@ -812,7 +812,7 @@
         <v>47</v>
       </c>
       <c r="F12" t="n">
-        <v>33.3447151184082</v>
+        <v>33.3447265625</v>
       </c>
       <c r="G12" t="n">
         <v>14500</v>
@@ -874,7 +874,7 @@
         <v>46</v>
       </c>
       <c r="F14" t="n">
-        <v>32.63525390625</v>
+        <v>32.63525009155273</v>
       </c>
       <c r="G14" t="n">
         <v>13925</v>
@@ -909,7 +909,7 @@
         <v>48.75</v>
       </c>
       <c r="F15" t="n">
-        <v>34.58628082275391</v>
+        <v>34.58626174926758</v>
       </c>
       <c r="G15" t="n">
         <v>33250</v>
@@ -944,7 +944,7 @@
         <v>53.5</v>
       </c>
       <c r="F16" t="n">
-        <v>37.95621871948242</v>
+        <v>37.95619964599609</v>
       </c>
       <c r="G16" t="n">
         <v>21425</v>
@@ -979,7 +979,7 @@
         <v>56.5</v>
       </c>
       <c r="F17" t="n">
-        <v>40.08459091186523</v>
+        <v>40.08459854125977</v>
       </c>
       <c r="G17" t="n">
         <v>119200</v>
@@ -1014,7 +1014,7 @@
         <v>55.75</v>
       </c>
       <c r="F18" t="n">
-        <v>39.5525016784668</v>
+        <v>39.55250549316406</v>
       </c>
       <c r="G18" t="n">
         <v>10675</v>
@@ -1084,7 +1084,7 @@
         <v>49.75</v>
       </c>
       <c r="F20" t="n">
-        <v>35.3093147277832</v>
+        <v>35.30932235717773</v>
       </c>
       <c r="G20" t="n">
         <v>6675</v>
@@ -1119,7 +1119,7 @@
         <v>45</v>
       </c>
       <c r="F21" t="n">
-        <v>31.93806648254395</v>
+        <v>31.93807601928711</v>
       </c>
       <c r="G21" t="n">
         <v>51050</v>
@@ -1189,7 +1189,7 @@
         <v>39.5</v>
       </c>
       <c r="F23" t="n">
-        <v>28.03740501403809</v>
+        <v>28.03740692138672</v>
       </c>
       <c r="G23" t="n">
         <v>24225</v>
@@ -1329,7 +1329,7 @@
         <v>41.25</v>
       </c>
       <c r="F27" t="n">
-        <v>29.27957344055176</v>
+        <v>29.27956771850586</v>
       </c>
       <c r="G27" t="n">
         <v>42050</v>
@@ -1364,7 +1364,7 @@
         <v>38.75</v>
       </c>
       <c r="F28" t="n">
-        <v>27.50505065917969</v>
+        <v>27.50504875183105</v>
       </c>
       <c r="G28" t="n">
         <v>17850</v>
@@ -1469,7 +1469,7 @@
         <v>31.5</v>
       </c>
       <c r="F31" t="n">
-        <v>22.38749504089355</v>
+        <v>22.38749313354492</v>
       </c>
       <c r="G31" t="n">
         <v>114875</v>
@@ -1504,7 +1504,7 @@
         <v>32</v>
       </c>
       <c r="F32" t="n">
-        <v>22.74285507202148</v>
+        <v>22.74284934997559</v>
       </c>
       <c r="G32" t="n">
         <v>206300</v>
@@ -1539,7 +1539,7 @@
         <v>38.75</v>
       </c>
       <c r="F33" t="n">
-        <v>27.54017639160156</v>
+        <v>27.54016876220703</v>
       </c>
       <c r="G33" t="n">
         <v>66650</v>
@@ -1574,7 +1574,7 @@
         <v>40</v>
       </c>
       <c r="F34" t="n">
-        <v>28.42856216430664</v>
+        <v>28.42856025695801</v>
       </c>
       <c r="G34" t="n">
         <v>85850</v>
@@ -1609,7 +1609,7 @@
         <v>41</v>
       </c>
       <c r="F35" t="n">
-        <v>29.16756439208984</v>
+        <v>29.16756057739258</v>
       </c>
       <c r="G35" t="n">
         <v>20600</v>
@@ -1644,7 +1644,7 @@
         <v>42</v>
       </c>
       <c r="F36" t="n">
-        <v>29.87897300720215</v>
+        <v>29.87896919250488</v>
       </c>
       <c r="G36" t="n">
         <v>104025</v>
@@ -1679,7 +1679,7 @@
         <v>40.5</v>
       </c>
       <c r="F37" t="n">
-        <v>28.81185150146484</v>
+        <v>28.81186485290527</v>
       </c>
       <c r="G37" t="n">
         <v>22575</v>
@@ -1714,7 +1714,7 @@
         <v>46</v>
       </c>
       <c r="F38" t="n">
-        <v>32.72459030151367</v>
+        <v>32.72458267211914</v>
       </c>
       <c r="G38" t="n">
         <v>85250</v>
@@ -1749,7 +1749,7 @@
         <v>48</v>
       </c>
       <c r="F39" t="n">
-        <v>34.14739227294922</v>
+        <v>34.14738464355469</v>
       </c>
       <c r="G39" t="n">
         <v>101050</v>
@@ -1784,7 +1784,7 @@
         <v>45.25</v>
       </c>
       <c r="F40" t="n">
-        <v>32.1910285949707</v>
+        <v>32.19103622436523</v>
       </c>
       <c r="G40" t="n">
         <v>25850</v>
@@ -1819,7 +1819,7 @@
         <v>50</v>
       </c>
       <c r="F41" t="n">
-        <v>35.57019805908203</v>
+        <v>35.5702018737793</v>
       </c>
       <c r="G41" t="n">
         <v>87125</v>
@@ -1854,7 +1854,7 @@
         <v>53.75</v>
       </c>
       <c r="F42" t="n">
-        <v>38.23796844482422</v>
+        <v>38.23796081542969</v>
       </c>
       <c r="G42" t="n">
         <v>187925</v>
@@ -1889,7 +1889,7 @@
         <v>53.5</v>
       </c>
       <c r="F43" t="n">
-        <v>38.196533203125</v>
+        <v>38.19652938842773</v>
       </c>
       <c r="G43" t="n">
         <v>148200</v>
@@ -1924,7 +1924,7 @@
         <v>55.75</v>
       </c>
       <c r="F44" t="n">
-        <v>39.80292129516602</v>
+        <v>39.80292892456055</v>
       </c>
       <c r="G44" t="n">
         <v>184825</v>
@@ -1994,7 +1994,7 @@
         <v>61</v>
       </c>
       <c r="F46" t="n">
-        <v>43.55118560791016</v>
+        <v>43.55118942260742</v>
       </c>
       <c r="G46" t="n">
         <v>100100</v>
@@ -2029,7 +2029,7 @@
         <v>65.25</v>
       </c>
       <c r="F47" t="n">
-        <v>46.92118835449219</v>
+        <v>46.92118453979492</v>
       </c>
       <c r="G47" t="n">
         <v>67600</v>
@@ -2064,7 +2064,7 @@
         <v>61.5</v>
       </c>
       <c r="F48" t="n">
-        <v>44.22456359863281</v>
+        <v>44.22455596923828</v>
       </c>
       <c r="G48" t="n">
         <v>111500</v>
@@ -2099,7 +2099,7 @@
         <v>60.75</v>
       </c>
       <c r="F49" t="n">
-        <v>43.68524932861328</v>
+        <v>43.68524169921875</v>
       </c>
       <c r="G49" t="n">
         <v>230650</v>
@@ -2134,7 +2134,7 @@
         <v>66</v>
       </c>
       <c r="F50" t="n">
-        <v>47.46050262451172</v>
+        <v>47.46051025390625</v>
       </c>
       <c r="G50" t="n">
         <v>88875</v>
@@ -2169,7 +2169,7 @@
         <v>61</v>
       </c>
       <c r="F51" t="n">
-        <v>43.86501312255859</v>
+        <v>43.86500930786133</v>
       </c>
       <c r="G51" t="n">
         <v>64750</v>
@@ -2204,7 +2204,7 @@
         <v>57.5</v>
       </c>
       <c r="F52" t="n">
-        <v>41.34817123413086</v>
+        <v>41.34816741943359</v>
       </c>
       <c r="G52" t="n">
         <v>154750</v>
@@ -2239,7 +2239,7 @@
         <v>60.75</v>
       </c>
       <c r="F53" t="n">
-        <v>43.68524932861328</v>
+        <v>43.68524169921875</v>
       </c>
       <c r="G53" t="n">
         <v>68650</v>
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="F54" t="n">
-        <v>38.83131790161133</v>
+        <v>38.83132553100586</v>
       </c>
       <c r="G54" t="n">
         <v>87050</v>
@@ -2309,7 +2309,7 @@
         <v>55.75</v>
       </c>
       <c r="F55" t="n">
-        <v>41.41806793212891</v>
+        <v>41.41807174682617</v>
       </c>
       <c r="G55" t="n">
         <v>55050</v>
@@ -2344,7 +2344,7 @@
         <v>53</v>
       </c>
       <c r="F56" t="n">
-        <v>39.37502288818359</v>
+        <v>39.37503433227539</v>
       </c>
       <c r="G56" t="n">
         <v>159325</v>
@@ -2379,7 +2379,7 @@
         <v>50.75</v>
       </c>
       <c r="F57" t="n">
-        <v>37.70344543457031</v>
+        <v>37.70344924926758</v>
       </c>
       <c r="G57" t="n">
         <v>94300</v>
@@ -2414,7 +2414,7 @@
         <v>47</v>
       </c>
       <c r="F58" t="n">
-        <v>34.91748428344727</v>
+        <v>34.91748046875</v>
       </c>
       <c r="G58" t="n">
         <v>71575</v>
@@ -2449,7 +2449,7 @@
         <v>44.25</v>
       </c>
       <c r="F59" t="n">
-        <v>34.58655166625977</v>
+        <v>34.58656311035156</v>
       </c>
       <c r="G59" t="n">
         <v>301900</v>
@@ -2484,7 +2484,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="n">
-        <v>34.39115142822266</v>
+        <v>34.39115905761719</v>
       </c>
       <c r="G60" t="n">
         <v>129025</v>
@@ -2519,7 +2519,7 @@
         <v>42.11999893188477</v>
       </c>
       <c r="F61" t="n">
-        <v>32.92170333862305</v>
+        <v>32.92171478271484</v>
       </c>
       <c r="G61" t="n">
         <v>148750</v>
@@ -2554,7 +2554,7 @@
         <v>40.95999908447266</v>
       </c>
       <c r="F62" t="n">
-        <v>32.01503372192383</v>
+        <v>32.01504135131836</v>
       </c>
       <c r="G62" t="n">
         <v>55525</v>
@@ -2624,7 +2624,7 @@
         <v>43.56000137329102</v>
       </c>
       <c r="F64" t="n">
-        <v>34.04724502563477</v>
+        <v>34.04724884033203</v>
       </c>
       <c r="G64" t="n">
         <v>104725</v>
@@ -2659,7 +2659,7 @@
         <v>40.91999816894531</v>
       </c>
       <c r="F65" t="n">
-        <v>31.98377799987793</v>
+        <v>31.9837818145752</v>
       </c>
       <c r="G65" t="n">
         <v>172825</v>
@@ -2694,7 +2694,7 @@
         <v>37.59999847412109</v>
       </c>
       <c r="F66" t="n">
-        <v>29.3888111114502</v>
+        <v>29.38880348205566</v>
       </c>
       <c r="G66" t="n">
         <v>81025</v>
@@ -2729,7 +2729,7 @@
         <v>36.56000137329102</v>
       </c>
       <c r="F67" t="n">
-        <v>28.5759334564209</v>
+        <v>28.57593154907227</v>
       </c>
       <c r="G67" t="n">
         <v>61975</v>
@@ -2764,7 +2764,7 @@
         <v>33.59999847412109</v>
       </c>
       <c r="F68" t="n">
-        <v>26.2623405456543</v>
+        <v>26.26233863830566</v>
       </c>
       <c r="G68" t="n">
         <v>89525</v>
@@ -2799,7 +2799,7 @@
         <v>33.56000137329102</v>
       </c>
       <c r="F69" t="n">
-        <v>26.23106575012207</v>
+        <v>26.23107719421387</v>
       </c>
       <c r="G69" t="n">
         <v>112150</v>
@@ -2834,7 +2834,7 @@
         <v>33.52000045776367</v>
       </c>
       <c r="F70" t="n">
-        <v>26.19981575012207</v>
+        <v>26.1998119354248</v>
       </c>
       <c r="G70" t="n">
         <v>64200</v>
@@ -2869,7 +2869,7 @@
         <v>30.84000015258789</v>
       </c>
       <c r="F71" t="n">
-        <v>24.10507202148438</v>
+        <v>24.10507774353027</v>
       </c>
       <c r="G71" t="n">
         <v>100675</v>
@@ -2904,7 +2904,7 @@
         <v>28.55999946594238</v>
       </c>
       <c r="F72" t="n">
-        <v>22.32298851013184</v>
+        <v>22.3229866027832</v>
       </c>
       <c r="G72" t="n">
         <v>63975</v>
@@ -2974,7 +2974,7 @@
         <v>32.56000137329102</v>
       </c>
       <c r="F74" t="n">
-        <v>25.44945335388184</v>
+        <v>25.44945907592773</v>
       </c>
       <c r="G74" t="n">
         <v>154675</v>
@@ -3009,7 +3009,7 @@
         <v>33.7599983215332</v>
       </c>
       <c r="F75" t="n">
-        <v>26.38739395141602</v>
+        <v>26.38739585876465</v>
       </c>
       <c r="G75" t="n">
         <v>400700</v>
@@ -3044,7 +3044,7 @@
         <v>35.84000015258789</v>
       </c>
       <c r="F76" t="n">
-        <v>28.01315879821777</v>
+        <v>28.0131664276123</v>
       </c>
       <c r="G76" t="n">
         <v>361900</v>
@@ -3079,7 +3079,7 @@
         <v>33.72000122070312</v>
       </c>
       <c r="F77" t="n">
-        <v>26.35613441467285</v>
+        <v>26.35613632202148</v>
       </c>
       <c r="G77" t="n">
         <v>274075</v>
@@ -3149,7 +3149,7 @@
         <v>31.23999977111816</v>
       </c>
       <c r="F79" t="n">
-        <v>24.41772651672363</v>
+        <v>24.41772270202637</v>
       </c>
       <c r="G79" t="n">
         <v>482475</v>
@@ -3184,7 +3184,7 @@
         <v>29.31999969482422</v>
       </c>
       <c r="F80" t="n">
-        <v>22.91702270507812</v>
+        <v>22.91701507568359</v>
       </c>
       <c r="G80" t="n">
         <v>277725</v>
@@ -3254,7 +3254,7 @@
         <v>28.63999938964844</v>
       </c>
       <c r="F82" t="n">
-        <v>22.38551330566406</v>
+        <v>22.3855152130127</v>
       </c>
       <c r="G82" t="n">
         <v>181200</v>
@@ -3289,7 +3289,7 @@
         <v>27.79999923706055</v>
       </c>
       <c r="F83" t="n">
-        <v>21.72895812988281</v>
+        <v>21.72895622253418</v>
       </c>
       <c r="G83" t="n">
         <v>203525</v>
@@ -3324,7 +3324,7 @@
         <v>27.07999992370605</v>
       </c>
       <c r="F84" t="n">
-        <v>21.16619491577148</v>
+        <v>21.16619300842285</v>
       </c>
       <c r="G84" t="n">
         <v>278350</v>
@@ -3359,7 +3359,7 @@
         <v>27.36000061035156</v>
       </c>
       <c r="F85" t="n">
-        <v>21.38504028320312</v>
+        <v>21.38505172729492</v>
       </c>
       <c r="G85" t="n">
         <v>115925</v>
@@ -3394,7 +3394,7 @@
         <v>25.84000015258789</v>
       </c>
       <c r="F86" t="n">
-        <v>20.19698524475098</v>
+        <v>20.19698905944824</v>
       </c>
       <c r="G86" t="n">
         <v>410075</v>
@@ -3464,7 +3464,7 @@
         <v>27.15999984741211</v>
       </c>
       <c r="F88" t="n">
-        <v>21.22872734069824</v>
+        <v>21.22872352600098</v>
       </c>
       <c r="G88" t="n">
         <v>758475</v>
@@ -3499,7 +3499,7 @@
         <v>29.07999992370605</v>
       </c>
       <c r="F89" t="n">
-        <v>22.72942924499512</v>
+        <v>22.72943305969238</v>
       </c>
       <c r="G89" t="n">
         <v>427975</v>
@@ -3534,7 +3534,7 @@
         <v>30.39999961853027</v>
       </c>
       <c r="F90" t="n">
-        <v>23.76116752624512</v>
+        <v>23.76116180419922</v>
       </c>
       <c r="G90" t="n">
         <v>1049425</v>
@@ -3569,7 +3569,7 @@
         <v>33.20000076293945</v>
       </c>
       <c r="F91" t="n">
-        <v>25.9496955871582</v>
+        <v>25.94969749450684</v>
       </c>
       <c r="G91" t="n">
         <v>1161375</v>
@@ -3604,7 +3604,7 @@
         <v>35.04000091552734</v>
       </c>
       <c r="F92" t="n">
-        <v>27.38787078857422</v>
+        <v>27.38786697387695</v>
       </c>
       <c r="G92" t="n">
         <v>2655550</v>
@@ -3674,7 +3674,7 @@
         <v>35.84000015258789</v>
       </c>
       <c r="F94" t="n">
-        <v>28.01315879821777</v>
+        <v>28.0131664276123</v>
       </c>
       <c r="G94" t="n">
         <v>869100</v>
@@ -3709,7 +3709,7 @@
         <v>38.56000137329102</v>
       </c>
       <c r="F95" t="n">
-        <v>30.14573669433594</v>
+        <v>30.14573287963867</v>
       </c>
       <c r="G95" t="n">
         <v>579850</v>
@@ -3744,7 +3744,7 @@
         <v>38.63999938964844</v>
       </c>
       <c r="F96" t="n">
-        <v>30.20827484130859</v>
+        <v>30.20828247070312</v>
       </c>
       <c r="G96" t="n">
         <v>964425</v>
@@ -3779,7 +3779,7 @@
         <v>38.84000015258789</v>
       </c>
       <c r="F97" t="n">
-        <v>30.36464309692383</v>
+        <v>30.3646354675293</v>
       </c>
       <c r="G97" t="n">
         <v>1797225</v>
@@ -3814,7 +3814,7 @@
         <v>43.47999954223633</v>
       </c>
       <c r="F98" t="n">
-        <v>33.99213790893555</v>
+        <v>33.99213409423828</v>
       </c>
       <c r="G98" t="n">
         <v>2224875</v>
@@ -3849,7 +3849,7 @@
         <v>40.56000137329102</v>
       </c>
       <c r="F99" t="n">
-        <v>31.70931434631348</v>
+        <v>31.70930480957031</v>
       </c>
       <c r="G99" t="n">
         <v>2025775</v>
@@ -3884,7 +3884,7 @@
         <v>39.95999908447266</v>
       </c>
       <c r="F100" t="n">
-        <v>31.2402400970459</v>
+        <v>31.2402286529541</v>
       </c>
       <c r="G100" t="n">
         <v>1607300</v>
@@ -3919,7 +3919,7 @@
         <v>42.47999954223633</v>
       </c>
       <c r="F101" t="n">
-        <v>33.21034240722656</v>
+        <v>33.21034622192383</v>
       </c>
       <c r="G101" t="n">
         <v>1479200</v>
@@ -3954,7 +3954,7 @@
         <v>39.36000061035156</v>
       </c>
       <c r="F102" t="n">
-        <v>30.77116203308105</v>
+        <v>30.77116775512695</v>
       </c>
       <c r="G102" t="n">
         <v>747475</v>
@@ -3989,7 +3989,7 @@
         <v>39.91999816894531</v>
       </c>
       <c r="F103" t="n">
-        <v>31.20896339416504</v>
+        <v>31.20897102355957</v>
       </c>
       <c r="G103" t="n">
         <v>817225</v>
@@ -4024,7 +4024,7 @@
         <v>38.79999923706055</v>
       </c>
       <c r="F104" t="n">
-        <v>30.3333568572998</v>
+        <v>30.33335494995117</v>
       </c>
       <c r="G104" t="n">
         <v>1689725</v>
@@ -4129,7 +4129,7 @@
         <v>43.68000030517578</v>
       </c>
       <c r="F107" t="n">
-        <v>34.28850173950195</v>
+        <v>34.28851318359375</v>
       </c>
       <c r="G107" t="n">
         <v>1477725</v>
@@ -4164,7 +4164,7 @@
         <v>42.36000061035156</v>
       </c>
       <c r="F108" t="n">
-        <v>33.25232315063477</v>
+        <v>33.25231170654297</v>
       </c>
       <c r="G108" t="n">
         <v>2840150</v>
@@ -4199,7 +4199,7 @@
         <v>43.2400016784668</v>
       </c>
       <c r="F109" t="n">
-        <v>33.943115234375</v>
+        <v>33.94311141967773</v>
       </c>
       <c r="G109" t="n">
         <v>3162325</v>
@@ -4234,7 +4234,7 @@
         <v>41.95999908447266</v>
       </c>
       <c r="F110" t="n">
-        <v>32.93832015991211</v>
+        <v>32.93832397460938</v>
       </c>
       <c r="G110" t="n">
         <v>2149400</v>
@@ -4269,7 +4269,7 @@
         <v>41</v>
       </c>
       <c r="F111" t="n">
-        <v>32.18473052978516</v>
+        <v>32.18472671508789</v>
       </c>
       <c r="G111" t="n">
         <v>3671325</v>
@@ -4304,7 +4304,7 @@
         <v>40.47999954223633</v>
       </c>
       <c r="F112" t="n">
-        <v>31.77653121948242</v>
+        <v>31.77653503417969</v>
       </c>
       <c r="G112" t="n">
         <v>2597725</v>
@@ -4374,7 +4374,7 @@
         <v>41</v>
       </c>
       <c r="F114" t="n">
-        <v>32.18473052978516</v>
+        <v>32.18472671508789</v>
       </c>
       <c r="G114" t="n">
         <v>2052725</v>
@@ -4409,7 +4409,7 @@
         <v>44.52000045776367</v>
       </c>
       <c r="F115" t="n">
-        <v>34.94790267944336</v>
+        <v>34.94790649414062</v>
       </c>
       <c r="G115" t="n">
         <v>3667525</v>
@@ -4479,7 +4479,7 @@
         <v>48.43999862670898</v>
       </c>
       <c r="F117" t="n">
-        <v>38.02507019042969</v>
+        <v>38.02507400512695</v>
       </c>
       <c r="G117" t="n">
         <v>4588425</v>
@@ -4514,7 +4514,7 @@
         <v>49.84000015258789</v>
       </c>
       <c r="F118" t="n">
-        <v>39.12406539916992</v>
+        <v>39.12407302856445</v>
       </c>
       <c r="G118" t="n">
         <v>4936750</v>
@@ -4549,7 +4549,7 @@
         <v>54.08000183105469</v>
       </c>
       <c r="F119" t="n">
-        <v>42.63319396972656</v>
+        <v>42.6331901550293</v>
       </c>
       <c r="G119" t="n">
         <v>2907925</v>
@@ -4584,7 +4584,7 @@
         <v>56.08000183105469</v>
       </c>
       <c r="F120" t="n">
-        <v>44.20986938476562</v>
+        <v>44.20986175537109</v>
       </c>
       <c r="G120" t="n">
         <v>9190200</v>
@@ -4619,7 +4619,7 @@
         <v>55.20000076293945</v>
       </c>
       <c r="F121" t="n">
-        <v>43.51612091064453</v>
+        <v>43.51612854003906</v>
       </c>
       <c r="G121" t="n">
         <v>5826100</v>
@@ -4654,7 +4654,7 @@
         <v>57.59999847412109</v>
       </c>
       <c r="F122" t="n">
-        <v>45.40812301635742</v>
+        <v>45.40814208984375</v>
       </c>
       <c r="G122" t="n">
         <v>3310425</v>
@@ -4689,7 +4689,7 @@
         <v>59.20000076293945</v>
       </c>
       <c r="F123" t="n">
-        <v>46.66948318481445</v>
+        <v>46.66947555541992</v>
       </c>
       <c r="G123" t="n">
         <v>2539725</v>
@@ -4724,7 +4724,7 @@
         <v>56</v>
       </c>
       <c r="F124" t="n">
-        <v>44.14680099487305</v>
+        <v>44.14680480957031</v>
       </c>
       <c r="G124" t="n">
         <v>6174025</v>
@@ -4759,7 +4759,7 @@
         <v>54.56000137329102</v>
       </c>
       <c r="F125" t="n">
-        <v>43.01160049438477</v>
+        <v>43.01159286499023</v>
       </c>
       <c r="G125" t="n">
         <v>6214875</v>
@@ -4794,7 +4794,7 @@
         <v>54.27999877929688</v>
       </c>
       <c r="F126" t="n">
-        <v>42.79086303710938</v>
+        <v>42.79084777832031</v>
       </c>
       <c r="G126" t="n">
         <v>3789075</v>
@@ -4829,7 +4829,7 @@
         <v>54.84000015258789</v>
       </c>
       <c r="F127" t="n">
-        <v>43.23232269287109</v>
+        <v>43.23232650756836</v>
       </c>
       <c r="G127" t="n">
         <v>2329900</v>
@@ -4899,7 +4899,7 @@
         <v>55.2400016784668</v>
       </c>
       <c r="F129" t="n">
-        <v>43.54766845703125</v>
+        <v>43.54767227172852</v>
       </c>
       <c r="G129" t="n">
         <v>3128275</v>
@@ -4934,7 +4934,7 @@
         <v>55.2400016784668</v>
       </c>
       <c r="F130" t="n">
-        <v>43.54766845703125</v>
+        <v>43.54767227172852</v>
       </c>
       <c r="G130" t="n">
         <v>4462175</v>
@@ -4969,7 +4969,7 @@
         <v>56.84000015258789</v>
       </c>
       <c r="F131" t="n">
-        <v>45.12812805175781</v>
+        <v>45.12812423706055</v>
       </c>
       <c r="G131" t="n">
         <v>1878600</v>
@@ -5039,7 +5039,7 @@
         <v>59.04000091552734</v>
       </c>
       <c r="F133" t="n">
-        <v>46.87480545043945</v>
+        <v>46.87481689453125</v>
       </c>
       <c r="G133" t="n">
         <v>10620000</v>
@@ -5074,7 +5074,7 @@
         <v>58.27999877929688</v>
       </c>
       <c r="F134" t="n">
-        <v>46.27140426635742</v>
+        <v>46.27140808105469</v>
       </c>
       <c r="G134" t="n">
         <v>4413775</v>
@@ -5144,7 +5144,7 @@
         <v>58.40000152587891</v>
       </c>
       <c r="F136" t="n">
-        <v>46.36668014526367</v>
+        <v>46.36667633056641</v>
       </c>
       <c r="G136" t="n">
         <v>4575250</v>
@@ -5179,7 +5179,7 @@
         <v>58.04000091552734</v>
       </c>
       <c r="F137" t="n">
-        <v>46.08085632324219</v>
+        <v>46.08086013793945</v>
       </c>
       <c r="G137" t="n">
         <v>4118175</v>
@@ -5214,7 +5214,7 @@
         <v>57.72000122070312</v>
       </c>
       <c r="F138" t="n">
-        <v>45.82679748535156</v>
+        <v>45.8267936706543</v>
       </c>
       <c r="G138" t="n">
         <v>6745825</v>
@@ -5249,7 +5249,7 @@
         <v>56.27999877929688</v>
       </c>
       <c r="F139" t="n">
-        <v>44.68350982666016</v>
+        <v>44.68350219726562</v>
       </c>
       <c r="G139" t="n">
         <v>3700850</v>
@@ -5284,7 +5284,7 @@
         <v>57.36000061035156</v>
       </c>
       <c r="F140" t="n">
-        <v>45.54096984863281</v>
+        <v>45.54097747802734</v>
       </c>
       <c r="G140" t="n">
         <v>5023575</v>
@@ -5354,7 +5354,7 @@
         <v>56.27999877929688</v>
       </c>
       <c r="F142" t="n">
-        <v>44.68350982666016</v>
+        <v>44.68350219726562</v>
       </c>
       <c r="G142" t="n">
         <v>3557425</v>
@@ -5389,7 +5389,7 @@
         <v>53.15999984741211</v>
       </c>
       <c r="F143" t="n">
-        <v>42.6448974609375</v>
+        <v>42.64490509033203</v>
       </c>
       <c r="G143" t="n">
         <v>3080650</v>
@@ -5424,7 +5424,7 @@
         <v>50.88000106811523</v>
       </c>
       <c r="F144" t="n">
-        <v>40.81589889526367</v>
+        <v>40.81590270996094</v>
       </c>
       <c r="G144" t="n">
         <v>7884600</v>
@@ -5459,7 +5459,7 @@
         <v>50.11999893188477</v>
       </c>
       <c r="F145" t="n">
-        <v>40.20621490478516</v>
+        <v>40.20622634887695</v>
       </c>
       <c r="G145" t="n">
         <v>7324950</v>
@@ -5494,7 +5494,7 @@
         <v>49.47999954223633</v>
       </c>
       <c r="F146" t="n">
-        <v>39.69281768798828</v>
+        <v>39.69282531738281</v>
       </c>
       <c r="G146" t="n">
         <v>3459825</v>
@@ -5529,7 +5529,7 @@
         <v>53.11999893188477</v>
       </c>
       <c r="F147" t="n">
-        <v>42.61281967163086</v>
+        <v>42.61281585693359</v>
       </c>
       <c r="G147" t="n">
         <v>4737600</v>
@@ -5599,7 +5599,7 @@
         <v>49.88000106811523</v>
       </c>
       <c r="F149" t="n">
-        <v>40.20561599731445</v>
+        <v>40.20560836791992</v>
       </c>
       <c r="G149" t="n">
         <v>6547075</v>
@@ -5634,7 +5634,7 @@
         <v>48</v>
       </c>
       <c r="F150" t="n">
-        <v>38.69023513793945</v>
+        <v>38.69024658203125</v>
       </c>
       <c r="G150" t="n">
         <v>4916775</v>
@@ -5669,7 +5669,7 @@
         <v>45.63999938964844</v>
       </c>
       <c r="F151" t="n">
-        <v>36.78796768188477</v>
+        <v>36.78797149658203</v>
       </c>
       <c r="G151" t="n">
         <v>3171275</v>
@@ -5704,7 +5704,7 @@
         <v>42.63999938964844</v>
       </c>
       <c r="F152" t="n">
-        <v>34.36982345581055</v>
+        <v>34.36982727050781</v>
       </c>
       <c r="G152" t="n">
         <v>8709175</v>
@@ -5739,7 +5739,7 @@
         <v>36</v>
       </c>
       <c r="F153" t="n">
-        <v>29.01767349243164</v>
+        <v>29.01767730712891</v>
       </c>
       <c r="G153" t="n">
         <v>9309950</v>
@@ -5774,7 +5774,7 @@
         <v>34.63999938964844</v>
       </c>
       <c r="F154" t="n">
-        <v>27.92145729064941</v>
+        <v>27.92145156860352</v>
       </c>
       <c r="G154" t="n">
         <v>2462700</v>
@@ -5809,7 +5809,7 @@
         <v>38.31999969482422</v>
       </c>
       <c r="F155" t="n">
-        <v>31.14382553100586</v>
+        <v>31.14382934570312</v>
       </c>
       <c r="G155" t="n">
         <v>3940250</v>
@@ -5844,7 +5844,7 @@
         <v>33.72000122070312</v>
       </c>
       <c r="F156" t="n">
-        <v>27.4052677154541</v>
+        <v>27.40526962280273</v>
       </c>
       <c r="G156" t="n">
         <v>5159275</v>
@@ -5879,7 +5879,7 @@
         <v>29.47999954223633</v>
       </c>
       <c r="F157" t="n">
-        <v>23.95928955078125</v>
+        <v>23.95928382873535</v>
       </c>
       <c r="G157" t="n">
         <v>9981725</v>
@@ -5949,7 +5949,7 @@
         <v>34.04000091552734</v>
       </c>
       <c r="F159" t="n">
-        <v>27.66534042358398</v>
+        <v>27.66534805297852</v>
       </c>
       <c r="G159" t="n">
         <v>10063850</v>
@@ -5984,7 +5984,7 @@
         <v>37.47999954223633</v>
       </c>
       <c r="F160" t="n">
-        <v>30.46113014221191</v>
+        <v>30.46113395690918</v>
       </c>
       <c r="G160" t="n">
         <v>11545600</v>
@@ -6019,7 +6019,7 @@
         <v>37.72000122070312</v>
       </c>
       <c r="F161" t="n">
-        <v>30.82242774963379</v>
+        <v>30.82244110107422</v>
       </c>
       <c r="G161" t="n">
         <v>6348325</v>
@@ -6124,7 +6124,7 @@
         <v>39.7599983215332</v>
       </c>
       <c r="F164" t="n">
-        <v>32.48939514160156</v>
+        <v>32.4893913269043</v>
       </c>
       <c r="G164" t="n">
         <v>7149925</v>
@@ -6159,7 +6159,7 @@
         <v>38.20000076293945</v>
       </c>
       <c r="F165" t="n">
-        <v>31.21467399597168</v>
+        <v>31.21465873718262</v>
       </c>
       <c r="G165" t="n">
         <v>9545750</v>
@@ -6229,7 +6229,7 @@
         <v>38.95999908447266</v>
       </c>
       <c r="F167" t="n">
-        <v>32.12296676635742</v>
+        <v>32.12297439575195</v>
       </c>
       <c r="G167" t="n">
         <v>3569300</v>
@@ -6264,7 +6264,7 @@
         <v>39.36000061035156</v>
       </c>
       <c r="F168" t="n">
-        <v>32.45278167724609</v>
+        <v>32.45277786254883</v>
       </c>
       <c r="G168" t="n">
         <v>9333825</v>
@@ -6299,7 +6299,7 @@
         <v>39.7599983215332</v>
       </c>
       <c r="F169" t="n">
-        <v>32.78257751464844</v>
+        <v>32.78256988525391</v>
       </c>
       <c r="G169" t="n">
         <v>4803650</v>
@@ -6334,7 +6334,7 @@
         <v>41.7599983215332</v>
       </c>
       <c r="F170" t="n">
-        <v>34.43158721923828</v>
+        <v>34.43159866333008</v>
       </c>
       <c r="G170" t="n">
         <v>9415275</v>
@@ -6369,7 +6369,7 @@
         <v>41.56000137329102</v>
       </c>
       <c r="F171" t="n">
-        <v>34.26668930053711</v>
+        <v>34.26669311523438</v>
       </c>
       <c r="G171" t="n">
         <v>9148925</v>
@@ -6404,7 +6404,7 @@
         <v>38.04000091552734</v>
       </c>
       <c r="F172" t="n">
-        <v>31.36441421508789</v>
+        <v>31.36441802978516</v>
       </c>
       <c r="G172" t="n">
         <v>7155925</v>
@@ -6439,7 +6439,7 @@
         <v>36.79999923706055</v>
       </c>
       <c r="F173" t="n">
-        <v>30.56075286865234</v>
+        <v>30.56077194213867</v>
       </c>
       <c r="G173" t="n">
         <v>4881525</v>
@@ -6474,7 +6474,7 @@
         <v>38.52000045776367</v>
       </c>
       <c r="F174" t="n">
-        <v>31.9891471862793</v>
+        <v>31.98914909362793</v>
       </c>
       <c r="G174" t="n">
         <v>4583700</v>
@@ -6544,7 +6544,7 @@
         <v>39.56000137329102</v>
       </c>
       <c r="F176" t="n">
-        <v>32.85282135009766</v>
+        <v>32.85281753540039</v>
       </c>
       <c r="G176" t="n">
         <v>4580925</v>
@@ -6579,7 +6579,7 @@
         <v>40.08000183105469</v>
       </c>
       <c r="F177" t="n">
-        <v>33.28466033935547</v>
+        <v>33.28466415405273</v>
       </c>
       <c r="G177" t="n">
         <v>5126825</v>
@@ -6614,7 +6614,7 @@
         <v>41.08000183105469</v>
       </c>
       <c r="F178" t="n">
-        <v>34.11511611938477</v>
+        <v>34.1151008605957</v>
       </c>
       <c r="G178" t="n">
         <v>5802100</v>
@@ -6719,7 +6719,7 @@
         <v>46.11999893188477</v>
       </c>
       <c r="F181" t="n">
-        <v>38.56296157836914</v>
+        <v>38.56296539306641</v>
       </c>
       <c r="G181" t="n">
         <v>3880525</v>
@@ -6894,7 +6894,7 @@
         <v>42.84000015258789</v>
       </c>
       <c r="F186" t="n">
-        <v>36.13275909423828</v>
+        <v>36.13276672363281</v>
       </c>
       <c r="G186" t="n">
         <v>5224775</v>
@@ -6964,7 +6964,7 @@
         <v>37.84000015258789</v>
       </c>
       <c r="F188" t="n">
-        <v>31.91558647155762</v>
+        <v>31.91558456420898</v>
       </c>
       <c r="G188" t="n">
         <v>5476925</v>
@@ -6999,7 +6999,7 @@
         <v>37.59999847412109</v>
       </c>
       <c r="F189" t="n">
-        <v>31.71315765380859</v>
+        <v>31.71315574645996</v>
       </c>
       <c r="G189" t="n">
         <v>8764125</v>
@@ -7034,7 +7034,7 @@
         <v>37.72000122070312</v>
       </c>
       <c r="F190" t="n">
-        <v>31.81436920166016</v>
+        <v>31.81436347961426</v>
       </c>
       <c r="G190" t="n">
         <v>8429300</v>
@@ -7069,7 +7069,7 @@
         <v>36.43999862670898</v>
       </c>
       <c r="F191" t="n">
-        <v>31.10439682006836</v>
+        <v>31.10439872741699</v>
       </c>
       <c r="G191" t="n">
         <v>3586775</v>
@@ -7104,7 +7104,7 @@
         <v>38.20000076293945</v>
       </c>
       <c r="F192" t="n">
-        <v>32.60670852661133</v>
+        <v>32.60670471191406</v>
       </c>
       <c r="G192" t="n">
         <v>5328425</v>
@@ -7139,7 +7139,7 @@
         <v>39.95999908447266</v>
       </c>
       <c r="F193" t="n">
-        <v>34.10899353027344</v>
+        <v>34.1089973449707</v>
       </c>
       <c r="G193" t="n">
         <v>5205800</v>
@@ -7174,7 +7174,7 @@
         <v>40.72000122070312</v>
       </c>
       <c r="F194" t="n">
-        <v>34.75772857666016</v>
+        <v>34.75771331787109</v>
       </c>
       <c r="G194" t="n">
         <v>3496250</v>
@@ -7244,7 +7244,7 @@
         <v>35.56000137329102</v>
       </c>
       <c r="F196" t="n">
-        <v>30.35324668884277</v>
+        <v>30.35325050354004</v>
       </c>
       <c r="G196" t="n">
         <v>2660225</v>
@@ -7279,7 +7279,7 @@
         <v>37.63999938964844</v>
       </c>
       <c r="F197" t="n">
-        <v>32.43830490112305</v>
+        <v>32.43830871582031</v>
       </c>
       <c r="G197" t="n">
         <v>2993025</v>
@@ -7314,7 +7314,7 @@
         <v>35.95999908447266</v>
       </c>
       <c r="F198" t="n">
-        <v>30.9904670715332</v>
+        <v>30.99047470092773</v>
       </c>
       <c r="G198" t="n">
         <v>3229650</v>
@@ -7349,7 +7349,7 @@
         <v>36.2400016784668</v>
       </c>
       <c r="F199" t="n">
-        <v>31.23177528381348</v>
+        <v>31.23177337646484</v>
       </c>
       <c r="G199" t="n">
         <v>4005100</v>
@@ -7384,7 +7384,7 @@
         <v>36.68000030517578</v>
       </c>
       <c r="F200" t="n">
-        <v>31.61096954345703</v>
+        <v>31.61097145080566</v>
       </c>
       <c r="G200" t="n">
         <v>4597200</v>
@@ -7419,7 +7419,7 @@
         <v>36.2400016784668</v>
       </c>
       <c r="F201" t="n">
-        <v>31.23177528381348</v>
+        <v>31.23177337646484</v>
       </c>
       <c r="G201" t="n">
         <v>2931325</v>
@@ -7489,7 +7489,7 @@
         <v>39</v>
       </c>
       <c r="F203" t="n">
-        <v>33.9723014831543</v>
+        <v>33.97229766845703</v>
       </c>
       <c r="G203" t="n">
         <v>7618900</v>
@@ -7559,7 +7559,7 @@
         <v>40.84000015258789</v>
       </c>
       <c r="F205" t="n">
-        <v>35.57509994506836</v>
+        <v>35.57508850097656</v>
       </c>
       <c r="G205" t="n">
         <v>6937625</v>
@@ -7594,7 +7594,7 @@
         <v>43.20000076293945</v>
       </c>
       <c r="F206" t="n">
-        <v>37.63085556030273</v>
+        <v>37.63084411621094</v>
       </c>
       <c r="G206" t="n">
         <v>8444450</v>
@@ -7629,7 +7629,7 @@
         <v>46.79999923706055</v>
       </c>
       <c r="F207" t="n">
-        <v>40.76676940917969</v>
+        <v>40.76675415039062</v>
       </c>
       <c r="G207" t="n">
         <v>5345925</v>
@@ -7699,7 +7699,7 @@
         <v>44.88000106811523</v>
       </c>
       <c r="F209" t="n">
-        <v>39.263427734375</v>
+        <v>39.26343154907227</v>
       </c>
       <c r="G209" t="n">
         <v>13429600</v>
@@ -7734,7 +7734,7 @@
         <v>44.88000106811523</v>
       </c>
       <c r="F210" t="n">
-        <v>39.263427734375</v>
+        <v>39.26343154907227</v>
       </c>
       <c r="G210" t="n">
         <v>8533675</v>
@@ -7769,7 +7769,7 @@
         <v>43.47999954223633</v>
       </c>
       <c r="F211" t="n">
-        <v>38.03862762451172</v>
+        <v>38.03861618041992</v>
       </c>
       <c r="G211" t="n">
         <v>5773450</v>
@@ -7804,7 +7804,7 @@
         <v>47.68000030517578</v>
       </c>
       <c r="F212" t="n">
-        <v>41.71300888061523</v>
+        <v>41.7130126953125</v>
       </c>
       <c r="G212" t="n">
         <v>8944950</v>
@@ -7839,7 +7839,7 @@
         <v>47.63999938964844</v>
       </c>
       <c r="F213" t="n">
-        <v>41.67802429199219</v>
+        <v>41.67801666259766</v>
       </c>
       <c r="G213" t="n">
         <v>5469675</v>
@@ -7874,7 +7874,7 @@
         <v>48.2400016784668</v>
       </c>
       <c r="F214" t="n">
-        <v>42.20293426513672</v>
+        <v>42.20293045043945</v>
       </c>
       <c r="G214" t="n">
         <v>4449275</v>
@@ -7909,7 +7909,7 @@
         <v>48.56000137329102</v>
       </c>
       <c r="F215" t="n">
-        <v>42.80400466918945</v>
+        <v>42.80400085449219</v>
       </c>
       <c r="G215" t="n">
         <v>2011575</v>
@@ -7979,7 +7979,7 @@
         <v>46.43999862670898</v>
       </c>
       <c r="F217" t="n">
-        <v>40.93529510498047</v>
+        <v>40.9352912902832</v>
       </c>
       <c r="G217" t="n">
         <v>9249275</v>
@@ -8049,7 +8049,7 @@
         <v>44.31999969482422</v>
       </c>
       <c r="F219" t="n">
-        <v>39.06658935546875</v>
+        <v>39.06659317016602</v>
       </c>
       <c r="G219" t="n">
         <v>16735625</v>
@@ -8084,7 +8084,7 @@
         <v>46.31999969482422</v>
       </c>
       <c r="F220" t="n">
-        <v>40.82951354980469</v>
+        <v>40.82952499389648</v>
       </c>
       <c r="G220" t="n">
         <v>3598350</v>
@@ -8119,7 +8119,7 @@
         <v>48.15999984741211</v>
       </c>
       <c r="F221" t="n">
-        <v>42.74131011962891</v>
+        <v>42.74130249023438</v>
       </c>
       <c r="G221" t="n">
         <v>3541150</v>
@@ -8154,7 +8154,7 @@
         <v>48</v>
       </c>
       <c r="F222" t="n">
-        <v>42.59931564331055</v>
+        <v>42.59930801391602</v>
       </c>
       <c r="G222" t="n">
         <v>9879750</v>
@@ -8189,7 +8189,7 @@
         <v>47.20000076293945</v>
       </c>
       <c r="F223" t="n">
-        <v>41.88932418823242</v>
+        <v>41.88932800292969</v>
       </c>
       <c r="G223" t="n">
         <v>7910025</v>
@@ -8294,7 +8294,7 @@
         <v>46.47999954223633</v>
       </c>
       <c r="F226" t="n">
-        <v>41.25034332275391</v>
+        <v>41.25033187866211</v>
       </c>
       <c r="G226" t="n">
         <v>2619575</v>
@@ -8329,7 +8329,7 @@
         <v>44.95999908447266</v>
       </c>
       <c r="F227" t="n">
-        <v>40.13894271850586</v>
+        <v>40.13895034790039</v>
       </c>
       <c r="G227" t="n">
         <v>3983275</v>
@@ -8399,7 +8399,7 @@
         <v>49.40000152587891</v>
       </c>
       <c r="F229" t="n">
-        <v>44.10284805297852</v>
+        <v>44.10285186767578</v>
       </c>
       <c r="G229" t="n">
         <v>9573975</v>
@@ -8434,7 +8434,7 @@
         <v>50.11999893188477</v>
       </c>
       <c r="F230" t="n">
-        <v>44.74564361572266</v>
+        <v>44.74565124511719</v>
       </c>
       <c r="G230" t="n">
         <v>7267350</v>
@@ -8469,7 +8469,7 @@
         <v>51.43999862670898</v>
       </c>
       <c r="F231" t="n">
-        <v>45.92410278320312</v>
+        <v>45.92409515380859</v>
       </c>
       <c r="G231" t="n">
         <v>20821325</v>
@@ -8504,7 +8504,7 @@
         <v>52.20000076293945</v>
       </c>
       <c r="F232" t="n">
-        <v>46.60261154174805</v>
+        <v>46.60260009765625</v>
       </c>
       <c r="G232" t="n">
         <v>10201050</v>
@@ -8539,7 +8539,7 @@
         <v>51.2400016784668</v>
       </c>
       <c r="F233" t="n">
-        <v>45.97789764404297</v>
+        <v>45.9779052734375</v>
       </c>
       <c r="G233" t="n">
         <v>7547875</v>
@@ -8609,7 +8609,7 @@
         <v>48.47999954223633</v>
       </c>
       <c r="F235" t="n">
-        <v>43.5013427734375</v>
+        <v>43.50133514404297</v>
       </c>
       <c r="G235" t="n">
         <v>13272850</v>
@@ -8644,7 +8644,7 @@
         <v>45.72000122070312</v>
       </c>
       <c r="F236" t="n">
-        <v>41.0247688293457</v>
+        <v>41.02477645874023</v>
       </c>
       <c r="G236" t="n">
         <v>11904550</v>
@@ -8714,7 +8714,7 @@
         <v>49.52000045776367</v>
       </c>
       <c r="F238" t="n">
-        <v>44.43453598022461</v>
+        <v>44.43453216552734</v>
       </c>
       <c r="G238" t="n">
         <v>11277375</v>
@@ -8749,7 +8749,7 @@
         <v>48.47999954223633</v>
       </c>
       <c r="F239" t="n">
-        <v>43.82003021240234</v>
+        <v>43.82002639770508</v>
       </c>
       <c r="G239" t="n">
         <v>6550950</v>
@@ -8784,7 +8784,7 @@
         <v>46</v>
       </c>
       <c r="F240" t="n">
-        <v>41.57841110229492</v>
+        <v>41.57840728759766</v>
       </c>
       <c r="G240" t="n">
         <v>18271025</v>
@@ -8819,7 +8819,7 @@
         <v>43.56000137329102</v>
       </c>
       <c r="F241" t="n">
-        <v>39.37294769287109</v>
+        <v>39.37294387817383</v>
       </c>
       <c r="G241" t="n">
         <v>12901700</v>
@@ -8889,7 +8889,7 @@
         <v>45.68000030517578</v>
       </c>
       <c r="F243" t="n">
-        <v>41.28916931152344</v>
+        <v>41.28916549682617</v>
       </c>
       <c r="G243" t="n">
         <v>17211950</v>
@@ -8924,7 +8924,7 @@
         <v>47.15999984741211</v>
       </c>
       <c r="F244" t="n">
-        <v>42.62689971923828</v>
+        <v>42.62690734863281</v>
       </c>
       <c r="G244" t="n">
         <v>11470925</v>
@@ -8959,7 +8959,7 @@
         <v>46</v>
       </c>
       <c r="F245" t="n">
-        <v>41.90596389770508</v>
+        <v>41.90596771240234</v>
       </c>
       <c r="G245" t="n">
         <v>27695200</v>
@@ -9064,7 +9064,7 @@
         <v>50.15999984741211</v>
       </c>
       <c r="F248" t="n">
-        <v>45.69572067260742</v>
+        <v>45.69572830200195</v>
       </c>
       <c r="G248" t="n">
         <v>12557200</v>
@@ -9099,7 +9099,7 @@
         <v>50.52000045776367</v>
       </c>
       <c r="F249" t="n">
-        <v>46.02368927001953</v>
+        <v>46.023681640625</v>
       </c>
       <c r="G249" t="n">
         <v>6951725</v>
@@ -9134,7 +9134,7 @@
         <v>49.88999938964844</v>
       </c>
       <c r="F250" t="n">
-        <v>45.44975662231445</v>
+        <v>45.44974899291992</v>
       </c>
       <c r="G250" t="n">
         <v>9579000</v>
@@ -9169,7 +9169,7 @@
         <v>48.86000061035156</v>
       </c>
       <c r="F251" t="n">
-        <v>45.03025436401367</v>
+        <v>45.03025817871094</v>
       </c>
       <c r="G251" t="n">
         <v>3395200</v>
@@ -9274,7 +9274,7 @@
         <v>51.5</v>
       </c>
       <c r="F254" t="n">
-        <v>47.46332550048828</v>
+        <v>47.46332931518555</v>
       </c>
       <c r="G254" t="n">
         <v>6983600</v>
@@ -9309,7 +9309,7 @@
         <v>51.86000061035156</v>
       </c>
       <c r="F255" t="n">
-        <v>47.79510879516602</v>
+        <v>47.79511260986328</v>
       </c>
       <c r="G255" t="n">
         <v>6285100</v>
@@ -9344,7 +9344,7 @@
         <v>53.29000091552734</v>
       </c>
       <c r="F256" t="n">
-        <v>49.11301803588867</v>
+        <v>49.1130256652832</v>
       </c>
       <c r="G256" t="n">
         <v>2829100</v>
@@ -9379,7 +9379,7 @@
         <v>53.65000152587891</v>
       </c>
       <c r="F257" t="n">
-        <v>49.7631950378418</v>
+        <v>49.76319885253906</v>
       </c>
       <c r="G257" t="n">
         <v>5430500</v>
@@ -9414,7 +9414,7 @@
         <v>54.7599983215332</v>
       </c>
       <c r="F258" t="n">
-        <v>50.79277801513672</v>
+        <v>50.79278182983398</v>
       </c>
       <c r="G258" t="n">
         <v>2854200</v>
@@ -9449,7 +9449,7 @@
         <v>54.70999908447266</v>
       </c>
       <c r="F259" t="n">
-        <v>50.74641036987305</v>
+        <v>50.74640655517578</v>
       </c>
       <c r="G259" t="n">
         <v>3843500</v>
@@ -9484,7 +9484,7 @@
         <v>55.70999908447266</v>
       </c>
       <c r="F260" t="n">
-        <v>51.67395401000977</v>
+        <v>51.67395782470703</v>
       </c>
       <c r="G260" t="n">
         <v>6216000</v>
@@ -9519,7 +9519,7 @@
         <v>58.65000152587891</v>
       </c>
       <c r="F261" t="n">
-        <v>54.40095901489258</v>
+        <v>54.40096282958984</v>
       </c>
       <c r="G261" t="n">
         <v>7964000</v>
@@ -9554,7 +9554,7 @@
         <v>59.90999984741211</v>
       </c>
       <c r="F262" t="n">
-        <v>55.56967544555664</v>
+        <v>55.56967926025391</v>
       </c>
       <c r="G262" t="n">
         <v>7539000</v>
@@ -9589,7 +9589,7 @@
         <v>59.93000030517578</v>
       </c>
       <c r="F263" t="n">
-        <v>55.95653533935547</v>
+        <v>55.9565315246582</v>
       </c>
       <c r="G263" t="n">
         <v>3730800</v>
@@ -9659,7 +9659,7 @@
         <v>61.06999969482422</v>
       </c>
       <c r="F265" t="n">
-        <v>57.02095413208008</v>
+        <v>57.02094650268555</v>
       </c>
       <c r="G265" t="n">
         <v>11535900</v>
@@ -9764,7 +9764,7 @@
         <v>59.7400016784668</v>
       </c>
       <c r="F268" t="n">
-        <v>55.77913284301758</v>
+        <v>55.77913665771484</v>
       </c>
       <c r="G268" t="n">
         <v>6761200</v>
@@ -9834,7 +9834,7 @@
         <v>58.52999877929688</v>
       </c>
       <c r="F270" t="n">
-        <v>55.07242202758789</v>
+        <v>55.07242584228516</v>
       </c>
       <c r="G270" t="n">
         <v>8639300</v>
@@ -9869,7 +9869,7 @@
         <v>58.22000122070312</v>
       </c>
       <c r="F271" t="n">
-        <v>54.78073883056641</v>
+        <v>54.78074264526367</v>
       </c>
       <c r="G271" t="n">
         <v>3830500</v>
@@ -9904,7 +9904,7 @@
         <v>60.22999954223633</v>
       </c>
       <c r="F272" t="n">
-        <v>56.67200088500977</v>
+        <v>56.6719970703125</v>
       </c>
       <c r="G272" t="n">
         <v>6219900</v>
@@ -9974,7 +9974,7 @@
         <v>55.34000015258789</v>
       </c>
       <c r="F274" t="n">
-        <v>52.07086944580078</v>
+        <v>52.07087326049805</v>
       </c>
       <c r="G274" t="n">
         <v>6369100</v>
@@ -10289,7 +10289,7 @@
         <v>53.91999816894531</v>
       </c>
       <c r="F283" t="n">
-        <v>51.59418106079102</v>
+        <v>51.59417724609375</v>
       </c>
       <c r="G283" t="n">
         <v>6970700</v>
@@ -11301,25 +11301,25 @@
         <v>67.73000335693359</v>
       </c>
       <c r="E312" t="n">
-        <v>67.94000244140625</v>
+        <v>67.83000183105469</v>
       </c>
       <c r="F312" t="n">
-        <v>67.94000244140625</v>
+        <v>67.83000183105469</v>
       </c>
       <c r="G312" t="n">
-        <v>1699671</v>
+        <v>1984080</v>
       </c>
       <c r="H312" t="n">
-        <v>0.01463565367880726</v>
+        <v>0.01299287273711713</v>
       </c>
       <c r="I312" t="n">
-        <v>0.03844656424120785</v>
+        <v>0.03844359182451414</v>
       </c>
       <c r="J312" t="n">
-        <v>0.01418128986313216</v>
+        <v>0.01253924457488997</v>
       </c>
       <c r="K312" t="n">
-        <v>0.01418128986313216</v>
+        <v>0.01253924457488997</v>
       </c>
     </row>
   </sheetData>
